--- a/aichan/549391609260995624_2021-07-20_12-00-02.xlsx
+++ b/aichan/549391609260995624_2021-07-20_12-00-02.xlsx
@@ -624,7 +624,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -770,7 +770,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -975,7 +975,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1042,7 +1042,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1109,7 +1109,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1393,7 +1393,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1603,7 +1603,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1745,7 +1745,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1887,7 +1887,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -1962,7 +1962,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -2185,7 +2185,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -2328,7 +2328,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2403,7 +2403,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2545,7 +2545,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -2825,7 +2825,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -2955,7 +2955,7 @@
         </is>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -3323,7 +3323,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -3670,7 +3670,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -3745,7 +3745,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -3816,7 +3816,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -4621,7 +4621,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -5055,7 +5055,7 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -5566,7 +5566,7 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -5638,7 +5638,7 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -5861,7 +5861,7 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -5932,7 +5932,7 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -6429,7 +6429,7 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -6575,7 +6575,7 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -6871,7 +6871,7 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -6946,7 +6946,7 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -7092,7 +7092,7 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
@@ -7167,7 +7167,7 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -7242,7 +7242,7 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -8038,7 +8038,7 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
@@ -8539,7 +8539,7 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
@@ -8827,11 +8827,11 @@
         </is>
       </c>
       <c r="I117" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
@@ -8906,11 +8906,11 @@
         </is>
       </c>
       <c r="I118" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
@@ -9604,7 +9604,7 @@
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
@@ -9675,11 +9675,11 @@
         </is>
       </c>
       <c r="I128" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K128" t="inlineStr">
@@ -10342,7 +10342,7 @@
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K137" t="inlineStr">
@@ -10492,11 +10492,11 @@
         </is>
       </c>
       <c r="I139" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K139" t="inlineStr">
@@ -10855,7 +10855,7 @@
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K144" t="inlineStr">
@@ -11068,7 +11068,7 @@
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K147" t="inlineStr">
@@ -11143,7 +11143,7 @@
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K148" t="inlineStr">
@@ -11735,7 +11735,7 @@
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K156" t="inlineStr">
@@ -11806,7 +11806,7 @@
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K157" t="inlineStr">
@@ -12772,7 +12772,7 @@
         </is>
       </c>
       <c r="I170" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J170" t="inlineStr">
         <is>
@@ -13650,7 +13650,7 @@
       </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K182" t="inlineStr">
@@ -14060,7 +14060,7 @@
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K188" t="inlineStr">
@@ -14294,7 +14294,7 @@
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K191" t="inlineStr">
@@ -15063,7 +15063,7 @@
         </is>
       </c>
       <c r="I202" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J202" t="inlineStr">
         <is>
@@ -15342,7 +15342,7 @@
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K206" t="inlineStr">
@@ -15488,7 +15488,7 @@
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K208" t="inlineStr">
@@ -15555,7 +15555,7 @@
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K209" t="inlineStr">
@@ -15768,7 +15768,7 @@
       </c>
       <c r="J212" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K212" t="inlineStr">
@@ -16036,7 +16036,7 @@
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K216" t="inlineStr">
@@ -16453,7 +16453,7 @@
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K222" t="inlineStr">
@@ -16750,7 +16750,7 @@
       </c>
       <c r="J226" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K226" t="inlineStr">
@@ -17271,7 +17271,7 @@
       </c>
       <c r="J233" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K233" t="inlineStr">
@@ -18875,7 +18875,7 @@
       </c>
       <c r="J255" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K255" t="inlineStr">
@@ -19772,7 +19772,7 @@
       </c>
       <c r="J267" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K267" t="inlineStr">
@@ -19977,11 +19977,11 @@
         </is>
       </c>
       <c r="I270" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J270" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K270" t="inlineStr">
@@ -20135,7 +20135,7 @@
       </c>
       <c r="J272" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K272" t="inlineStr">
@@ -20487,7 +20487,7 @@
       </c>
       <c r="J277" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K277" t="inlineStr">
@@ -20996,7 +20996,7 @@
       </c>
       <c r="J284" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K284" t="inlineStr">
@@ -21234,7 +21234,7 @@
       </c>
       <c r="J287" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K287" t="inlineStr">
@@ -23382,7 +23382,7 @@
       </c>
       <c r="J318" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K318" t="inlineStr">
@@ -23453,7 +23453,7 @@
       </c>
       <c r="J319" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K319" t="inlineStr">
@@ -23816,7 +23816,7 @@
       </c>
       <c r="J324" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K324" t="inlineStr">
@@ -23962,7 +23962,7 @@
       </c>
       <c r="J326" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K326" t="inlineStr">
@@ -24321,7 +24321,7 @@
       </c>
       <c r="J331" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K331" t="inlineStr">
@@ -24550,7 +24550,7 @@
       </c>
       <c r="J334" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K334" t="inlineStr">
@@ -24701,7 +24701,7 @@
       </c>
       <c r="J336" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K336" t="inlineStr">
@@ -25056,7 +25056,7 @@
       </c>
       <c r="J341" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K341" t="inlineStr">
@@ -25700,7 +25700,7 @@
       </c>
       <c r="J350" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K350" t="inlineStr">
@@ -26135,7 +26135,7 @@
       </c>
       <c r="J356" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K356" t="inlineStr">
@@ -26210,7 +26210,7 @@
       </c>
       <c r="J357" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K357" t="inlineStr">
@@ -26652,7 +26652,7 @@
       </c>
       <c r="J363" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K363" t="inlineStr">
@@ -26941,7 +26941,7 @@
       </c>
       <c r="J367" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K367" t="inlineStr">
@@ -27652,7 +27652,7 @@
       </c>
       <c r="J377" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K377" t="inlineStr">
@@ -27928,7 +27928,7 @@
       </c>
       <c r="J381" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K381" t="inlineStr">
@@ -28288,7 +28288,7 @@
       </c>
       <c r="J386" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K386" t="inlineStr">
@@ -28795,7 +28795,7 @@
       </c>
       <c r="J393" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K393" t="inlineStr">
@@ -29009,7 +29009,7 @@
       </c>
       <c r="J396" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K396" t="inlineStr">
@@ -29218,7 +29218,7 @@
       </c>
       <c r="J399" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K399" t="inlineStr">
@@ -29498,7 +29498,7 @@
       </c>
       <c r="J403" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K403" t="inlineStr">
@@ -30311,7 +30311,7 @@
       </c>
       <c r="J414" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K414" t="inlineStr">
@@ -31359,11 +31359,11 @@
         </is>
       </c>
       <c r="I428" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J428" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K428" t="inlineStr">
@@ -31509,7 +31509,7 @@
       </c>
       <c r="J430" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K430" t="inlineStr">
@@ -31940,7 +31940,7 @@
       </c>
       <c r="J436" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K436" t="inlineStr">
@@ -32818,7 +32818,7 @@
       </c>
       <c r="J448" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K448" t="inlineStr">
@@ -33046,7 +33046,7 @@
       </c>
       <c r="J451" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K451" t="inlineStr">
@@ -34372,7 +34372,7 @@
       </c>
       <c r="J469" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K469" t="inlineStr">
@@ -34443,7 +34443,7 @@
       </c>
       <c r="J470" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K470" t="inlineStr">
@@ -35244,7 +35244,7 @@
       </c>
       <c r="J481" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K481" t="inlineStr">
@@ -35453,11 +35453,11 @@
         </is>
       </c>
       <c r="I484" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="J484" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K484" t="inlineStr">
@@ -36038,7 +36038,7 @@
       </c>
       <c r="J492" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K492" t="inlineStr">
@@ -36793,7 +36793,7 @@
         </is>
       </c>
       <c r="I502" t="n">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="J502" t="inlineStr">
         <is>
@@ -37537,7 +37537,7 @@
       </c>
       <c r="J512" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K512" t="inlineStr">
@@ -37600,7 +37600,7 @@
         </is>
       </c>
       <c r="I513" t="n">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="J513" t="inlineStr">
         <is>
@@ -38346,7 +38346,7 @@
       </c>
       <c r="J523" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K523" t="inlineStr">
@@ -39288,7 +39288,7 @@
       </c>
       <c r="J536" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K536" t="inlineStr">
@@ -39740,7 +39740,7 @@
       </c>
       <c r="J542" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K542" t="inlineStr">
@@ -42743,7 +42743,7 @@
       </c>
       <c r="J584" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K584" t="inlineStr">
@@ -43453,7 +43453,7 @@
       </c>
       <c r="J594" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K594" t="inlineStr">
@@ -43595,7 +43595,7 @@
       </c>
       <c r="J596" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K596" t="inlineStr">
@@ -43939,7 +43939,7 @@
         </is>
       </c>
       <c r="I601" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="J601" t="inlineStr">
         <is>
@@ -46151,11 +46151,11 @@
         </is>
       </c>
       <c r="I631" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J631" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K631" t="inlineStr">
@@ -46822,7 +46822,7 @@
       </c>
       <c r="J640" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K640" t="inlineStr">
@@ -47863,7 +47863,7 @@
       </c>
       <c r="J654" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K654" t="inlineStr">
@@ -48001,7 +48001,7 @@
       </c>
       <c r="J656" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K656" t="inlineStr">
@@ -48644,7 +48644,7 @@
       </c>
       <c r="J665" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K665" t="inlineStr">
@@ -48992,7 +48992,7 @@
       </c>
       <c r="J670" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K670" t="inlineStr">
@@ -52727,7 +52727,7 @@
         </is>
       </c>
       <c r="I721" t="n">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="J721" t="inlineStr">
         <is>

--- a/aichan/549391609260995624_2021-07-20_12-00-02.xlsx
+++ b/aichan/549391609260995624_2021-07-20_12-00-02.xlsx
@@ -770,7 +770,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -975,7 +975,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1042,7 +1042,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1109,7 +1109,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1184,7 +1184,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1326,7 +1326,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1393,7 +1393,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1468,7 +1468,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1603,7 +1603,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1678,7 +1678,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1745,7 +1745,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1820,7 +1820,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1887,7 +1887,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -1962,7 +1962,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -2038,7 +2038,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -2185,7 +2185,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -2261,7 +2261,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -2328,7 +2328,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2403,7 +2403,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2478,7 +2478,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2545,7 +2545,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -2762,7 +2762,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -2825,7 +2825,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -2892,7 +2892,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -3035,7 +3035,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -3102,7 +3102,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -3173,7 +3173,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -3323,7 +3323,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -3473,7 +3473,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -3670,7 +3670,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -3888,7 +3888,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -4038,7 +4038,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -4101,7 +4101,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -4180,7 +4180,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -4259,7 +4259,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -4330,7 +4330,7 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -4476,7 +4476,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -4767,7 +4767,7 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -5126,7 +5126,7 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -5205,7 +5205,7 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -5782,7 +5782,7 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -6003,7 +6003,7 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -6070,7 +6070,7 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -6220,7 +6220,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -6354,7 +6354,7 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -6575,7 +6575,7 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -6654,7 +6654,7 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -6725,7 +6725,7 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -6871,7 +6871,7 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -7017,7 +7017,7 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -7092,7 +7092,7 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
@@ -7167,7 +7167,7 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -7318,7 +7318,7 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -7389,7 +7389,7 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -7460,7 +7460,7 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
@@ -7531,7 +7531,7 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
@@ -7766,7 +7766,7 @@
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
@@ -7967,7 +7967,7 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
@@ -8109,7 +8109,7 @@
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
@@ -8251,7 +8251,7 @@
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
@@ -8330,7 +8330,7 @@
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
@@ -8468,7 +8468,7 @@
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
@@ -8989,7 +8989,7 @@
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
@@ -9070,7 +9070,7 @@
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
@@ -9307,7 +9307,7 @@
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
@@ -9525,7 +9525,7 @@
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
@@ -9837,7 +9837,7 @@
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K130" t="inlineStr">
@@ -9904,7 +9904,7 @@
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K131" t="inlineStr">
@@ -9975,7 +9975,7 @@
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K132" t="inlineStr">
@@ -10117,7 +10117,7 @@
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K134" t="inlineStr">
@@ -10188,7 +10188,7 @@
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K135" t="inlineStr">
@@ -10263,7 +10263,7 @@
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K136" t="inlineStr">
@@ -10575,7 +10575,7 @@
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K140" t="inlineStr">
@@ -10654,7 +10654,7 @@
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K141" t="inlineStr">
@@ -10721,7 +10721,7 @@
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K142" t="inlineStr">
@@ -10855,7 +10855,7 @@
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K144" t="inlineStr">
@@ -10918,7 +10918,7 @@
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K145" t="inlineStr">
@@ -10989,7 +10989,7 @@
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K146" t="inlineStr">
@@ -11068,7 +11068,7 @@
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K147" t="inlineStr">
@@ -11143,7 +11143,7 @@
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K148" t="inlineStr">
@@ -11290,7 +11290,7 @@
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K150" t="inlineStr">
@@ -11361,7 +11361,7 @@
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K151" t="inlineStr">
@@ -11440,7 +11440,7 @@
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K152" t="inlineStr">
@@ -11657,7 +11657,7 @@
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K155" t="inlineStr">
@@ -11735,7 +11735,7 @@
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K156" t="inlineStr">
@@ -11881,7 +11881,7 @@
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K158" t="inlineStr">
@@ -12098,7 +12098,7 @@
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K161" t="inlineStr">
@@ -12169,7 +12169,7 @@
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K162" t="inlineStr">
@@ -12319,7 +12319,7 @@
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K164" t="inlineStr">
@@ -12398,7 +12398,7 @@
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K165" t="inlineStr">
@@ -12469,7 +12469,7 @@
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K166" t="inlineStr">
@@ -12776,7 +12776,7 @@
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K170" t="inlineStr">
@@ -12847,7 +12847,7 @@
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K171" t="inlineStr">
@@ -12926,7 +12926,7 @@
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K172" t="inlineStr">
@@ -13084,7 +13084,7 @@
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K174" t="inlineStr">
@@ -13156,7 +13156,7 @@
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K175" t="inlineStr">
@@ -13223,7 +13223,7 @@
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K176" t="inlineStr">
@@ -13369,7 +13369,7 @@
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K178" t="inlineStr">
@@ -13445,7 +13445,7 @@
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K179" t="inlineStr">
@@ -13512,7 +13512,7 @@
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K180" t="inlineStr">
@@ -13650,7 +13650,7 @@
       </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K182" t="inlineStr">
@@ -13926,7 +13926,7 @@
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K186" t="inlineStr">
@@ -13989,7 +13989,7 @@
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K187" t="inlineStr">
@@ -14140,7 +14140,7 @@
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K189" t="inlineStr">
@@ -14219,7 +14219,7 @@
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K190" t="inlineStr">
@@ -14361,7 +14361,7 @@
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K192" t="inlineStr">
@@ -14629,7 +14629,7 @@
       </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K196" t="inlineStr">
@@ -14704,7 +14704,7 @@
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K197" t="inlineStr">
@@ -14771,7 +14771,7 @@
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K198" t="inlineStr">
@@ -14846,7 +14846,7 @@
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K199" t="inlineStr">
@@ -14913,7 +14913,7 @@
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K200" t="inlineStr">
@@ -14992,7 +14992,7 @@
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K201" t="inlineStr">
@@ -15130,7 +15130,7 @@
       </c>
       <c r="J203" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K203" t="inlineStr">
@@ -15272,7 +15272,7 @@
       </c>
       <c r="J205" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K205" t="inlineStr">
@@ -15342,7 +15342,7 @@
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K206" t="inlineStr">
@@ -15555,7 +15555,7 @@
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K209" t="inlineStr">
@@ -15634,7 +15634,7 @@
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K210" t="inlineStr">
@@ -15768,7 +15768,7 @@
       </c>
       <c r="J212" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K212" t="inlineStr">
@@ -15969,7 +15969,7 @@
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K215" t="inlineStr">
@@ -16182,7 +16182,7 @@
       </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K218" t="inlineStr">
@@ -16386,7 +16386,7 @@
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K221" t="inlineStr">
@@ -16533,7 +16533,7 @@
       </c>
       <c r="J223" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K223" t="inlineStr">
@@ -16967,7 +16967,7 @@
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K229" t="inlineStr">
@@ -17046,7 +17046,7 @@
       </c>
       <c r="J230" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K230" t="inlineStr">
@@ -17192,7 +17192,7 @@
       </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K232" t="inlineStr">
@@ -17350,7 +17350,7 @@
       </c>
       <c r="J234" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K234" t="inlineStr">
@@ -17496,7 +17496,7 @@
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K236" t="inlineStr">
@@ -17563,7 +17563,7 @@
       </c>
       <c r="J237" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K237" t="inlineStr">
@@ -17639,7 +17639,7 @@
       </c>
       <c r="J238" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K238" t="inlineStr">
@@ -17856,7 +17856,7 @@
       </c>
       <c r="J241" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K241" t="inlineStr">
@@ -18014,7 +18014,7 @@
       </c>
       <c r="J243" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K243" t="inlineStr">
@@ -18174,7 +18174,7 @@
       </c>
       <c r="J245" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K245" t="inlineStr">
@@ -18241,7 +18241,7 @@
       </c>
       <c r="J246" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K246" t="inlineStr">
@@ -18388,7 +18388,7 @@
       </c>
       <c r="J248" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K248" t="inlineStr">
@@ -18467,7 +18467,7 @@
       </c>
       <c r="J249" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K249" t="inlineStr">
@@ -18605,7 +18605,7 @@
       </c>
       <c r="J251" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K251" t="inlineStr">
@@ -18673,7 +18673,7 @@
       </c>
       <c r="J252" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K252" t="inlineStr">
@@ -18808,7 +18808,7 @@
       </c>
       <c r="J254" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K254" t="inlineStr">
@@ -18875,7 +18875,7 @@
       </c>
       <c r="J255" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K255" t="inlineStr">
@@ -18954,7 +18954,7 @@
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K256" t="inlineStr">
@@ -19029,7 +19029,7 @@
       </c>
       <c r="J257" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K257" t="inlineStr">
@@ -19108,7 +19108,7 @@
       </c>
       <c r="J258" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K258" t="inlineStr">
@@ -19187,7 +19187,7 @@
       </c>
       <c r="J259" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K259" t="inlineStr">
@@ -19345,7 +19345,7 @@
       </c>
       <c r="J261" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K261" t="inlineStr">
@@ -19487,7 +19487,7 @@
       </c>
       <c r="J263" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K263" t="inlineStr">
@@ -19551,11 +19551,11 @@
         </is>
       </c>
       <c r="I264" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J264" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K264" t="inlineStr">
@@ -19705,7 +19705,7 @@
       </c>
       <c r="J266" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K266" t="inlineStr">
@@ -19772,7 +19772,7 @@
       </c>
       <c r="J267" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K267" t="inlineStr">
@@ -19981,7 +19981,7 @@
       </c>
       <c r="J270" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K270" t="inlineStr">
@@ -20056,7 +20056,7 @@
       </c>
       <c r="J271" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K271" t="inlineStr">
@@ -20206,7 +20206,7 @@
       </c>
       <c r="J273" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K273" t="inlineStr">
@@ -20337,7 +20337,7 @@
       </c>
       <c r="J275" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K275" t="inlineStr">
@@ -20558,7 +20558,7 @@
       </c>
       <c r="J278" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K278" t="inlineStr">
@@ -20775,7 +20775,7 @@
       </c>
       <c r="J281" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K281" t="inlineStr">
@@ -20917,7 +20917,7 @@
       </c>
       <c r="J283" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K283" t="inlineStr">
@@ -21076,7 +21076,7 @@
       </c>
       <c r="J285" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K285" t="inlineStr">
@@ -21155,7 +21155,7 @@
       </c>
       <c r="J286" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K286" t="inlineStr">
@@ -21364,7 +21364,7 @@
       </c>
       <c r="J289" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K289" t="inlineStr">
@@ -21431,7 +21431,7 @@
       </c>
       <c r="J290" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K290" t="inlineStr">
@@ -21705,7 +21705,7 @@
       </c>
       <c r="J294" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K294" t="inlineStr">
@@ -21772,7 +21772,7 @@
       </c>
       <c r="J295" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K295" t="inlineStr">
@@ -21835,7 +21835,7 @@
       </c>
       <c r="J296" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K296" t="inlineStr">
@@ -21902,7 +21902,7 @@
       </c>
       <c r="J297" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K297" t="inlineStr">
@@ -21973,7 +21973,7 @@
       </c>
       <c r="J298" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K298" t="inlineStr">
@@ -22044,7 +22044,7 @@
       </c>
       <c r="J299" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K299" t="inlineStr">
@@ -22186,7 +22186,7 @@
       </c>
       <c r="J301" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K301" t="inlineStr">
@@ -22257,7 +22257,7 @@
       </c>
       <c r="J302" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K302" t="inlineStr">
@@ -22391,7 +22391,7 @@
       </c>
       <c r="J304" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K304" t="inlineStr">
@@ -22466,7 +22466,7 @@
       </c>
       <c r="J305" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K305" t="inlineStr">
@@ -22534,7 +22534,7 @@
       </c>
       <c r="J306" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K306" t="inlineStr">
@@ -22672,7 +22672,7 @@
       </c>
       <c r="J308" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K308" t="inlineStr">
@@ -22747,7 +22747,7 @@
       </c>
       <c r="J309" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K309" t="inlineStr">
@@ -22818,7 +22818,7 @@
       </c>
       <c r="J310" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K310" t="inlineStr">
@@ -22885,7 +22885,7 @@
       </c>
       <c r="J311" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K311" t="inlineStr">
@@ -22956,7 +22956,7 @@
       </c>
       <c r="J312" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K312" t="inlineStr">
@@ -23023,7 +23023,7 @@
       </c>
       <c r="J313" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K313" t="inlineStr">
@@ -23090,7 +23090,7 @@
       </c>
       <c r="J314" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K314" t="inlineStr">
@@ -23161,7 +23161,7 @@
       </c>
       <c r="J315" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K315" t="inlineStr">
@@ -23382,7 +23382,7 @@
       </c>
       <c r="J318" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K318" t="inlineStr">
@@ -23524,7 +23524,7 @@
       </c>
       <c r="J320" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K320" t="inlineStr">
@@ -23674,7 +23674,7 @@
       </c>
       <c r="J322" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K322" t="inlineStr">
@@ -23745,7 +23745,7 @@
       </c>
       <c r="J323" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K323" t="inlineStr">
@@ -23887,7 +23887,7 @@
       </c>
       <c r="J325" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K325" t="inlineStr">
@@ -24033,7 +24033,7 @@
       </c>
       <c r="J327" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K327" t="inlineStr">
@@ -24179,7 +24179,7 @@
       </c>
       <c r="J329" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K329" t="inlineStr">
@@ -24392,7 +24392,7 @@
       </c>
       <c r="J332" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K332" t="inlineStr">
@@ -24625,7 +24625,7 @@
       </c>
       <c r="J335" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K335" t="inlineStr">
@@ -24776,7 +24776,7 @@
       </c>
       <c r="J337" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K337" t="inlineStr">
@@ -24843,7 +24843,7 @@
       </c>
       <c r="J338" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K338" t="inlineStr">
@@ -24910,7 +24910,7 @@
       </c>
       <c r="J339" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K339" t="inlineStr">
@@ -25131,7 +25131,7 @@
       </c>
       <c r="J342" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K342" t="inlineStr">
@@ -25206,7 +25206,7 @@
       </c>
       <c r="J343" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K343" t="inlineStr">
@@ -25273,7 +25273,7 @@
       </c>
       <c r="J344" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K344" t="inlineStr">
@@ -25482,7 +25482,7 @@
       </c>
       <c r="J347" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K347" t="inlineStr">
@@ -25549,7 +25549,7 @@
       </c>
       <c r="J348" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K348" t="inlineStr">
@@ -25700,7 +25700,7 @@
       </c>
       <c r="J350" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K350" t="inlineStr">
@@ -25784,7 +25784,7 @@
       </c>
       <c r="J351" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K351" t="inlineStr">
@@ -25859,7 +25859,7 @@
       </c>
       <c r="J352" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K352" t="inlineStr">
@@ -25930,7 +25930,7 @@
       </c>
       <c r="J353" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K353" t="inlineStr">
@@ -26001,7 +26001,7 @@
       </c>
       <c r="J354" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K354" t="inlineStr">
@@ -26068,7 +26068,7 @@
       </c>
       <c r="J355" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K355" t="inlineStr">
@@ -26135,7 +26135,7 @@
       </c>
       <c r="J356" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K356" t="inlineStr">
@@ -26360,7 +26360,7 @@
       </c>
       <c r="J359" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K359" t="inlineStr">
@@ -26581,7 +26581,7 @@
       </c>
       <c r="J362" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K362" t="inlineStr">
@@ -26652,7 +26652,7 @@
       </c>
       <c r="J363" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K363" t="inlineStr">
@@ -26723,7 +26723,7 @@
       </c>
       <c r="J364" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K364" t="inlineStr">
@@ -26787,11 +26787,11 @@
         </is>
       </c>
       <c r="I365" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J365" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K365" t="inlineStr">
@@ -26866,7 +26866,7 @@
       </c>
       <c r="J366" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K366" t="inlineStr">
@@ -27083,7 +27083,7 @@
       </c>
       <c r="J369" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K369" t="inlineStr">
@@ -27221,7 +27221,7 @@
       </c>
       <c r="J371" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K371" t="inlineStr">
@@ -27296,7 +27296,7 @@
       </c>
       <c r="J372" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K372" t="inlineStr">
@@ -27367,7 +27367,7 @@
       </c>
       <c r="J373" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K373" t="inlineStr">
@@ -27585,7 +27585,7 @@
       </c>
       <c r="J376" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K376" t="inlineStr">
@@ -27723,7 +27723,7 @@
       </c>
       <c r="J378" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K378" t="inlineStr">
@@ -27794,7 +27794,7 @@
       </c>
       <c r="J379" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K379" t="inlineStr">
@@ -27865,7 +27865,7 @@
       </c>
       <c r="J380" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K380" t="inlineStr">
@@ -28142,7 +28142,7 @@
       </c>
       <c r="J384" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K384" t="inlineStr">
@@ -28217,7 +28217,7 @@
       </c>
       <c r="J385" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K385" t="inlineStr">
@@ -28431,7 +28431,7 @@
       </c>
       <c r="J388" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K388" t="inlineStr">
@@ -28577,7 +28577,7 @@
       </c>
       <c r="J390" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K390" t="inlineStr">
@@ -28644,7 +28644,7 @@
       </c>
       <c r="J391" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K391" t="inlineStr">
@@ -28875,7 +28875,7 @@
       </c>
       <c r="J394" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K394" t="inlineStr">
@@ -29147,7 +29147,7 @@
       </c>
       <c r="J398" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K398" t="inlineStr">
@@ -29293,7 +29293,7 @@
       </c>
       <c r="J400" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K400" t="inlineStr">
@@ -29360,7 +29360,7 @@
       </c>
       <c r="J401" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K401" t="inlineStr">
@@ -29427,7 +29427,7 @@
       </c>
       <c r="J402" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K402" t="inlineStr">
@@ -29565,7 +29565,7 @@
       </c>
       <c r="J404" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K404" t="inlineStr">
@@ -29636,7 +29636,7 @@
       </c>
       <c r="J405" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K405" t="inlineStr">
@@ -30015,7 +30015,7 @@
       </c>
       <c r="J410" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K410" t="inlineStr">
@@ -30082,7 +30082,7 @@
       </c>
       <c r="J411" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K411" t="inlineStr">
@@ -30153,7 +30153,7 @@
       </c>
       <c r="J412" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K412" t="inlineStr">
@@ -30457,7 +30457,7 @@
       </c>
       <c r="J416" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K416" t="inlineStr">
@@ -30536,7 +30536,7 @@
       </c>
       <c r="J417" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K417" t="inlineStr">
@@ -30611,7 +30611,7 @@
       </c>
       <c r="J418" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K418" t="inlineStr">
@@ -30907,7 +30907,7 @@
       </c>
       <c r="J422" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K422" t="inlineStr">
@@ -31215,7 +31215,7 @@
       </c>
       <c r="J426" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K426" t="inlineStr">
@@ -31291,7 +31291,7 @@
       </c>
       <c r="J427" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K427" t="inlineStr">
@@ -31363,7 +31363,7 @@
       </c>
       <c r="J428" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K428" t="inlineStr">
@@ -31434,7 +31434,7 @@
       </c>
       <c r="J429" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K429" t="inlineStr">
@@ -31726,7 +31726,7 @@
       </c>
       <c r="J433" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K433" t="inlineStr">
@@ -31806,7 +31806,7 @@
       </c>
       <c r="J434" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K434" t="inlineStr">
@@ -32162,7 +32162,7 @@
       </c>
       <c r="J439" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K439" t="inlineStr">
@@ -32308,7 +32308,7 @@
       </c>
       <c r="J441" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K441" t="inlineStr">
@@ -32529,7 +32529,7 @@
       </c>
       <c r="J444" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K444" t="inlineStr">
@@ -32675,7 +32675,7 @@
       </c>
       <c r="J446" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K446" t="inlineStr">
@@ -32743,11 +32743,11 @@
         </is>
       </c>
       <c r="I447" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J447" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K447" t="inlineStr">
@@ -32899,7 +32899,7 @@
       </c>
       <c r="J449" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K449" t="inlineStr">
@@ -33046,7 +33046,7 @@
       </c>
       <c r="J451" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K451" t="inlineStr">
@@ -33122,7 +33122,7 @@
       </c>
       <c r="J452" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K452" t="inlineStr">
@@ -33558,7 +33558,7 @@
       </c>
       <c r="J458" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K458" t="inlineStr">
@@ -33783,7 +33783,7 @@
       </c>
       <c r="J461" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K461" t="inlineStr">
@@ -33862,7 +33862,7 @@
       </c>
       <c r="J462" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K462" t="inlineStr">
@@ -34004,7 +34004,7 @@
       </c>
       <c r="J464" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K464" t="inlineStr">
@@ -34079,7 +34079,7 @@
       </c>
       <c r="J465" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K465" t="inlineStr">
@@ -34146,11 +34146,11 @@
         </is>
       </c>
       <c r="I466" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J466" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K466" t="inlineStr">
@@ -34225,7 +34225,7 @@
       </c>
       <c r="J467" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K467" t="inlineStr">
@@ -34297,7 +34297,7 @@
       </c>
       <c r="J468" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K468" t="inlineStr">
@@ -34593,7 +34593,7 @@
       </c>
       <c r="J472" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K472" t="inlineStr">
@@ -34668,7 +34668,7 @@
       </c>
       <c r="J473" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K473" t="inlineStr">
@@ -34747,7 +34747,7 @@
       </c>
       <c r="J474" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K474" t="inlineStr">
@@ -34889,7 +34889,7 @@
       </c>
       <c r="J476" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K476" t="inlineStr">
@@ -34960,7 +34960,7 @@
       </c>
       <c r="J477" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K477" t="inlineStr">
@@ -35098,7 +35098,7 @@
       </c>
       <c r="J479" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K479" t="inlineStr">
@@ -35169,7 +35169,7 @@
       </c>
       <c r="J480" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K480" t="inlineStr">
@@ -35315,7 +35315,7 @@
       </c>
       <c r="J482" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K482" t="inlineStr">
@@ -35453,7 +35453,7 @@
         </is>
       </c>
       <c r="I484" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J484" t="inlineStr">
         <is>
@@ -35595,7 +35595,7 @@
       </c>
       <c r="J486" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K486" t="inlineStr">
@@ -35670,7 +35670,7 @@
       </c>
       <c r="J487" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K487" t="inlineStr">
@@ -35741,7 +35741,7 @@
       </c>
       <c r="J488" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K488" t="inlineStr">
@@ -35817,7 +35817,7 @@
       </c>
       <c r="J489" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K489" t="inlineStr">
@@ -35884,7 +35884,7 @@
       </c>
       <c r="J490" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K490" t="inlineStr">
@@ -35964,7 +35964,7 @@
       </c>
       <c r="J491" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K491" t="inlineStr">
@@ -36038,7 +36038,7 @@
       </c>
       <c r="J492" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K492" t="inlineStr">
@@ -36172,7 +36172,7 @@
       </c>
       <c r="J494" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K494" t="inlineStr">
@@ -36243,7 +36243,7 @@
       </c>
       <c r="J495" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K495" t="inlineStr">
@@ -36314,7 +36314,7 @@
       </c>
       <c r="J496" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K496" t="inlineStr">
@@ -36388,7 +36388,7 @@
       </c>
       <c r="J497" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K497" t="inlineStr">
@@ -36467,7 +36467,7 @@
       </c>
       <c r="J498" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K498" t="inlineStr">
@@ -36555,7 +36555,7 @@
       </c>
       <c r="J499" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K499" t="inlineStr">
@@ -36722,7 +36722,7 @@
       </c>
       <c r="J501" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K501" t="inlineStr">
@@ -36793,7 +36793,7 @@
         </is>
       </c>
       <c r="I502" t="n">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="J502" t="inlineStr">
         <is>
@@ -36864,11 +36864,11 @@
         </is>
       </c>
       <c r="I503" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J503" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K503" t="inlineStr">
@@ -36939,7 +36939,7 @@
       </c>
       <c r="J504" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K504" t="inlineStr">
@@ -37007,7 +37007,7 @@
       </c>
       <c r="J505" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K505" t="inlineStr">
@@ -37074,7 +37074,7 @@
       </c>
       <c r="J506" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K506" t="inlineStr">
@@ -37224,7 +37224,7 @@
       </c>
       <c r="J508" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K508" t="inlineStr">
@@ -37303,7 +37303,7 @@
       </c>
       <c r="J509" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K509" t="inlineStr">
@@ -37378,7 +37378,7 @@
       </c>
       <c r="J510" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K510" t="inlineStr">
@@ -37457,7 +37457,7 @@
       </c>
       <c r="J511" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K511" t="inlineStr">
@@ -37600,11 +37600,11 @@
         </is>
       </c>
       <c r="I513" t="n">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="J513" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K513" t="inlineStr">
@@ -37675,7 +37675,7 @@
       </c>
       <c r="J514" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K514" t="inlineStr">
@@ -37975,7 +37975,7 @@
       </c>
       <c r="J518" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K518" t="inlineStr">
@@ -38133,7 +38133,7 @@
       </c>
       <c r="J520" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K520" t="inlineStr">
@@ -38275,7 +38275,7 @@
       </c>
       <c r="J522" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K522" t="inlineStr">
@@ -38484,11 +38484,11 @@
         </is>
       </c>
       <c r="I525" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="J525" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K525" t="inlineStr">
@@ -38642,7 +38642,7 @@
       </c>
       <c r="J527" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K527" t="inlineStr">
@@ -38713,7 +38713,7 @@
       </c>
       <c r="J528" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K528" t="inlineStr">
@@ -38780,7 +38780,7 @@
       </c>
       <c r="J529" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K529" t="inlineStr">
@@ -38851,7 +38851,7 @@
       </c>
       <c r="J530" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K530" t="inlineStr">
@@ -38924,7 +38924,7 @@
       </c>
       <c r="J531" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K531" t="inlineStr">
@@ -39004,7 +39004,7 @@
       </c>
       <c r="J532" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K532" t="inlineStr">
@@ -39083,7 +39083,7 @@
       </c>
       <c r="J533" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K533" t="inlineStr">
@@ -39225,7 +39225,7 @@
       </c>
       <c r="J535" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K535" t="inlineStr">
@@ -39358,7 +39358,7 @@
       </c>
       <c r="J537" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K537" t="inlineStr">
@@ -39535,7 +39535,7 @@
       </c>
       <c r="J539" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K539" t="inlineStr">
@@ -39598,7 +39598,7 @@
       </c>
       <c r="J540" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K540" t="inlineStr">
@@ -39669,7 +39669,7 @@
       </c>
       <c r="J541" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K541" t="inlineStr">
@@ -39740,7 +39740,7 @@
       </c>
       <c r="J542" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K542" t="inlineStr">
@@ -39866,7 +39866,7 @@
       </c>
       <c r="J544" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K544" t="inlineStr">
@@ -39933,7 +39933,7 @@
       </c>
       <c r="J545" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K545" t="inlineStr">
@@ -40008,7 +40008,7 @@
       </c>
       <c r="J546" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K546" t="inlineStr">
@@ -40150,7 +40150,7 @@
       </c>
       <c r="J548" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K548" t="inlineStr">
@@ -40221,7 +40221,7 @@
       </c>
       <c r="J549" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K549" t="inlineStr">
@@ -40296,7 +40296,7 @@
       </c>
       <c r="J550" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K550" t="inlineStr">
@@ -40363,7 +40363,7 @@
       </c>
       <c r="J551" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K551" t="inlineStr">
@@ -40442,7 +40442,7 @@
       </c>
       <c r="J552" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K552" t="inlineStr">
@@ -40513,7 +40513,7 @@
       </c>
       <c r="J553" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K553" t="inlineStr">
@@ -40651,7 +40651,7 @@
       </c>
       <c r="J555" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K555" t="inlineStr">
@@ -40873,7 +40873,7 @@
       </c>
       <c r="J558" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K558" t="inlineStr">
@@ -40940,7 +40940,7 @@
       </c>
       <c r="J559" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K559" t="inlineStr">
@@ -41011,7 +41011,7 @@
       </c>
       <c r="J560" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K560" t="inlineStr">
@@ -41145,7 +41145,7 @@
       </c>
       <c r="J562" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K562" t="inlineStr">
@@ -41212,7 +41212,7 @@
       </c>
       <c r="J563" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K563" t="inlineStr">
@@ -41283,7 +41283,7 @@
       </c>
       <c r="J564" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K564" t="inlineStr">
@@ -41429,7 +41429,7 @@
       </c>
       <c r="J566" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K566" t="inlineStr">
@@ -41567,7 +41567,7 @@
       </c>
       <c r="J568" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K568" t="inlineStr">
@@ -41634,7 +41634,7 @@
       </c>
       <c r="J569" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K569" t="inlineStr">
@@ -41709,7 +41709,7 @@
       </c>
       <c r="J570" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K570" t="inlineStr">
@@ -41776,7 +41776,7 @@
       </c>
       <c r="J571" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K571" t="inlineStr">
@@ -41856,7 +41856,7 @@
       </c>
       <c r="J572" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K572" t="inlineStr">
@@ -41927,7 +41927,7 @@
       </c>
       <c r="J573" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K573" t="inlineStr">
@@ -42090,7 +42090,7 @@
       </c>
       <c r="J575" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K575" t="inlineStr">
@@ -42170,7 +42170,7 @@
       </c>
       <c r="J576" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K576" t="inlineStr">
@@ -42312,7 +42312,7 @@
       </c>
       <c r="J578" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K578" t="inlineStr">
@@ -42384,7 +42384,7 @@
       </c>
       <c r="J579" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K579" t="inlineStr">
@@ -42538,7 +42538,7 @@
       </c>
       <c r="J581" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K581" t="inlineStr">
@@ -42601,7 +42601,7 @@
       </c>
       <c r="J582" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K582" t="inlineStr">
@@ -42668,7 +42668,7 @@
       </c>
       <c r="J583" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K583" t="inlineStr">
@@ -42743,7 +42743,7 @@
       </c>
       <c r="J584" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K584" t="inlineStr">
@@ -42810,7 +42810,7 @@
       </c>
       <c r="J585" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K585" t="inlineStr">
@@ -42889,7 +42889,7 @@
       </c>
       <c r="J586" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K586" t="inlineStr">
@@ -43019,7 +43019,7 @@
       </c>
       <c r="J588" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K588" t="inlineStr">
@@ -43082,7 +43082,7 @@
       </c>
       <c r="J589" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K589" t="inlineStr">
@@ -43240,7 +43240,7 @@
       </c>
       <c r="J591" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K591" t="inlineStr">
@@ -43311,7 +43311,7 @@
       </c>
       <c r="J592" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K592" t="inlineStr">
@@ -43382,7 +43382,7 @@
       </c>
       <c r="J593" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K593" t="inlineStr">
@@ -43453,7 +43453,7 @@
       </c>
       <c r="J594" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K594" t="inlineStr">
@@ -43595,7 +43595,7 @@
       </c>
       <c r="J596" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K596" t="inlineStr">
@@ -43734,7 +43734,7 @@
       </c>
       <c r="J598" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K598" t="inlineStr">
@@ -43876,7 +43876,7 @@
       </c>
       <c r="J600" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K600" t="inlineStr">
@@ -44014,7 +44014,7 @@
       </c>
       <c r="J602" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K602" t="inlineStr">
@@ -44085,7 +44085,7 @@
       </c>
       <c r="J603" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K603" t="inlineStr">
@@ -44606,7 +44606,7 @@
       </c>
       <c r="J610" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K610" t="inlineStr">
@@ -44756,7 +44756,7 @@
       </c>
       <c r="J612" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K612" t="inlineStr">
@@ -44827,7 +44827,7 @@
       </c>
       <c r="J613" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K613" t="inlineStr">
@@ -44902,7 +44902,7 @@
       </c>
       <c r="J614" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K614" t="inlineStr">
@@ -45202,7 +45202,7 @@
       </c>
       <c r="J618" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K618" t="inlineStr">
@@ -45277,7 +45277,7 @@
       </c>
       <c r="J619" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K619" t="inlineStr">
@@ -45415,7 +45415,7 @@
       </c>
       <c r="J621" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K621" t="inlineStr">
@@ -45486,7 +45486,7 @@
       </c>
       <c r="J622" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K622" t="inlineStr">
@@ -45557,7 +45557,7 @@
       </c>
       <c r="J623" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K623" t="inlineStr">
@@ -45636,7 +45636,7 @@
       </c>
       <c r="J624" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K624" t="inlineStr">
@@ -45784,7 +45784,7 @@
       </c>
       <c r="J626" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K626" t="inlineStr">
@@ -45855,7 +45855,7 @@
       </c>
       <c r="J627" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K627" t="inlineStr">
@@ -46080,7 +46080,7 @@
       </c>
       <c r="J630" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K630" t="inlineStr">
@@ -46151,7 +46151,7 @@
         </is>
       </c>
       <c r="I631" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J631" t="inlineStr">
         <is>
@@ -46226,7 +46226,7 @@
       </c>
       <c r="J632" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K632" t="inlineStr">
@@ -46297,7 +46297,7 @@
       </c>
       <c r="J633" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K633" t="inlineStr">
@@ -46455,7 +46455,7 @@
       </c>
       <c r="J635" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K635" t="inlineStr">
@@ -46589,7 +46589,7 @@
       </c>
       <c r="J637" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K637" t="inlineStr">
@@ -46971,7 +46971,7 @@
       </c>
       <c r="J642" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K642" t="inlineStr">
@@ -47055,7 +47055,7 @@
       </c>
       <c r="J643" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K643" t="inlineStr">
@@ -47126,7 +47126,7 @@
       </c>
       <c r="J644" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K644" t="inlineStr">
@@ -47193,7 +47193,7 @@
       </c>
       <c r="J645" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K645" t="inlineStr">
@@ -47267,7 +47267,7 @@
       </c>
       <c r="J646" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K646" t="inlineStr">
@@ -47342,7 +47342,7 @@
       </c>
       <c r="J647" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K647" t="inlineStr">
@@ -47492,7 +47492,7 @@
       </c>
       <c r="J649" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K649" t="inlineStr">
@@ -47559,7 +47559,7 @@
       </c>
       <c r="J650" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K650" t="inlineStr">
@@ -47638,7 +47638,7 @@
       </c>
       <c r="J651" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K651" t="inlineStr">
@@ -47705,7 +47705,7 @@
       </c>
       <c r="J652" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K652" t="inlineStr">
@@ -47859,11 +47859,11 @@
         </is>
       </c>
       <c r="I654" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J654" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K654" t="inlineStr">
@@ -48001,7 +48001,7 @@
       </c>
       <c r="J656" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K656" t="inlineStr">
@@ -48068,7 +48068,7 @@
       </c>
       <c r="J657" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K657" t="inlineStr">
@@ -48143,7 +48143,7 @@
       </c>
       <c r="J658" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K658" t="inlineStr">
@@ -48210,7 +48210,7 @@
       </c>
       <c r="J659" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K659" t="inlineStr">
@@ -48285,7 +48285,7 @@
       </c>
       <c r="J660" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K660" t="inlineStr">
@@ -48364,7 +48364,7 @@
       </c>
       <c r="J661" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K661" t="inlineStr">
@@ -48506,7 +48506,7 @@
       </c>
       <c r="J663" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K663" t="inlineStr">
@@ -48577,7 +48577,7 @@
       </c>
       <c r="J664" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K664" t="inlineStr">
@@ -48846,7 +48846,7 @@
       </c>
       <c r="J668" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K668" t="inlineStr">
@@ -49059,7 +49059,7 @@
       </c>
       <c r="J671" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K671" t="inlineStr">
@@ -49126,7 +49126,7 @@
       </c>
       <c r="J672" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K672" t="inlineStr">
@@ -49205,7 +49205,7 @@
       </c>
       <c r="J673" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K673" t="inlineStr">
@@ -49284,7 +49284,7 @@
       </c>
       <c r="J674" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K674" t="inlineStr">
@@ -49355,7 +49355,7 @@
       </c>
       <c r="J675" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K675" t="inlineStr">
@@ -49422,7 +49422,7 @@
       </c>
       <c r="J676" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K676" t="inlineStr">
@@ -49497,7 +49497,7 @@
       </c>
       <c r="J677" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K677" t="inlineStr">
@@ -49568,7 +49568,7 @@
       </c>
       <c r="J678" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K678" t="inlineStr">
@@ -49639,7 +49639,7 @@
       </c>
       <c r="J679" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K679" t="inlineStr">
@@ -49718,7 +49718,7 @@
       </c>
       <c r="J680" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K680" t="inlineStr">
@@ -49789,7 +49789,7 @@
       </c>
       <c r="J681" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K681" t="inlineStr">
@@ -49869,7 +49869,7 @@
       </c>
       <c r="J682" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K682" t="inlineStr">
@@ -49949,7 +49949,7 @@
       </c>
       <c r="J683" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K683" t="inlineStr">
@@ -50020,7 +50020,7 @@
       </c>
       <c r="J684" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K684" t="inlineStr">
@@ -50087,7 +50087,7 @@
       </c>
       <c r="J685" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K685" t="inlineStr">
@@ -50162,7 +50162,7 @@
       </c>
       <c r="J686" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K686" t="inlineStr">
@@ -50237,7 +50237,7 @@
       </c>
       <c r="J687" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K687" t="inlineStr">
@@ -50308,7 +50308,7 @@
       </c>
       <c r="J688" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K688" t="inlineStr">
@@ -50375,7 +50375,7 @@
       </c>
       <c r="J689" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K689" t="inlineStr">
@@ -50596,7 +50596,7 @@
       </c>
       <c r="J692" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K692" t="inlineStr">
@@ -51930,7 +51930,7 @@
       </c>
       <c r="J710" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K710" t="inlineStr">
@@ -52652,7 +52652,7 @@
       </c>
       <c r="J720" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K720" t="inlineStr">
@@ -52727,7 +52727,7 @@
         </is>
       </c>
       <c r="I721" t="n">
-        <v>917</v>
+        <v>925</v>
       </c>
       <c r="J721" t="inlineStr">
         <is>

--- a/aichan/549391609260995624_2021-07-20_12-00-02.xlsx
+++ b/aichan/549391609260995624_2021-07-20_12-00-02.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -539,10 +555,8 @@
           <t>4984008784</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2021-07-25 00:02:52</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44402.00199074074</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -614,10 +628,8 @@
           <t>4965455469</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2021-07-22 14:34:22</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44399.60719907407</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -693,10 +705,8 @@
           <t>4951048317</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2021-07-22 07:42:53</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44399.32144675926</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -760,10 +770,8 @@
           <t>4961165793</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2021-07-22 00:38:16</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44399.02657407407</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -827,10 +835,8 @@
           <t>4951048317</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2021-07-22 00:19:22</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44399.01344907407</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -902,10 +908,8 @@
           <t>4951347122</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2021-07-22 00:17:55</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44399.01244212963</v>
       </c>
       <c r="I7" t="n">
         <v>2</v>
@@ -965,10 +969,8 @@
           <t>4951048317</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2021-07-21 23:22:28</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44398.97393518518</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1032,10 +1034,8 @@
           <t>4951048317</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2021-07-21 23:20:44</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44398.97273148148</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1099,10 +1099,8 @@
           <t>4951347122</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2021-07-21 21:54:03</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44398.91253472222</v>
       </c>
       <c r="I10" t="n">
         <v>1</v>
@@ -1174,10 +1172,8 @@
           <t>4951347122</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2021-07-21 21:53:03</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44398.91184027777</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1241,10 +1237,8 @@
           <t>4951347122</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2021-07-21 21:49:51</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44398.90961805556</v>
       </c>
       <c r="I12" t="n">
         <v>1</v>
@@ -1316,10 +1310,8 @@
           <t>4951347122</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2021-07-21 21:47:59</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44398.90832175926</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1383,10 +1375,8 @@
           <t>4951347122</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2021-07-21 21:47:10</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44398.90775462963</v>
       </c>
       <c r="I14" t="n">
         <v>1</v>
@@ -1458,10 +1448,8 @@
           <t>4951347122</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2021-07-21 21:46:39</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44398.90739583333</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1526,10 +1514,8 @@
           <t>4951347122</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2021-07-21 21:46:04</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44398.90699074074</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1593,10 +1579,8 @@
           <t>4951347122</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2021-07-21 21:45:59</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44398.90693287037</v>
       </c>
       <c r="I17" t="n">
         <v>1</v>
@@ -1668,10 +1652,8 @@
           <t>4951347122</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2021-07-21 21:45:10</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44398.90636574074</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1735,10 +1717,8 @@
           <t>4951347122</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2021-07-21 21:44:25</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44398.90584490741</v>
       </c>
       <c r="I19" t="n">
         <v>1</v>
@@ -1810,10 +1790,8 @@
           <t>4951347122</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2021-07-21 21:43:55</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44398.90549768518</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1877,10 +1855,8 @@
           <t>4951347122</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2021-07-21 21:43:33</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44398.90524305555</v>
       </c>
       <c r="I21" t="n">
         <v>1</v>
@@ -1952,10 +1928,8 @@
           <t>4951347122</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2021-07-21 21:42:41</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44398.90464120371</v>
       </c>
       <c r="I22" t="n">
         <v>1</v>
@@ -2028,10 +2002,8 @@
           <t>4951347122</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2021-07-21 21:41:47</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44398.90401620371</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2095,10 +2067,8 @@
           <t>4961165793</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2021-07-21 21:41:14</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44398.90363425926</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2175,10 +2145,8 @@
           <t>4951347122</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2021-07-21 21:40:08</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44398.90287037037</v>
       </c>
       <c r="I25" t="n">
         <v>1</v>
@@ -2251,10 +2219,8 @@
           <t>4951347122</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2021-07-21 21:37:03</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44398.90072916666</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2318,10 +2284,8 @@
           <t>4951347122</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2021-07-21 21:33:19</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44398.89813657408</v>
       </c>
       <c r="I27" t="n">
         <v>1</v>
@@ -2393,10 +2357,8 @@
           <t>4951347122</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2021-07-21 21:24:19</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44398.89188657407</v>
       </c>
       <c r="I28" t="n">
         <v>1</v>
@@ -2468,10 +2430,8 @@
           <t>4951347122</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2021-07-21 21:17:21</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44398.88704861111</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2535,10 +2495,8 @@
           <t>4951347122</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2021-07-21 21:14:40</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44398.88518518519</v>
       </c>
       <c r="I30" t="n">
         <v>1</v>
@@ -2610,10 +2568,8 @@
           <t>4951048317</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2021-07-21 20:59:53</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44398.87491898148</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2685,10 +2641,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:57:40</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44398.83171296296</v>
       </c>
       <c r="I32" t="n">
         <v>1</v>
@@ -2752,10 +2706,8 @@
           <t>4959178982</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:47:52</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44398.78324074074</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2815,10 +2767,8 @@
           <t>4959564356</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:03:28</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44398.75240740741</v>
       </c>
       <c r="I34" t="n">
         <v>1</v>
@@ -2882,10 +2832,8 @@
           <t>4959559114</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:03:09</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44398.7521875</v>
       </c>
       <c r="I35" t="n">
         <v>1</v>
@@ -2949,10 +2897,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2021-07-21 17:22:46</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44398.72414351852</v>
       </c>
       <c r="I36" t="n">
         <v>2</v>
@@ -3025,10 +2971,8 @@
           <t>4951347122</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2021-07-21 17:14:38</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44398.71849537037</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3092,10 +3036,8 @@
           <t>4957752780</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2021-07-21 17:12:01</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44398.71667824074</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3163,10 +3105,8 @@
           <t>4959206645</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2021-07-21 17:09:52</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44398.71518518519</v>
       </c>
       <c r="I39" t="n">
         <v>1</v>
@@ -3238,10 +3178,8 @@
           <t>4959200641</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2021-07-21 17:09:09</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44398.7146875</v>
       </c>
       <c r="I40" t="n">
         <v>1</v>
@@ -3313,10 +3251,8 @@
           <t>4951347122</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2021-07-21 17:09:05</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44398.7146412037</v>
       </c>
       <c r="I41" t="n">
         <v>1</v>
@@ -3388,10 +3324,8 @@
           <t>4959187531</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2021-07-21 17:07:46</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44398.71372685185</v>
       </c>
       <c r="I42" t="n">
         <v>1</v>
@@ -3463,10 +3397,8 @@
           <t>4951347122</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2021-07-21 17:00:21</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44398.70857638889</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3530,10 +3462,8 @@
           <t>4958945367</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2021-07-21 16:25:46</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44398.68456018518</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -3597,10 +3527,8 @@
           <t>4956040535</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2021-07-21 15:37:52</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44398.6512962963</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -3660,10 +3588,8 @@
           <t>4951347122</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2021-07-21 15:24:57</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44398.64232638889</v>
       </c>
       <c r="I46" t="n">
         <v>1</v>
@@ -3735,10 +3661,8 @@
           <t>4952482959</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2021-07-21 14:35:42</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44398.608125</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -3806,10 +3730,8 @@
           <t>4953135193</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2021-07-21 14:33:40</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44398.60671296297</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -3878,10 +3800,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2021-07-21 14:06:30</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44398.58784722222</v>
       </c>
       <c r="I49" t="n">
         <v>6</v>
@@ -3964,10 +3884,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2021-07-21 14:06:17</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44398.58769675926</v>
       </c>
       <c r="I50" t="n">
         <v>10</v>
@@ -4028,10 +3946,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2021-07-21 13:35:33</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44398.56635416667</v>
       </c>
       <c r="I51" t="n">
         <v>12</v>
@@ -4091,10 +4007,8 @@
           <t>4957752780</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2021-07-21 13:03:27</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44398.5440625</v>
       </c>
       <c r="I52" t="n">
         <v>7</v>
@@ -4170,10 +4084,8 @@
           <t>4957752780</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2021-07-21 12:53:30</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44398.53715277778</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -4249,10 +4161,8 @@
           <t>4957716047</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2021-07-21 12:48:07</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44398.53341435185</v>
       </c>
       <c r="I54" t="n">
         <v>2</v>
@@ -4320,10 +4230,8 @@
           <t>4957708636</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2021-07-21 12:47:17</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44398.53283564815</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -4399,10 +4307,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2021-07-21 12:41:54</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44398.52909722222</v>
       </c>
       <c r="I56" t="n">
         <v>1</v>
@@ -4466,10 +4372,8 @@
           <t>4957220701</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2021-07-21 12:41:41</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44398.52894675926</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -4544,10 +4448,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2021-07-21 12:00:17</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44398.50019675926</v>
       </c>
       <c r="I58" t="n">
         <v>8</v>
@@ -4611,10 +4513,8 @@
           <t>4950358734</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2021-07-21 11:58:46</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44398.49914351852</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -4686,10 +4586,8 @@
           <t>4952482959</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2021-07-21 11:51:37</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44398.49417824074</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -4757,10 +4655,8 @@
           <t>4957220701</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2021-07-21 11:31:11</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44398.47998842593</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -4828,10 +4724,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2021-07-21 11:25:33</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44398.47607638889</v>
       </c>
       <c r="I62" t="n">
         <v>12</v>
@@ -4903,10 +4797,8 @@
           <t>4950674848</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2021-07-21 11:20:25</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44398.47251157407</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -4974,10 +4866,8 @@
           <t>4957137281</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2021-07-21 11:17:50</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44398.47071759259</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5045,10 +4935,8 @@
           <t>4953135193</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2021-07-21 11:13:32</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44398.46773148148</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5116,10 +5004,8 @@
           <t>4951048317</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2021-07-21 10:15:07</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44398.42716435185</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5195,10 +5081,8 @@
           <t>4956735374</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2021-07-21 10:02:57</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44398.41871527778</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5267,10 +5151,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2021-07-21 09:55:01</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44398.41320601852</v>
       </c>
       <c r="I68" t="n">
         <v>14</v>
@@ -5342,10 +5224,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2021-07-21 09:37:51</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44398.40128472223</v>
       </c>
       <c r="I69" t="n">
         <v>18</v>
@@ -5417,10 +5297,8 @@
           <t>4953845909</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2021-07-21 08:57:15</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44398.37309027778</v>
       </c>
       <c r="I70" t="n">
         <v>1</v>
@@ -5484,10 +5362,8 @@
           <t>4956075423</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2021-07-21 07:20:51</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44398.30614583333</v>
       </c>
       <c r="I71" t="n">
         <v>1</v>
@@ -5556,10 +5432,8 @@
           <t>4953585367</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2021-07-21 07:20:24</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44398.30583333333</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -5628,10 +5502,8 @@
           <t>4953135193</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2021-07-21 07:07:26</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44398.2968287037</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -5700,10 +5572,8 @@
           <t>4956040535</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2021-07-21 07:04:13</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44398.29459490741</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -5772,10 +5642,8 @@
           <t>4950740677</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2021-07-21 05:46:26</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44398.24057870371</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -5851,10 +5719,8 @@
           <t>4950358734</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2021-07-21 01:12:29</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44398.05033564815</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -5922,10 +5788,8 @@
           <t>4950358734</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2021-07-21 01:11:29</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44398.0496412037</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -5993,10 +5857,8 @@
           <t>4950740677</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2021-07-21 00:30:35</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44398.02123842593</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -6060,10 +5922,8 @@
           <t>4951719378</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2021-07-21 00:27:56</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44398.01939814815</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -6139,10 +5999,8 @@
           <t>4953845909</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2021-07-21 00:11:21</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44398.00788194445</v>
       </c>
       <c r="I80" t="n">
         <v>1</v>
@@ -6210,10 +6068,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2021-07-21 00:10:48</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44398.0075</v>
       </c>
       <c r="I81" t="n">
         <v>7</v>
@@ -6277,10 +6133,8 @@
           <t>4950668489</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2021-07-20 23:59:40</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44397.99976851852</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -6344,10 +6198,8 @@
           <t>4954941831</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2021-07-20 23:49:54</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44397.99298611111</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -6419,10 +6271,8 @@
           <t>4950358734</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2021-07-20 23:01:16</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44397.95921296296</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -6490,10 +6340,8 @@
           <t>4952482959</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2021-07-20 23:00:34</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44397.95872685185</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -6565,10 +6413,8 @@
           <t>4952034648</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2021-07-20 22:59:10</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44397.95775462963</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -6644,10 +6490,8 @@
           <t>4954518245</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2021-07-20 22:57:01</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44397.95626157407</v>
       </c>
       <c r="I87" t="n">
         <v>2</v>
@@ -6715,10 +6559,8 @@
           <t>4951347122</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2021-07-20 22:49:48</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44397.95125</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -6782,10 +6624,8 @@
           <t>4952197040</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2021-07-20 22:44:09</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44397.94732638889</v>
       </c>
       <c r="I89" t="n">
         <v>1</v>
@@ -6861,10 +6701,8 @@
           <t>4951347122</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2021-07-20 22:39:58</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44397.9444212963</v>
       </c>
       <c r="I90" t="n">
         <v>1</v>
@@ -6936,10 +6774,8 @@
           <t>4951033283</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2021-07-20 22:32:45</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44397.93940972222</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -7007,10 +6843,8 @@
           <t>4954308948</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2021-07-20 22:32:31</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44397.93924768519</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -7082,10 +6916,8 @@
           <t>4954315260</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2021-07-20 22:31:46</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44397.93872685185</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -7157,10 +6989,8 @@
           <t>4951347122</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2021-07-20 22:30:08</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44397.93759259259</v>
       </c>
       <c r="I94" t="n">
         <v>1</v>
@@ -7232,10 +7062,8 @@
           <t>4951354904</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2021-07-20 22:28:28</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44397.93643518518</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -7308,10 +7136,8 @@
           <t>4954195597</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2021-07-20 22:26:13</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44397.93487268518</v>
       </c>
       <c r="I96" t="n">
         <v>1</v>
@@ -7379,10 +7205,8 @@
           <t>4954195597</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2021-07-20 22:23:47</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44397.93318287037</v>
       </c>
       <c r="I97" t="n">
         <v>1</v>
@@ -7450,10 +7274,8 @@
           <t>4954195597</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2021-07-20 22:23:13</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44397.93278935185</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
@@ -7521,10 +7343,8 @@
           <t>4954195597</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2021-07-20 22:18:09</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44397.92927083333</v>
       </c>
       <c r="I99" t="n">
         <v>2</v>
@@ -7599,10 +7419,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2021-07-20 22:01:03</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44397.91739583333</v>
       </c>
       <c r="I100" t="n">
         <v>5</v>
@@ -7666,10 +7484,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2021-07-20 21:45:54</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44397.906875</v>
       </c>
       <c r="I101" t="n">
         <v>12</v>
@@ -7756,10 +7572,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2021-07-20 21:42:57</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44397.90482638889</v>
       </c>
       <c r="I102" t="n">
         <v>16</v>
@@ -7823,10 +7637,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2021-07-20 21:42:32</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44397.90453703704</v>
       </c>
       <c r="I103" t="n">
         <v>3</v>
@@ -7890,10 +7702,8 @@
           <t>4953845909</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2021-07-20 21:35:51</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44397.89989583333</v>
       </c>
       <c r="I104" t="n">
         <v>1</v>
@@ -7957,10 +7767,8 @@
           <t>4953810275</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2021-07-20 21:30:19</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44397.89605324074</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
@@ -8028,10 +7836,8 @@
           <t>4953796190</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2021-07-20 21:28:52</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44397.8950462963</v>
       </c>
       <c r="I106" t="n">
         <v>1</v>
@@ -8099,10 +7905,8 @@
           <t>4953591629</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2021-07-20 21:26:53</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44397.89366898148</v>
       </c>
       <c r="I107" t="n">
         <v>3</v>
@@ -8170,10 +7974,8 @@
           <t>4952482959</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2021-07-20 21:24:09</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44397.89177083333</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
@@ -8241,10 +8043,8 @@
           <t>4953732860</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2021-07-20 21:22:01</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44397.89028935185</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
@@ -8320,10 +8120,8 @@
           <t>4953591629</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2021-07-20 21:05:31</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44397.87883101852</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
@@ -8391,10 +8189,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2021-07-20 21:04:31</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44397.87813657407</v>
       </c>
       <c r="I111" t="n">
         <v>6</v>
@@ -8458,10 +8254,8 @@
           <t>4953591629</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2021-07-20 21:03:25</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44397.87737268519</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
@@ -8529,10 +8323,8 @@
           <t>4953585367</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2021-07-20 21:02:20</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44397.87662037037</v>
       </c>
       <c r="I113" t="n">
         <v>5</v>
@@ -8600,10 +8392,8 @@
           <t>4950740677</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2021-07-20 20:56:37</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44397.87265046296</v>
       </c>
       <c r="I114" t="n">
         <v>1</v>
@@ -8679,10 +8469,8 @@
           <t>4952482959</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2021-07-20 20:51:14</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44397.86891203704</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
@@ -8754,10 +8542,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2021-07-20 20:44:44</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44397.86439814815</v>
       </c>
       <c r="I116" t="n">
         <v>3</v>
@@ -8821,10 +8607,8 @@
           <t>4953135193</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2021-07-20 20:43:32</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44397.86356481481</v>
       </c>
       <c r="I117" t="n">
         <v>4</v>
@@ -8900,10 +8684,8 @@
           <t>4953135193</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2021-07-20 20:43:12</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44397.86333333333</v>
       </c>
       <c r="I118" t="n">
         <v>5</v>
@@ -8979,10 +8761,8 @@
           <t>4951611624</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2021-07-20 20:42:09</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44397.86260416666</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
@@ -9060,10 +8840,8 @@
           <t>4951611624</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2021-07-20 20:41:06</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44397.861875</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
@@ -9141,10 +8919,8 @@
           <t>4951611624</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2021-07-20 20:40:33</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44397.86149305556</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
@@ -9222,10 +8998,8 @@
           <t>4952482959</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2021-07-20 20:37:48</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44397.85958333333</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
@@ -9297,10 +9071,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2021-07-20 20:33:10</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44397.85636574074</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
@@ -9364,10 +9136,8 @@
           <t>4952482959</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2021-07-20 20:33:10</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44397.85636574074</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
@@ -9439,10 +9209,8 @@
           <t>4952482959</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2021-07-20 20:27:21</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44397.85232638889</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
@@ -9515,10 +9283,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2021-07-20 20:27:00</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44397.85208333333</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
@@ -9594,10 +9360,8 @@
           <t>4953135193</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2021-07-20 20:24:18</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44397.85020833334</v>
       </c>
       <c r="I127" t="n">
         <v>5</v>
@@ -9669,10 +9433,8 @@
           <t>4953135193</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2021-07-20 20:04:07</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44397.83619212963</v>
       </c>
       <c r="I128" t="n">
         <v>7</v>
@@ -9748,10 +9510,8 @@
           <t>4952846804</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2021-07-20 19:26:08</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44397.80981481481</v>
       </c>
       <c r="I129" t="n">
         <v>1</v>
@@ -9827,10 +9587,8 @@
           <t>4951347122</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2021-07-20 19:20:28</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44397.80587962963</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
@@ -9894,10 +9652,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2021-07-20 19:12:57</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44397.80065972222</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
@@ -9965,10 +9721,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2021-07-20 19:10:27</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44397.79892361111</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
@@ -10036,10 +9790,8 @@
           <t>4952684039</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2021-07-20 19:05:36</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44397.79555555555</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
@@ -10107,10 +9859,8 @@
           <t>4952594425</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:53:44</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44397.78731481481</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
@@ -10178,10 +9928,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:52:53</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44397.78672453704</v>
       </c>
       <c r="I135" t="n">
         <v>1</v>
@@ -10253,10 +10001,8 @@
           <t>4952372506</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:51:15</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44397.78559027778</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
@@ -10332,10 +10078,8 @@
           <t>4952561252</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:48:48</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44397.78388888889</v>
       </c>
       <c r="I137" t="n">
         <v>2</v>
@@ -10411,10 +10155,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:47:18</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44397.78284722222</v>
       </c>
       <c r="I138" t="n">
         <v>18</v>
@@ -10486,10 +10228,8 @@
           <t>4952444246</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:41:00</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44397.77847222222</v>
       </c>
       <c r="I139" t="n">
         <v>7</v>
@@ -10565,10 +10305,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:40:52</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44397.77837962963</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
@@ -10644,10 +10382,8 @@
           <t>4951347122</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:39:04</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44397.77712962963</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
@@ -10711,10 +10447,8 @@
           <t>4951347122</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:38:59</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44397.77707175926</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
@@ -10778,10 +10512,8 @@
           <t>4951452708</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:38:53</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44397.77700231481</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
@@ -10845,10 +10577,8 @@
           <t>4950350616</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:35:53</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44397.77491898148</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
@@ -10908,10 +10638,8 @@
           <t>4952444246</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:35:04</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44397.77435185185</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
@@ -10979,10 +10707,8 @@
           <t>4952444246</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:34:44</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44397.77412037037</v>
       </c>
       <c r="I146" t="n">
         <v>1</v>
@@ -11058,10 +10784,8 @@
           <t>4950350616</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:33:04</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44397.77296296296</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
@@ -11133,10 +10857,8 @@
           <t>4950350616</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:32:56</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44397.77287037037</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
@@ -11208,10 +10930,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:32:25</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44397.77251157408</v>
       </c>
       <c r="I149" t="n">
         <v>17</v>
@@ -11280,10 +11000,8 @@
           <t>4952372506</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:31:17</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44397.77172453704</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
@@ -11351,10 +11069,8 @@
           <t>4952372506</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:26:00</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44397.76805555556</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
@@ -11430,10 +11146,8 @@
           <t>4952372506</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:24:08</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44397.76675925926</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
@@ -11501,10 +11215,8 @@
           <t>4951611624</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:23:41</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44397.76644675926</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
@@ -11572,10 +11284,8 @@
           <t>4950541144</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:21:58</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44397.76525462963</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
@@ -11647,10 +11357,8 @@
           <t>4952347702</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:21:53</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44397.76519675926</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
@@ -11725,10 +11433,8 @@
           <t>4950180526</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:21:16</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44397.76476851852</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
@@ -11796,10 +11502,8 @@
           <t>4950358734</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:20:12</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44397.76402777778</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
@@ -11871,10 +11575,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:20:11</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44397.76401620371</v>
       </c>
       <c r="I158" t="n">
         <v>1</v>
@@ -11946,10 +11648,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:17:55</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44397.76244212963</v>
       </c>
       <c r="I159" t="n">
         <v>13</v>
@@ -12013,10 +11713,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:17:02</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44397.7618287037</v>
       </c>
       <c r="I160" t="n">
         <v>15</v>
@@ -12088,10 +11786,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:15:21</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44397.76065972223</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
@@ -12159,10 +11855,8 @@
           <t>4952297301</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:14:00</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44397.75972222222</v>
       </c>
       <c r="I162" t="n">
         <v>2</v>
@@ -12230,10 +11924,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:11:19</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44397.7578587963</v>
       </c>
       <c r="I163" t="n">
         <v>12</v>
@@ -12309,10 +12001,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:08:13</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44397.75570601852</v>
       </c>
       <c r="I164" t="n">
         <v>10</v>
@@ -12388,10 +12078,8 @@
           <t>4950674848</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:06:39</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44397.75461805556</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
@@ -12459,10 +12147,8 @@
           <t>4950187085</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:05:09</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44397.75357638889</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
@@ -12538,10 +12224,8 @@
           <t>4952207682</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:02:25</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44397.75167824074</v>
       </c>
       <c r="I167" t="n">
         <v>2</v>
@@ -12609,10 +12293,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:01:28</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44397.75101851852</v>
       </c>
       <c r="I168" t="n">
         <v>14</v>
@@ -12676,10 +12358,8 @@
           <t>4952197040</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:00:23</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44397.7502662037</v>
       </c>
       <c r="I169" t="n">
         <v>1</v>
@@ -12766,10 +12446,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2021-07-20 17:56:04</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44397.74726851852</v>
       </c>
       <c r="I170" t="n">
         <v>27</v>
@@ -12837,10 +12515,8 @@
           <t>4952148907</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2021-07-20 17:54:26</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44397.74613425926</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
@@ -12916,10 +12592,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2021-07-20 17:54:09</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44397.7459375</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
@@ -12995,10 +12669,8 @@
           <t>4952134783</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2021-07-20 17:52:34</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44397.74483796296</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
@@ -13074,10 +12746,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2021-07-20 17:50:59</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44397.74373842592</v>
       </c>
       <c r="I174" t="n">
         <v>1</v>
@@ -13146,10 +12816,8 @@
           <t>4952118633</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2021-07-20 17:49:45</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44397.74288194445</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
@@ -13213,10 +12881,8 @@
           <t>4952073799</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2021-07-20 17:43:06</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44397.73826388889</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
@@ -13280,10 +12946,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2021-07-20 17:43:00</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44397.73819444444</v>
       </c>
       <c r="I177" t="n">
         <v>16</v>
@@ -13359,10 +13023,8 @@
           <t>4952068653</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2021-07-20 17:42:47</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44397.73804398148</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
@@ -13435,10 +13097,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2021-07-20 17:40:55</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44397.73674768519</v>
       </c>
       <c r="I179" t="n">
         <v>8</v>
@@ -13502,10 +13162,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2021-07-20 17:39:12</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44397.73555555556</v>
       </c>
       <c r="I180" t="n">
         <v>24</v>
@@ -13573,10 +13231,8 @@
           <t>4952043337</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2021-07-20 17:38:27</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44397.73503472222</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
@@ -13640,10 +13296,8 @@
           <t>4952034648</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2021-07-20 17:38:22</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44397.73497685185</v>
       </c>
       <c r="I182" t="n">
         <v>1</v>
@@ -13707,10 +13361,8 @@
           <t>4951347122</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2021-07-20 17:38:20</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44397.7349537037</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
@@ -13778,10 +13430,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2021-07-20 17:38:05</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44397.73478009259</v>
       </c>
       <c r="I184" t="n">
         <v>21</v>
@@ -13845,10 +13495,8 @@
           <t>4952030965</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2021-07-20 17:36:48</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44397.73388888889</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
@@ -13916,10 +13564,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2021-07-20 17:35:26</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44397.73293981481</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
@@ -13979,10 +13625,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2021-07-20 17:34:21</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44397.7321875</v>
       </c>
       <c r="I187" t="n">
         <v>11</v>
@@ -14050,10 +13694,8 @@
           <t>4952002039</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2021-07-20 17:32:37</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44397.7309837963</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
@@ -14130,10 +13772,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2021-07-20 17:29:44</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44397.72898148148</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
@@ -14209,10 +13849,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2021-07-20 17:28:01</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44397.72778935185</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
@@ -14284,10 +13922,8 @@
           <t>4951916743</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2021-07-20 17:19:39</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44397.72197916666</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
@@ -14351,10 +13987,8 @@
           <t>4951874553</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2021-07-20 17:14:01</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44397.71806712963</v>
       </c>
       <c r="I192" t="n">
         <v>1</v>
@@ -14418,10 +14052,8 @@
           <t>4951878527</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2021-07-20 17:13:49</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44397.71792824074</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
@@ -14485,10 +14117,8 @@
           <t>4950740677</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2021-07-20 17:13:21</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44397.71760416667</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
@@ -14552,10 +14182,8 @@
           <t>4950740677</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2021-07-20 17:12:35</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44397.71707175926</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
@@ -14619,10 +14247,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2021-07-20 17:09:42</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44397.71506944444</v>
       </c>
       <c r="I196" t="n">
         <v>21</v>
@@ -14694,10 +14320,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2021-07-20 17:08:12</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44397.71402777778</v>
       </c>
       <c r="I197" t="n">
         <v>1</v>
@@ -14761,10 +14385,8 @@
           <t>4951048317</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2021-07-20 17:08:12</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44397.71402777778</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
@@ -14836,10 +14458,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2021-07-20 17:07:46</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44397.71372685185</v>
       </c>
       <c r="I199" t="n">
         <v>6</v>
@@ -14903,10 +14523,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2021-07-20 17:07:39</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44397.71364583333</v>
       </c>
       <c r="I200" t="n">
         <v>2</v>
@@ -14982,10 +14600,8 @@
           <t>4951048317</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2021-07-20 17:07:16</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44397.71337962963</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
@@ -15057,10 +14673,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2021-07-20 17:06:26</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44397.71280092592</v>
       </c>
       <c r="I202" t="n">
         <v>4</v>
@@ -15120,10 +14734,8 @@
           <t>4951048317</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2021-07-20 17:00:12</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44397.70847222222</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
@@ -15187,10 +14799,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2021-07-20 16:59:54</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44397.70826388889</v>
       </c>
       <c r="I204" t="n">
         <v>7</v>
@@ -15262,10 +14872,8 @@
           <t>4951788082</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2021-07-20 16:59:26</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44397.70793981481</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
@@ -15332,10 +14940,8 @@
           <t>4951135505</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2021-07-20 16:56:51</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44397.70614583333</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
@@ -15415,10 +15021,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2021-07-20 16:56:48</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44397.70611111111</v>
       </c>
       <c r="I207" t="n">
         <v>5</v>
@@ -15478,10 +15082,8 @@
           <t>4951033283</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2021-07-20 16:54:42</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44397.70465277778</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
@@ -15545,10 +15147,8 @@
           <t>4951572035</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2021-07-20 16:53:56</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44397.70412037037</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
@@ -15624,10 +15224,8 @@
           <t>4951749197</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2021-07-20 16:53:34</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44397.70386574074</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
@@ -15691,10 +15289,8 @@
           <t>4951749059</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2021-07-20 16:53:29</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44397.70380787037</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
@@ -15758,10 +15354,8 @@
           <t>4951115602</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2021-07-20 16:52:49</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44397.70334490741</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
@@ -15825,10 +15419,8 @@
           <t>4951750182</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2021-07-20 16:52:32</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44397.70314814815</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
@@ -15892,10 +15484,8 @@
           <t>4951746437</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2021-07-20 16:52:16</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44397.70296296296</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
@@ -15959,10 +15549,8 @@
           <t>4951738106</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2021-07-20 16:51:29</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44397.70241898148</v>
       </c>
       <c r="I215" t="n">
         <v>1</v>
@@ -16026,10 +15614,8 @@
           <t>4951729496</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2021-07-20 16:50:17</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44397.70158564814</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
@@ -16093,10 +15679,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2021-07-20 16:49:39</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44397.70114583334</v>
       </c>
       <c r="I217" t="n">
         <v>7</v>
@@ -16172,10 +15756,8 @@
           <t>4951730531</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2021-07-20 16:49:32</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44397.70106481481</v>
       </c>
       <c r="I218" t="n">
         <v>1</v>
@@ -16241,10 +15823,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2021-07-20 16:49:29</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44397.70103009259</v>
       </c>
       <c r="I219" t="n">
         <v>18</v>
@@ -16309,10 +15889,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2021-07-20 16:49:14</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44397.70085648148</v>
       </c>
       <c r="I220" t="n">
         <v>19</v>
@@ -16376,10 +15954,8 @@
           <t>4951723738</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2021-07-20 16:49:14</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44397.70085648148</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
@@ -16443,10 +16019,8 @@
           <t>4950541144</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2021-07-20 16:49:10</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44397.70081018518</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
@@ -16523,10 +16097,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2021-07-20 16:49:03</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44397.70072916667</v>
       </c>
       <c r="I223" t="n">
         <v>10</v>
@@ -16590,10 +16162,8 @@
           <t>4951719378</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2021-07-20 16:48:59</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44397.70068287037</v>
       </c>
       <c r="I224" t="n">
         <v>0</v>
@@ -16669,10 +16239,8 @@
           <t>4951718894</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2021-07-20 16:48:45</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44397.70052083334</v>
       </c>
       <c r="I225" t="n">
         <v>0</v>
@@ -16740,10 +16308,8 @@
           <t>4951231842</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2021-07-20 16:48:20</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44397.70023148148</v>
       </c>
       <c r="I226" t="n">
         <v>0</v>
@@ -16811,10 +16377,8 @@
           <t>4950358734</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2021-07-20 16:48:17</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44397.70019675926</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
@@ -16890,10 +16454,8 @@
           <t>4951033283</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2021-07-20 16:47:22</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44397.69956018519</v>
       </c>
       <c r="I228" t="n">
         <v>0</v>
@@ -16957,10 +16519,8 @@
           <t>4950003641</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2021-07-20 16:47:05</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44397.69936342593</v>
       </c>
       <c r="I229" t="n">
         <v>0</v>
@@ -17036,10 +16596,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2021-07-20 16:44:19</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44397.69744212963</v>
       </c>
       <c r="I230" t="n">
         <v>5</v>
@@ -17107,10 +16665,8 @@
           <t>4950668489</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2021-07-20 16:43:24</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44397.69680555556</v>
       </c>
       <c r="I231" t="n">
         <v>0</v>
@@ -17182,10 +16738,8 @@
           <t>4950732096</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2021-07-20 16:43:03</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44397.6965625</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
@@ -17261,10 +16815,8 @@
           <t>4951682664</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2021-07-20 16:41:51</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44397.69572916667</v>
       </c>
       <c r="I233" t="n">
         <v>0</v>
@@ -17340,10 +16892,8 @@
           <t>4951678096</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2021-07-20 16:40:59</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44397.69512731482</v>
       </c>
       <c r="I234" t="n">
         <v>2</v>
@@ -17419,10 +16969,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2021-07-20 16:39:50</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44397.69432870371</v>
       </c>
       <c r="I235" t="n">
         <v>8</v>
@@ -17486,10 +17034,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2021-07-20 16:38:38</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44397.69349537037</v>
       </c>
       <c r="I236" t="n">
         <v>17</v>
@@ -17553,10 +17099,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2021-07-20 16:36:43</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44397.69216435185</v>
       </c>
       <c r="I237" t="n">
         <v>12</v>
@@ -17629,10 +17173,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2021-07-20 16:35:26</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44397.69127314815</v>
       </c>
       <c r="I238" t="n">
         <v>0</v>
@@ -17700,10 +17242,8 @@
           <t>4951347122</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2021-07-20 16:33:18</t>
-        </is>
+      <c r="H239" s="1" t="n">
+        <v>44397.68979166666</v>
       </c>
       <c r="I239" t="n">
         <v>0</v>
@@ -17771,10 +17311,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2021-07-20 16:32:46</t>
-        </is>
+      <c r="H240" s="1" t="n">
+        <v>44397.68942129629</v>
       </c>
       <c r="I240" t="n">
         <v>7</v>
@@ -17846,10 +17384,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2021-07-20 16:31:05</t>
-        </is>
+      <c r="H241" s="1" t="n">
+        <v>44397.68825231482</v>
       </c>
       <c r="I241" t="n">
         <v>1</v>
@@ -17925,10 +17461,8 @@
           <t>4950740677</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>2021-07-20 16:31:05</t>
-        </is>
+      <c r="H242" s="1" t="n">
+        <v>44397.68825231482</v>
       </c>
       <c r="I242" t="n">
         <v>0</v>
@@ -18004,10 +17538,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>2021-07-20 16:30:59</t>
-        </is>
+      <c r="H243" s="1" t="n">
+        <v>44397.68818287037</v>
       </c>
       <c r="I243" t="n">
         <v>3</v>
@@ -18083,10 +17615,8 @@
           <t>4951611624</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2021-07-20 16:29:19</t>
-        </is>
+      <c r="H244" s="1" t="n">
+        <v>44397.68702546296</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
@@ -18164,10 +17694,8 @@
           <t>4950674848</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2021-07-20 16:27:27</t>
-        </is>
+      <c r="H245" s="1" t="n">
+        <v>44397.68572916667</v>
       </c>
       <c r="I245" t="n">
         <v>0</v>
@@ -18231,10 +17759,8 @@
           <t>4951572035</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>2021-07-20 16:23:12</t>
-        </is>
+      <c r="H246" s="1" t="n">
+        <v>44397.68277777778</v>
       </c>
       <c r="I246" t="n">
         <v>0</v>
@@ -18306,10 +17832,8 @@
           <t>4951563623</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2021-07-20 16:21:53</t>
-        </is>
+      <c r="H247" s="1" t="n">
+        <v>44397.68186342593</v>
       </c>
       <c r="I247" t="n">
         <v>0</v>
@@ -18378,10 +17902,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2021-07-20 16:18:30</t>
-        </is>
+      <c r="H248" s="1" t="n">
+        <v>44397.67951388889</v>
       </c>
       <c r="I248" t="n">
         <v>2</v>
@@ -18457,10 +17979,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>2021-07-20 16:18:12</t>
-        </is>
+      <c r="H249" s="1" t="n">
+        <v>44397.67930555555</v>
       </c>
       <c r="I249" t="n">
         <v>0</v>
@@ -18524,10 +18044,8 @@
           <t>4951545396</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2021-07-20 16:17:38</t>
-        </is>
+      <c r="H250" s="1" t="n">
+        <v>44397.67891203704</v>
       </c>
       <c r="I250" t="n">
         <v>1</v>
@@ -18595,10 +18113,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>2021-07-20 16:15:40</t>
-        </is>
+      <c r="H251" s="1" t="n">
+        <v>44397.6775462963</v>
       </c>
       <c r="I251" t="n">
         <v>0</v>
@@ -18663,10 +18179,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>2021-07-20 16:12:16</t>
-        </is>
+      <c r="H252" s="1" t="n">
+        <v>44397.67518518519</v>
       </c>
       <c r="I252" t="n">
         <v>5</v>
@@ -18734,10 +18248,8 @@
           <t>4951347122</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>2021-07-20 16:09:30</t>
-        </is>
+      <c r="H253" s="1" t="n">
+        <v>44397.67326388889</v>
       </c>
       <c r="I253" t="n">
         <v>0</v>
@@ -18798,10 +18310,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2021-07-20 16:09:03</t>
-        </is>
+      <c r="H254" s="1" t="n">
+        <v>44397.67295138889</v>
       </c>
       <c r="I254" t="n">
         <v>0</v>
@@ -18865,10 +18375,8 @@
           <t>4951493279</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>2021-07-20 16:08:49</t>
-        </is>
+      <c r="H255" s="1" t="n">
+        <v>44397.67278935185</v>
       </c>
       <c r="I255" t="n">
         <v>0</v>
@@ -18944,10 +18452,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>2021-07-20 16:08:14</t>
-        </is>
+      <c r="H256" s="1" t="n">
+        <v>44397.67238425926</v>
       </c>
       <c r="I256" t="n">
         <v>0</v>
@@ -19019,10 +18525,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2021-07-20 16:08:12</t>
-        </is>
+      <c r="H257" s="1" t="n">
+        <v>44397.67236111111</v>
       </c>
       <c r="I257" t="n">
         <v>5</v>
@@ -19098,10 +18602,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>2021-07-20 16:07:17</t>
-        </is>
+      <c r="H258" s="1" t="n">
+        <v>44397.67172453704</v>
       </c>
       <c r="I258" t="n">
         <v>17</v>
@@ -19177,10 +18679,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>2021-07-20 16:07:12</t>
-        </is>
+      <c r="H259" s="1" t="n">
+        <v>44397.67166666667</v>
       </c>
       <c r="I259" t="n">
         <v>0</v>
@@ -19256,10 +18756,8 @@
           <t>4951449072</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>2021-07-20 16:02:59</t>
-        </is>
+      <c r="H260" s="1" t="n">
+        <v>44397.66873842593</v>
       </c>
       <c r="I260" t="n">
         <v>3</v>
@@ -19335,10 +18833,8 @@
           <t>4951452708</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2021-07-20 16:02:48</t>
-        </is>
+      <c r="H261" s="1" t="n">
+        <v>44397.66861111111</v>
       </c>
       <c r="I261" t="n">
         <v>4</v>
@@ -19406,10 +18902,8 @@
           <t>4951449072</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>2021-07-20 16:01:33</t>
-        </is>
+      <c r="H262" s="1" t="n">
+        <v>44397.66774305556</v>
       </c>
       <c r="I262" t="n">
         <v>7</v>
@@ -19477,10 +18971,8 @@
           <t>4951439789</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2021-07-20 16:01:12</t>
-        </is>
+      <c r="H263" s="1" t="n">
+        <v>44397.6675</v>
       </c>
       <c r="I263" t="n">
         <v>2</v>
@@ -19545,10 +19037,8 @@
           <t>4951048317</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>2021-07-20 16:00:31</t>
-        </is>
+      <c r="H264" s="1" t="n">
+        <v>44397.66702546296</v>
       </c>
       <c r="I264" t="n">
         <v>7</v>
@@ -19616,10 +19106,8 @@
           <t>4951440091</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>2021-07-20 15:59:23</t>
-        </is>
+      <c r="H265" s="1" t="n">
+        <v>44397.66623842593</v>
       </c>
       <c r="I265" t="n">
         <v>0</v>
@@ -19695,10 +19183,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>2021-07-20 15:58:46</t>
-        </is>
+      <c r="H266" s="1" t="n">
+        <v>44397.66581018519</v>
       </c>
       <c r="I266" t="n">
         <v>1</v>
@@ -19762,10 +19248,8 @@
           <t>4951012663</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2021-07-20 15:56:41</t>
-        </is>
+      <c r="H267" s="1" t="n">
+        <v>44397.66436342592</v>
       </c>
       <c r="I267" t="n">
         <v>0</v>
@@ -19837,10 +19321,8 @@
           <t>4950893500</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>2021-07-20 15:56:30</t>
-        </is>
+      <c r="H268" s="1" t="n">
+        <v>44397.66423611111</v>
       </c>
       <c r="I268" t="n">
         <v>1</v>
@@ -19904,10 +19386,8 @@
           <t>4951417770</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>2021-07-20 15:55:41</t>
-        </is>
+      <c r="H269" s="1" t="n">
+        <v>44397.66366898148</v>
       </c>
       <c r="I269" t="n">
         <v>6</v>
@@ -19971,10 +19451,8 @@
           <t>4950616796</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>2021-07-20 15:55:38</t>
-        </is>
+      <c r="H270" s="1" t="n">
+        <v>44397.66363425926</v>
       </c>
       <c r="I270" t="n">
         <v>9</v>
@@ -20046,10 +19524,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>2021-07-20 15:55:24</t>
-        </is>
+      <c r="H271" s="1" t="n">
+        <v>44397.66347222222</v>
       </c>
       <c r="I271" t="n">
         <v>21</v>
@@ -20125,10 +19601,8 @@
           <t>4950731905</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>2021-07-20 15:55:16</t>
-        </is>
+      <c r="H272" s="1" t="n">
+        <v>44397.66337962963</v>
       </c>
       <c r="I272" t="n">
         <v>0</v>
@@ -20196,10 +19670,8 @@
           <t>4951410836</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>2021-07-20 15:54:24</t>
-        </is>
+      <c r="H273" s="1" t="n">
+        <v>44397.66277777778</v>
       </c>
       <c r="I273" t="n">
         <v>3</v>
@@ -20263,10 +19735,8 @@
           <t>4951347122</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>2021-07-20 15:50:39</t>
-        </is>
+      <c r="H274" s="1" t="n">
+        <v>44397.66017361111</v>
       </c>
       <c r="I274" t="n">
         <v>0</v>
@@ -20327,10 +19797,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2021-07-20 15:50:38</t>
-        </is>
+      <c r="H275" s="1" t="n">
+        <v>44397.66016203703</v>
       </c>
       <c r="I275" t="n">
         <v>10</v>
@@ -20406,10 +19874,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>2021-07-20 15:50:35</t>
-        </is>
+      <c r="H276" s="1" t="n">
+        <v>44397.66012731481</v>
       </c>
       <c r="I276" t="n">
         <v>4</v>
@@ -20477,10 +19943,8 @@
           <t>4950731905</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>2021-07-20 15:50:31</t>
-        </is>
+      <c r="H277" s="1" t="n">
+        <v>44397.66008101852</v>
       </c>
       <c r="I277" t="n">
         <v>0</v>
@@ -20548,10 +20012,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>2021-07-20 15:49:32</t>
-        </is>
+      <c r="H278" s="1" t="n">
+        <v>44397.65939814815</v>
       </c>
       <c r="I278" t="n">
         <v>16</v>
@@ -20627,10 +20089,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>2021-07-20 15:49:22</t>
-        </is>
+      <c r="H279" s="1" t="n">
+        <v>44397.65928240741</v>
       </c>
       <c r="I279" t="n">
         <v>10</v>
@@ -20698,10 +20158,8 @@
           <t>4951347122</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>2021-07-20 15:48:46</t>
-        </is>
+      <c r="H280" s="1" t="n">
+        <v>44397.65886574074</v>
       </c>
       <c r="I280" t="n">
         <v>0</v>
@@ -20765,10 +20223,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>2021-07-20 15:48:43</t>
-        </is>
+      <c r="H281" s="1" t="n">
+        <v>44397.65883101852</v>
       </c>
       <c r="I281" t="n">
         <v>2</v>
@@ -20828,10 +20284,8 @@
           <t>4951374339</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>2021-07-20 15:48:31</t>
-        </is>
+      <c r="H282" s="1" t="n">
+        <v>44397.65869212963</v>
       </c>
       <c r="I282" t="n">
         <v>2</v>
@@ -20907,10 +20361,8 @@
           <t>4951373286</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>2021-07-20 15:47:59</t>
-        </is>
+      <c r="H283" s="1" t="n">
+        <v>44397.65832175926</v>
       </c>
       <c r="I283" t="n">
         <v>0</v>
@@ -20986,10 +20438,8 @@
           <t>4951364635</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>2021-07-20 15:46:58</t>
-        </is>
+      <c r="H284" s="1" t="n">
+        <v>44397.65761574074</v>
       </c>
       <c r="I284" t="n">
         <v>0</v>
@@ -21066,10 +20516,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>2021-07-20 15:46:05</t>
-        </is>
+      <c r="H285" s="1" t="n">
+        <v>44397.65700231482</v>
       </c>
       <c r="I285" t="n">
         <v>13</v>
@@ -21145,10 +20593,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>2021-07-20 15:45:56</t>
-        </is>
+      <c r="H286" s="1" t="n">
+        <v>44397.65689814815</v>
       </c>
       <c r="I286" t="n">
         <v>0</v>
@@ -21224,10 +20670,8 @@
           <t>4951354904</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>2021-07-20 15:45:40</t>
-        </is>
+      <c r="H287" s="1" t="n">
+        <v>44397.65671296296</v>
       </c>
       <c r="I287" t="n">
         <v>1</v>
@@ -21291,10 +20735,8 @@
           <t>4951347122</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>2021-07-20 15:43:29</t>
-        </is>
+      <c r="H288" s="1" t="n">
+        <v>44397.65519675926</v>
       </c>
       <c r="I288" t="n">
         <v>0</v>
@@ -21354,10 +20796,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>2021-07-20 15:43:06</t>
-        </is>
+      <c r="H289" s="1" t="n">
+        <v>44397.65493055555</v>
       </c>
       <c r="I289" t="n">
         <v>12</v>
@@ -21421,10 +20861,8 @@
           <t>4951347122</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>2021-07-20 15:42:40</t>
-        </is>
+      <c r="H290" s="1" t="n">
+        <v>44397.65462962963</v>
       </c>
       <c r="I290" t="n">
         <v>2</v>
@@ -21488,10 +20926,8 @@
           <t>4950668489</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>2021-07-20 15:42:16</t>
-        </is>
+      <c r="H291" s="1" t="n">
+        <v>44397.65435185185</v>
       </c>
       <c r="I291" t="n">
         <v>0</v>
@@ -21555,10 +20991,8 @@
           <t>4950740677</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>2021-07-20 15:41:28</t>
-        </is>
+      <c r="H292" s="1" t="n">
+        <v>44397.6537962963</v>
       </c>
       <c r="I292" t="n">
         <v>0</v>
@@ -21628,10 +21062,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>2021-07-20 15:41:14</t>
-        </is>
+      <c r="H293" s="1" t="n">
+        <v>44397.65363425926</v>
       </c>
       <c r="I293" t="n">
         <v>36</v>
@@ -21695,10 +21127,8 @@
           <t>4951329328</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>2021-07-20 15:40:29</t>
-        </is>
+      <c r="H294" s="1" t="n">
+        <v>44397.65311342593</v>
       </c>
       <c r="I294" t="n">
         <v>4</v>
@@ -21762,10 +21192,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>2021-07-20 15:40:03</t>
-        </is>
+      <c r="H295" s="1" t="n">
+        <v>44397.6528125</v>
       </c>
       <c r="I295" t="n">
         <v>19</v>
@@ -21825,10 +21253,8 @@
           <t>4951332154</t>
         </is>
       </c>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>2021-07-20 15:39:49</t>
-        </is>
+      <c r="H296" s="1" t="n">
+        <v>44397.65265046297</v>
       </c>
       <c r="I296" t="n">
         <v>4</v>
@@ -21892,10 +21318,8 @@
           <t>4951323968</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>2021-07-20 15:39:41</t>
-        </is>
+      <c r="H297" s="1" t="n">
+        <v>44397.65255787037</v>
       </c>
       <c r="I297" t="n">
         <v>5</v>
@@ -21963,10 +21387,8 @@
           <t>4951327266</t>
         </is>
       </c>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>2021-07-20 15:39:25</t>
-        </is>
+      <c r="H298" s="1" t="n">
+        <v>44397.65237268519</v>
       </c>
       <c r="I298" t="n">
         <v>8</v>
@@ -22034,10 +21456,8 @@
           <t>4951326142</t>
         </is>
       </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>2021-07-20 15:38:49</t>
-        </is>
+      <c r="H299" s="1" t="n">
+        <v>44397.65195601852</v>
       </c>
       <c r="I299" t="n">
         <v>0</v>
@@ -22105,10 +21525,8 @@
           <t>4951231447</t>
         </is>
       </c>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>2021-07-20 15:38:38</t>
-        </is>
+      <c r="H300" s="1" t="n">
+        <v>44397.6518287037</v>
       </c>
       <c r="I300" t="n">
         <v>3</v>
@@ -22176,10 +21594,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>2021-07-20 15:35:17</t>
-        </is>
+      <c r="H301" s="1" t="n">
+        <v>44397.64950231482</v>
       </c>
       <c r="I301" t="n">
         <v>2</v>
@@ -22247,10 +21663,8 @@
           <t>4951231447</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>2021-07-20 15:34:57</t>
-        </is>
+      <c r="H302" s="1" t="n">
+        <v>44397.64927083333</v>
       </c>
       <c r="I302" t="n">
         <v>2</v>
@@ -22318,10 +21732,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>2021-07-20 15:32:37</t>
-        </is>
+      <c r="H303" s="1" t="n">
+        <v>44397.64765046296</v>
       </c>
       <c r="I303" t="n">
         <v>17</v>
@@ -22381,10 +21793,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>2021-07-20 15:32:23</t>
-        </is>
+      <c r="H304" s="1" t="n">
+        <v>44397.64748842592</v>
       </c>
       <c r="I304" t="n">
         <v>0</v>
@@ -22456,10 +21866,8 @@
           <t>4950871195</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>2021-07-20 15:30:58</t>
-        </is>
+      <c r="H305" s="1" t="n">
+        <v>44397.64650462963</v>
       </c>
       <c r="I305" t="n">
         <v>1</v>
@@ -22524,10 +21932,8 @@
           <t>4950358734</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>2021-07-20 15:30:23</t>
-        </is>
+      <c r="H306" s="1" t="n">
+        <v>44397.64609953704</v>
       </c>
       <c r="I306" t="n">
         <v>0</v>
@@ -22595,10 +22001,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>2021-07-20 15:29:45</t>
-        </is>
+      <c r="H307" s="1" t="n">
+        <v>44397.64565972222</v>
       </c>
       <c r="I307" t="n">
         <v>11</v>
@@ -22662,10 +22066,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>2021-07-20 15:29:37</t>
-        </is>
+      <c r="H308" s="1" t="n">
+        <v>44397.64556712963</v>
       </c>
       <c r="I308" t="n">
         <v>24</v>
@@ -22737,10 +22139,8 @@
           <t>4951231447</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>2021-07-20 15:29:20</t>
-        </is>
+      <c r="H309" s="1" t="n">
+        <v>44397.64537037037</v>
       </c>
       <c r="I309" t="n">
         <v>0</v>
@@ -22808,10 +22208,8 @@
           <t>4951117001</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>2021-07-20 15:29:06</t>
-        </is>
+      <c r="H310" s="1" t="n">
+        <v>44397.64520833334</v>
       </c>
       <c r="I310" t="n">
         <v>3</v>
@@ -22875,10 +22273,8 @@
           <t>4951231447</t>
         </is>
       </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>2021-07-20 15:28:37</t>
-        </is>
+      <c r="H311" s="1" t="n">
+        <v>44397.64487268519</v>
       </c>
       <c r="I311" t="n">
         <v>2</v>
@@ -22946,10 +22342,8 @@
           <t>4951258389</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>2021-07-20 15:26:52</t>
-        </is>
+      <c r="H312" s="1" t="n">
+        <v>44397.64365740741</v>
       </c>
       <c r="I312" t="n">
         <v>0</v>
@@ -23013,10 +22407,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>2021-07-20 15:26:43</t>
-        </is>
+      <c r="H313" s="1" t="n">
+        <v>44397.64355324074</v>
       </c>
       <c r="I313" t="n">
         <v>21</v>
@@ -23080,10 +22472,8 @@
           <t>4951231447</t>
         </is>
       </c>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>2021-07-20 15:26:05</t>
-        </is>
+      <c r="H314" s="1" t="n">
+        <v>44397.64311342593</v>
       </c>
       <c r="I314" t="n">
         <v>9</v>
@@ -23151,10 +22541,8 @@
           <t>4951248738</t>
         </is>
       </c>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>2021-07-20 15:26:02</t>
-        </is>
+      <c r="H315" s="1" t="n">
+        <v>44397.6430787037</v>
       </c>
       <c r="I315" t="n">
         <v>1</v>
@@ -23230,10 +22618,8 @@
           <t>4951218454</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>2021-07-20 15:25:50</t>
-        </is>
+      <c r="H316" s="1" t="n">
+        <v>44397.64293981482</v>
       </c>
       <c r="I316" t="n">
         <v>0</v>
@@ -23301,10 +22687,8 @@
           <t>4951218454</t>
         </is>
       </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>2021-07-20 15:25:20</t>
-        </is>
+      <c r="H317" s="1" t="n">
+        <v>44397.64259259259</v>
       </c>
       <c r="I317" t="n">
         <v>0</v>
@@ -23372,10 +22756,8 @@
           <t>4951250944</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>2021-07-20 15:25:06</t>
-        </is>
+      <c r="H318" s="1" t="n">
+        <v>44397.64243055556</v>
       </c>
       <c r="I318" t="n">
         <v>2</v>
@@ -23443,10 +22825,8 @@
           <t>4951245275</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>2021-07-20 15:24:08</t>
-        </is>
+      <c r="H319" s="1" t="n">
+        <v>44397.64175925926</v>
       </c>
       <c r="I319" t="n">
         <v>0</v>
@@ -23514,10 +22894,8 @@
           <t>4951239147</t>
         </is>
       </c>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>2021-07-20 15:24:05</t>
-        </is>
+      <c r="H320" s="1" t="n">
+        <v>44397.64172453704</v>
       </c>
       <c r="I320" t="n">
         <v>2</v>
@@ -23593,10 +22971,8 @@
           <t>4951238548</t>
         </is>
       </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>2021-07-20 15:23:44</t>
-        </is>
+      <c r="H321" s="1" t="n">
+        <v>44397.64148148148</v>
       </c>
       <c r="I321" t="n">
         <v>1</v>
@@ -23664,10 +23040,8 @@
           <t>4951242237</t>
         </is>
       </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>2021-07-20 15:23:30</t>
-        </is>
+      <c r="H322" s="1" t="n">
+        <v>44397.64131944445</v>
       </c>
       <c r="I322" t="n">
         <v>0</v>
@@ -23735,10 +23109,8 @@
           <t>4951231447</t>
         </is>
       </c>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>2021-07-20 15:23:21</t>
-        </is>
+      <c r="H323" s="1" t="n">
+        <v>44397.64121527778</v>
       </c>
       <c r="I323" t="n">
         <v>8</v>
@@ -23806,10 +23178,8 @@
           <t>4951232283</t>
         </is>
       </c>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>2021-07-20 15:22:32</t>
-        </is>
+      <c r="H324" s="1" t="n">
+        <v>44397.64064814815</v>
       </c>
       <c r="I324" t="n">
         <v>0</v>
@@ -23877,10 +23247,8 @@
           <t>4951048317</t>
         </is>
       </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>2021-07-20 15:22:28</t>
-        </is>
+      <c r="H325" s="1" t="n">
+        <v>44397.64060185185</v>
       </c>
       <c r="I325" t="n">
         <v>0</v>
@@ -23952,10 +23320,8 @@
           <t>4951231842</t>
         </is>
       </c>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>2021-07-20 15:22:17</t>
-        </is>
+      <c r="H326" s="1" t="n">
+        <v>44397.64047453704</v>
       </c>
       <c r="I326" t="n">
         <v>0</v>
@@ -24023,10 +23389,8 @@
           <t>4951231447</t>
         </is>
       </c>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>2021-07-20 15:22:04</t>
-        </is>
+      <c r="H327" s="1" t="n">
+        <v>44397.64032407408</v>
       </c>
       <c r="I327" t="n">
         <v>15</v>
@@ -24094,10 +23458,8 @@
           <t>4950674848</t>
         </is>
       </c>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>2021-07-20 15:20:55</t>
-        </is>
+      <c r="H328" s="1" t="n">
+        <v>44397.63952546296</v>
       </c>
       <c r="I328" t="n">
         <v>0</v>
@@ -24169,10 +23531,8 @@
           <t>4951048317</t>
         </is>
       </c>
-      <c r="H329" t="inlineStr">
-        <is>
-          <t>2021-07-20 15:20:51</t>
-        </is>
+      <c r="H329" s="1" t="n">
+        <v>44397.63947916667</v>
       </c>
       <c r="I329" t="n">
         <v>4</v>
@@ -24240,10 +23600,8 @@
           <t>4951218454</t>
         </is>
       </c>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>2021-07-20 15:20:26</t>
-        </is>
+      <c r="H330" s="1" t="n">
+        <v>44397.63918981481</v>
       </c>
       <c r="I330" t="n">
         <v>3</v>
@@ -24311,10 +23669,8 @@
           <t>4951217852</t>
         </is>
       </c>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>2021-07-20 15:20:07</t>
-        </is>
+      <c r="H331" s="1" t="n">
+        <v>44397.63896990741</v>
       </c>
       <c r="I331" t="n">
         <v>1</v>
@@ -24382,10 +23738,8 @@
           <t>4951204006</t>
         </is>
       </c>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>2021-07-20 15:18:00</t>
-        </is>
+      <c r="H332" s="1" t="n">
+        <v>44397.6375</v>
       </c>
       <c r="I332" t="n">
         <v>8</v>
@@ -24461,10 +23815,8 @@
           <t>4951200865</t>
         </is>
       </c>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>2021-07-20 15:16:16</t>
-        </is>
+      <c r="H333" s="1" t="n">
+        <v>44397.6362962963</v>
       </c>
       <c r="I333" t="n">
         <v>0</v>
@@ -24540,10 +23892,8 @@
           <t>4951196776</t>
         </is>
       </c>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t>2021-07-20 15:15:11</t>
-        </is>
+      <c r="H334" s="1" t="n">
+        <v>44397.63554398148</v>
       </c>
       <c r="I334" t="n">
         <v>0</v>
@@ -24615,10 +23965,8 @@
           <t>4951196495</t>
         </is>
       </c>
-      <c r="H335" t="inlineStr">
-        <is>
-          <t>2021-07-20 15:15:03</t>
-        </is>
+      <c r="H335" s="1" t="n">
+        <v>44397.63545138889</v>
       </c>
       <c r="I335" t="n">
         <v>1</v>
@@ -24691,10 +24039,8 @@
           <t>4951048317</t>
         </is>
       </c>
-      <c r="H336" t="inlineStr">
-        <is>
-          <t>2021-07-20 15:13:56</t>
-        </is>
+      <c r="H336" s="1" t="n">
+        <v>44397.63467592592</v>
       </c>
       <c r="I336" t="n">
         <v>5</v>
@@ -24766,10 +24112,8 @@
           <t>4951048317</t>
         </is>
       </c>
-      <c r="H337" t="inlineStr">
-        <is>
-          <t>2021-07-20 15:13:41</t>
-        </is>
+      <c r="H337" s="1" t="n">
+        <v>44397.63450231482</v>
       </c>
       <c r="I337" t="n">
         <v>3</v>
@@ -24833,10 +24177,8 @@
           <t>4950732096</t>
         </is>
       </c>
-      <c r="H338" t="inlineStr">
-        <is>
-          <t>2021-07-20 15:12:03</t>
-        </is>
+      <c r="H338" s="1" t="n">
+        <v>44397.63336805555</v>
       </c>
       <c r="I338" t="n">
         <v>6</v>
@@ -24900,10 +24242,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H339" t="inlineStr">
-        <is>
-          <t>2021-07-20 15:11:03</t>
-        </is>
+      <c r="H339" s="1" t="n">
+        <v>44397.63267361111</v>
       </c>
       <c r="I339" t="n">
         <v>30</v>
@@ -24971,10 +24311,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t>2021-07-20 15:10:01</t>
-        </is>
+      <c r="H340" s="1" t="n">
+        <v>44397.63195601852</v>
       </c>
       <c r="I340" t="n">
         <v>16</v>
@@ -25046,10 +24384,8 @@
           <t>4951048317</t>
         </is>
       </c>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>2021-07-20 15:09:17</t>
-        </is>
+      <c r="H341" s="1" t="n">
+        <v>44397.63144675926</v>
       </c>
       <c r="I341" t="n">
         <v>0</v>
@@ -25121,10 +24457,8 @@
           <t>4951165045</t>
         </is>
       </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>2021-07-20 15:08:50</t>
-        </is>
+      <c r="H342" s="1" t="n">
+        <v>44397.63113425926</v>
       </c>
       <c r="I342" t="n">
         <v>4</v>
@@ -25196,10 +24530,8 @@
           <t>4951154634</t>
         </is>
       </c>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>2021-07-20 15:08:38</t>
-        </is>
+      <c r="H343" s="1" t="n">
+        <v>44397.63099537037</v>
       </c>
       <c r="I343" t="n">
         <v>15</v>
@@ -25263,10 +24595,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>2021-07-20 15:08:34</t>
-        </is>
+      <c r="H344" s="1" t="n">
+        <v>44397.63094907408</v>
       </c>
       <c r="I344" t="n">
         <v>18</v>
@@ -25330,10 +24660,8 @@
           <t>4950573986</t>
         </is>
       </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>2021-07-20 15:08:23</t>
-        </is>
+      <c r="H345" s="1" t="n">
+        <v>44397.63082175926</v>
       </c>
       <c r="I345" t="n">
         <v>0</v>
@@ -25401,10 +24729,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H346" t="inlineStr">
-        <is>
-          <t>2021-07-20 15:07:31</t>
-        </is>
+      <c r="H346" s="1" t="n">
+        <v>44397.63021990741</v>
       </c>
       <c r="I346" t="n">
         <v>24</v>
@@ -25472,10 +24798,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H347" t="inlineStr">
-        <is>
-          <t>2021-07-20 15:07:18</t>
-        </is>
+      <c r="H347" s="1" t="n">
+        <v>44397.63006944444</v>
       </c>
       <c r="I347" t="n">
         <v>1</v>
@@ -25539,10 +24863,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H348" t="inlineStr">
-        <is>
-          <t>2021-07-20 15:06:46</t>
-        </is>
+      <c r="H348" s="1" t="n">
+        <v>44397.62969907407</v>
       </c>
       <c r="I348" t="n">
         <v>1</v>
@@ -25618,10 +24940,8 @@
           <t>4950358734</t>
         </is>
       </c>
-      <c r="H349" t="inlineStr">
-        <is>
-          <t>2021-07-20 15:05:15</t>
-        </is>
+      <c r="H349" s="1" t="n">
+        <v>44397.62864583333</v>
       </c>
       <c r="I349" t="n">
         <v>0</v>
@@ -25690,10 +25010,8 @@
           <t>4951022521</t>
         </is>
       </c>
-      <c r="H350" t="inlineStr">
-        <is>
-          <t>2021-07-20 15:04:40</t>
-        </is>
+      <c r="H350" s="1" t="n">
+        <v>44397.62824074074</v>
       </c>
       <c r="I350" t="n">
         <v>5</v>
@@ -25774,10 +25092,8 @@
           <t>4951135505</t>
         </is>
       </c>
-      <c r="H351" t="inlineStr">
-        <is>
-          <t>2021-07-20 15:03:39</t>
-        </is>
+      <c r="H351" s="1" t="n">
+        <v>44397.62753472223</v>
       </c>
       <c r="I351" t="n">
         <v>2</v>
@@ -25849,10 +25165,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H352" t="inlineStr">
-        <is>
-          <t>2021-07-20 15:00:27</t>
-        </is>
+      <c r="H352" s="1" t="n">
+        <v>44397.6253125</v>
       </c>
       <c r="I352" t="n">
         <v>17</v>
@@ -25920,10 +25234,8 @@
           <t>4951117001</t>
         </is>
       </c>
-      <c r="H353" t="inlineStr">
-        <is>
-          <t>2021-07-20 15:00:14</t>
-        </is>
+      <c r="H353" s="1" t="n">
+        <v>44397.62516203704</v>
       </c>
       <c r="I353" t="n">
         <v>17</v>
@@ -25991,10 +25303,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H354" t="inlineStr">
-        <is>
-          <t>2021-07-20 14:59:41</t>
-        </is>
+      <c r="H354" s="1" t="n">
+        <v>44397.62478009259</v>
       </c>
       <c r="I354" t="n">
         <v>22</v>
@@ -26058,10 +25368,8 @@
           <t>4951115602</t>
         </is>
       </c>
-      <c r="H355" t="inlineStr">
-        <is>
-          <t>2021-07-20 14:59:27</t>
-        </is>
+      <c r="H355" s="1" t="n">
+        <v>44397.62461805555</v>
       </c>
       <c r="I355" t="n">
         <v>0</v>
@@ -26125,10 +25433,8 @@
           <t>4951022521</t>
         </is>
       </c>
-      <c r="H356" t="inlineStr">
-        <is>
-          <t>2021-07-20 14:59:26</t>
-        </is>
+      <c r="H356" s="1" t="n">
+        <v>44397.62460648148</v>
       </c>
       <c r="I356" t="n">
         <v>3</v>
@@ -26200,10 +25506,8 @@
           <t>4951107198</t>
         </is>
       </c>
-      <c r="H357" t="inlineStr">
-        <is>
-          <t>2021-07-20 14:59:07</t>
-        </is>
+      <c r="H357" s="1" t="n">
+        <v>44397.62438657408</v>
       </c>
       <c r="I357" t="n">
         <v>4</v>
@@ -26271,10 +25575,8 @@
           <t>4950573986</t>
         </is>
       </c>
-      <c r="H358" t="inlineStr">
-        <is>
-          <t>2021-07-20 14:56:43</t>
-        </is>
+      <c r="H358" s="1" t="n">
+        <v>44397.62271990741</v>
       </c>
       <c r="I358" t="n">
         <v>1</v>
@@ -26350,10 +25652,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H359" t="inlineStr">
-        <is>
-          <t>2021-07-20 14:55:57</t>
-        </is>
+      <c r="H359" s="1" t="n">
+        <v>44397.6221875</v>
       </c>
       <c r="I359" t="n">
         <v>1</v>
@@ -26429,10 +25729,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H360" t="inlineStr">
-        <is>
-          <t>2021-07-20 14:54:18</t>
-        </is>
+      <c r="H360" s="1" t="n">
+        <v>44397.62104166667</v>
       </c>
       <c r="I360" t="n">
         <v>17</v>
@@ -26496,10 +25794,8 @@
           <t>4950573986</t>
         </is>
       </c>
-      <c r="H361" t="inlineStr">
-        <is>
-          <t>2021-07-20 14:54:12</t>
-        </is>
+      <c r="H361" s="1" t="n">
+        <v>44397.62097222222</v>
       </c>
       <c r="I361" t="n">
         <v>1</v>
@@ -26571,10 +25867,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H362" t="inlineStr">
-        <is>
-          <t>2021-07-20 14:53:50</t>
-        </is>
+      <c r="H362" s="1" t="n">
+        <v>44397.6207175926</v>
       </c>
       <c r="I362" t="n">
         <v>17</v>
@@ -26642,10 +25936,8 @@
           <t>4951022521</t>
         </is>
       </c>
-      <c r="H363" t="inlineStr">
-        <is>
-          <t>2021-07-20 14:53:39</t>
-        </is>
+      <c r="H363" s="1" t="n">
+        <v>44397.62059027778</v>
       </c>
       <c r="I363" t="n">
         <v>0</v>
@@ -26713,10 +26005,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H364" t="inlineStr">
-        <is>
-          <t>2021-07-20 14:53:38</t>
-        </is>
+      <c r="H364" s="1" t="n">
+        <v>44397.6205787037</v>
       </c>
       <c r="I364" t="n">
         <v>1</v>
@@ -26781,10 +26071,8 @@
           <t>4951048317</t>
         </is>
       </c>
-      <c r="H365" t="inlineStr">
-        <is>
-          <t>2021-07-20 14:53:21</t>
-        </is>
+      <c r="H365" s="1" t="n">
+        <v>44397.62038194444</v>
       </c>
       <c r="I365" t="n">
         <v>9</v>
@@ -26856,10 +26144,8 @@
           <t>4951022521</t>
         </is>
       </c>
-      <c r="H366" t="inlineStr">
-        <is>
-          <t>2021-07-20 14:53:04</t>
-        </is>
+      <c r="H366" s="1" t="n">
+        <v>44397.62018518519</v>
       </c>
       <c r="I366" t="n">
         <v>0</v>
@@ -26931,10 +26217,8 @@
           <t>4951048317</t>
         </is>
       </c>
-      <c r="H367" t="inlineStr">
-        <is>
-          <t>2021-07-20 14:52:11</t>
-        </is>
+      <c r="H367" s="1" t="n">
+        <v>44397.61957175926</v>
       </c>
       <c r="I367" t="n">
         <v>0</v>
@@ -27006,10 +26290,8 @@
           <t>4950161647</t>
         </is>
       </c>
-      <c r="H368" t="inlineStr">
-        <is>
-          <t>2021-07-20 14:51:26</t>
-        </is>
+      <c r="H368" s="1" t="n">
+        <v>44397.61905092592</v>
       </c>
       <c r="I368" t="n">
         <v>0</v>
@@ -27073,10 +26355,8 @@
           <t>4951062684</t>
         </is>
       </c>
-      <c r="H369" t="inlineStr">
-        <is>
-          <t>2021-07-20 14:51:15</t>
-        </is>
+      <c r="H369" s="1" t="n">
+        <v>44397.61892361111</v>
       </c>
       <c r="I369" t="n">
         <v>1</v>
@@ -27140,10 +26420,8 @@
           <t>4951022521</t>
         </is>
       </c>
-      <c r="H370" t="inlineStr">
-        <is>
-          <t>2021-07-20 14:51:15</t>
-        </is>
+      <c r="H370" s="1" t="n">
+        <v>44397.61892361111</v>
       </c>
       <c r="I370" t="n">
         <v>6</v>
@@ -27211,10 +26489,8 @@
           <t>4950732096</t>
         </is>
       </c>
-      <c r="H371" t="inlineStr">
-        <is>
-          <t>2021-07-20 14:50:58</t>
-        </is>
+      <c r="H371" s="1" t="n">
+        <v>44397.61872685186</v>
       </c>
       <c r="I371" t="n">
         <v>0</v>
@@ -27286,10 +26562,8 @@
           <t>4951054664</t>
         </is>
       </c>
-      <c r="H372" t="inlineStr">
-        <is>
-          <t>2021-07-20 14:49:42</t>
-        </is>
+      <c r="H372" s="1" t="n">
+        <v>44397.61784722222</v>
       </c>
       <c r="I372" t="n">
         <v>4</v>
@@ -27357,10 +26631,8 @@
           <t>4951048317</t>
         </is>
       </c>
-      <c r="H373" t="inlineStr">
-        <is>
-          <t>2021-07-20 14:49:02</t>
-        </is>
+      <c r="H373" s="1" t="n">
+        <v>44397.61738425926</v>
       </c>
       <c r="I373" t="n">
         <v>9</v>
@@ -27432,10 +26704,8 @@
           <t>4950696010</t>
         </is>
       </c>
-      <c r="H374" t="inlineStr">
-        <is>
-          <t>2021-07-20 14:48:50</t>
-        </is>
+      <c r="H374" s="1" t="n">
+        <v>44397.61724537037</v>
       </c>
       <c r="I374" t="n">
         <v>1</v>
@@ -27504,10 +26774,8 @@
           <t>4951022521</t>
         </is>
       </c>
-      <c r="H375" t="inlineStr">
-        <is>
-          <t>2021-07-20 14:47:24</t>
-        </is>
+      <c r="H375" s="1" t="n">
+        <v>44397.61625</v>
       </c>
       <c r="I375" t="n">
         <v>5</v>
@@ -27575,10 +26843,8 @@
           <t>4951012663</t>
         </is>
       </c>
-      <c r="H376" t="inlineStr">
-        <is>
-          <t>2021-07-20 14:46:55</t>
-        </is>
+      <c r="H376" s="1" t="n">
+        <v>44397.61591435185</v>
       </c>
       <c r="I376" t="n">
         <v>3</v>
@@ -27642,10 +26908,8 @@
           <t>4951033283</t>
         </is>
       </c>
-      <c r="H377" t="inlineStr">
-        <is>
-          <t>2021-07-20 14:46:09</t>
-        </is>
+      <c r="H377" s="1" t="n">
+        <v>44397.61538194444</v>
       </c>
       <c r="I377" t="n">
         <v>2</v>
@@ -27713,10 +26977,8 @@
           <t>4951036999</t>
         </is>
       </c>
-      <c r="H378" t="inlineStr">
-        <is>
-          <t>2021-07-20 14:45:36</t>
-        </is>
+      <c r="H378" s="1" t="n">
+        <v>44397.615</v>
       </c>
       <c r="I378" t="n">
         <v>2</v>
@@ -27784,10 +27046,8 @@
           <t>4950732096</t>
         </is>
       </c>
-      <c r="H379" t="inlineStr">
-        <is>
-          <t>2021-07-20 14:44:36</t>
-        </is>
+      <c r="H379" s="1" t="n">
+        <v>44397.61430555556</v>
       </c>
       <c r="I379" t="n">
         <v>5</v>
@@ -27855,10 +27115,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H380" t="inlineStr">
-        <is>
-          <t>2021-07-20 14:44:19</t>
-        </is>
+      <c r="H380" s="1" t="n">
+        <v>44397.6141087963</v>
       </c>
       <c r="I380" t="n">
         <v>43</v>
@@ -27918,10 +27176,8 @@
           <t>4950857373</t>
         </is>
       </c>
-      <c r="H381" t="inlineStr">
-        <is>
-          <t>2021-07-20 14:43:53</t>
-        </is>
+      <c r="H381" s="1" t="n">
+        <v>44397.61380787037</v>
       </c>
       <c r="I381" t="n">
         <v>0</v>
@@ -27989,10 +27245,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H382" t="inlineStr">
-        <is>
-          <t>2021-07-20 14:43:47</t>
-        </is>
+      <c r="H382" s="1" t="n">
+        <v>44397.61373842593</v>
       </c>
       <c r="I382" t="n">
         <v>28</v>
@@ -28056,10 +27310,8 @@
           <t>4951018924</t>
         </is>
       </c>
-      <c r="H383" t="inlineStr">
-        <is>
-          <t>2021-07-20 14:43:39</t>
-        </is>
+      <c r="H383" s="1" t="n">
+        <v>44397.61364583333</v>
       </c>
       <c r="I383" t="n">
         <v>0</v>
@@ -28132,10 +27384,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H384" t="inlineStr">
-        <is>
-          <t>2021-07-20 14:43:21</t>
-        </is>
+      <c r="H384" s="1" t="n">
+        <v>44397.6134375</v>
       </c>
       <c r="I384" t="n">
         <v>23</v>
@@ -28207,10 +27457,8 @@
           <t>4951022521</t>
         </is>
       </c>
-      <c r="H385" t="inlineStr">
-        <is>
-          <t>2021-07-20 14:43:13</t>
-        </is>
+      <c r="H385" s="1" t="n">
+        <v>44397.6133449074</v>
       </c>
       <c r="I385" t="n">
         <v>2</v>
@@ -28278,10 +27526,8 @@
           <t>4951025030</t>
         </is>
       </c>
-      <c r="H386" t="inlineStr">
-        <is>
-          <t>2021-07-20 14:42:41</t>
-        </is>
+      <c r="H386" s="1" t="n">
+        <v>44397.61297453703</v>
       </c>
       <c r="I386" t="n">
         <v>0</v>
@@ -28354,10 +27600,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H387" t="inlineStr">
-        <is>
-          <t>2021-07-20 14:42:18</t>
-        </is>
+      <c r="H387" s="1" t="n">
+        <v>44397.61270833333</v>
       </c>
       <c r="I387" t="n">
         <v>45</v>
@@ -28421,10 +27665,8 @@
           <t>4951020538</t>
         </is>
       </c>
-      <c r="H388" t="inlineStr">
-        <is>
-          <t>2021-07-20 14:42:12</t>
-        </is>
+      <c r="H388" s="1" t="n">
+        <v>44397.61263888889</v>
       </c>
       <c r="I388" t="n">
         <v>0</v>
@@ -28496,10 +27738,8 @@
           <t>4951020152</t>
         </is>
       </c>
-      <c r="H389" t="inlineStr">
-        <is>
-          <t>2021-07-20 14:41:59</t>
-        </is>
+      <c r="H389" s="1" t="n">
+        <v>44397.61248842593</v>
       </c>
       <c r="I389" t="n">
         <v>0</v>
@@ -28567,10 +27807,8 @@
           <t>4950732096</t>
         </is>
       </c>
-      <c r="H390" t="inlineStr">
-        <is>
-          <t>2021-07-20 14:40:58</t>
-        </is>
+      <c r="H390" s="1" t="n">
+        <v>44397.61178240741</v>
       </c>
       <c r="I390" t="n">
         <v>0</v>
@@ -28634,10 +27872,8 @@
           <t>4951001619</t>
         </is>
       </c>
-      <c r="H391" t="inlineStr">
-        <is>
-          <t>2021-07-20 14:39:32</t>
-        </is>
+      <c r="H391" s="1" t="n">
+        <v>44397.61078703704</v>
       </c>
       <c r="I391" t="n">
         <v>2</v>
@@ -28705,10 +27941,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H392" t="inlineStr">
-        <is>
-          <t>2021-07-20 14:39:24</t>
-        </is>
+      <c r="H392" s="1" t="n">
+        <v>44397.61069444445</v>
       </c>
       <c r="I392" t="n">
         <v>0</v>
@@ -28785,10 +28019,8 @@
           <t>4950985855</t>
         </is>
       </c>
-      <c r="H393" t="inlineStr">
-        <is>
-          <t>2021-07-20 14:36:15</t>
-        </is>
+      <c r="H393" s="1" t="n">
+        <v>44397.60850694445</v>
       </c>
       <c r="I393" t="n">
         <v>1</v>
@@ -28865,10 +28097,8 @@
           <t>4950974431</t>
         </is>
       </c>
-      <c r="H394" t="inlineStr">
-        <is>
-          <t>2021-07-20 14:35:25</t>
-        </is>
+      <c r="H394" s="1" t="n">
+        <v>44397.60792824074</v>
       </c>
       <c r="I394" t="n">
         <v>4</v>
@@ -28928,10 +28158,8 @@
           <t>4950972086</t>
         </is>
       </c>
-      <c r="H395" t="inlineStr">
-        <is>
-          <t>2021-07-20 14:34:06</t>
-        </is>
+      <c r="H395" s="1" t="n">
+        <v>44397.60701388889</v>
       </c>
       <c r="I395" t="n">
         <v>0</v>
@@ -28999,10 +28227,8 @@
           <t>4950889453</t>
         </is>
       </c>
-      <c r="H396" t="inlineStr">
-        <is>
-          <t>2021-07-20 14:33:49</t>
-        </is>
+      <c r="H396" s="1" t="n">
+        <v>44397.60681712963</v>
       </c>
       <c r="I396" t="n">
         <v>0</v>
@@ -29066,10 +28292,8 @@
           <t>4950965320</t>
         </is>
       </c>
-      <c r="H397" t="inlineStr">
-        <is>
-          <t>2021-07-20 14:32:05</t>
-        </is>
+      <c r="H397" s="1" t="n">
+        <v>44397.60561342593</v>
       </c>
       <c r="I397" t="n">
         <v>5</v>
@@ -29137,10 +28361,8 @@
           <t>4950889453</t>
         </is>
       </c>
-      <c r="H398" t="inlineStr">
-        <is>
-          <t>2021-07-20 14:31:06</t>
-        </is>
+      <c r="H398" s="1" t="n">
+        <v>44397.60493055556</v>
       </c>
       <c r="I398" t="n">
         <v>1</v>
@@ -29208,10 +28430,8 @@
           <t>4950948403</t>
         </is>
       </c>
-      <c r="H399" t="inlineStr">
-        <is>
-          <t>2021-07-20 14:30:31</t>
-        </is>
+      <c r="H399" s="1" t="n">
+        <v>44397.60452546296</v>
       </c>
       <c r="I399" t="n">
         <v>0</v>
@@ -29283,10 +28503,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H400" t="inlineStr">
-        <is>
-          <t>2021-07-20 14:30:16</t>
-        </is>
+      <c r="H400" s="1" t="n">
+        <v>44397.60435185185</v>
       </c>
       <c r="I400" t="n">
         <v>0</v>
@@ -29350,10 +28568,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H401" t="inlineStr">
-        <is>
-          <t>2021-07-20 14:27:56</t>
-        </is>
+      <c r="H401" s="1" t="n">
+        <v>44397.60273148148</v>
       </c>
       <c r="I401" t="n">
         <v>1</v>
@@ -29417,10 +28633,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H402" t="inlineStr">
-        <is>
-          <t>2021-07-20 14:27:15</t>
-        </is>
+      <c r="H402" s="1" t="n">
+        <v>44397.60225694445</v>
       </c>
       <c r="I402" t="n">
         <v>0</v>
@@ -29488,10 +28702,8 @@
           <t>4950923068</t>
         </is>
       </c>
-      <c r="H403" t="inlineStr">
-        <is>
-          <t>2021-07-20 14:25:36</t>
-        </is>
+      <c r="H403" s="1" t="n">
+        <v>44397.60111111111</v>
       </c>
       <c r="I403" t="n">
         <v>0</v>
@@ -29555,10 +28767,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H404" t="inlineStr">
-        <is>
-          <t>2021-07-20 14:24:44</t>
-        </is>
+      <c r="H404" s="1" t="n">
+        <v>44397.60050925926</v>
       </c>
       <c r="I404" t="n">
         <v>1</v>
@@ -29626,10 +28836,8 @@
           <t>4950916176</t>
         </is>
       </c>
-      <c r="H405" t="inlineStr">
-        <is>
-          <t>2021-07-20 14:24:12</t>
-        </is>
+      <c r="H405" s="1" t="n">
+        <v>44397.60013888889</v>
       </c>
       <c r="I405" t="n">
         <v>0</v>
@@ -29701,10 +28909,8 @@
           <t>4950421380</t>
         </is>
       </c>
-      <c r="H406" t="inlineStr">
-        <is>
-          <t>2021-07-20 14:23:36</t>
-        </is>
+      <c r="H406" s="1" t="n">
+        <v>44397.59972222222</v>
       </c>
       <c r="I406" t="n">
         <v>0</v>
@@ -29780,10 +28986,8 @@
           <t>4950893500</t>
         </is>
       </c>
-      <c r="H407" t="inlineStr">
-        <is>
-          <t>2021-07-20 14:22:56</t>
-        </is>
+      <c r="H407" s="1" t="n">
+        <v>44397.59925925926</v>
       </c>
       <c r="I407" t="n">
         <v>1</v>
@@ -29859,10 +29063,8 @@
           <t>4950906916</t>
         </is>
       </c>
-      <c r="H408" t="inlineStr">
-        <is>
-          <t>2021-07-20 14:22:19</t>
-        </is>
+      <c r="H408" s="1" t="n">
+        <v>44397.59883101852</v>
       </c>
       <c r="I408" t="n">
         <v>1</v>
@@ -29938,10 +29140,8 @@
           <t>4950871195</t>
         </is>
       </c>
-      <c r="H409" t="inlineStr">
-        <is>
-          <t>2021-07-20 14:21:22</t>
-        </is>
+      <c r="H409" s="1" t="n">
+        <v>44397.5981712963</v>
       </c>
       <c r="I409" t="n">
         <v>0</v>
@@ -30005,10 +29205,8 @@
           <t>4950889453</t>
         </is>
       </c>
-      <c r="H410" t="inlineStr">
-        <is>
-          <t>2021-07-20 14:20:42</t>
-        </is>
+      <c r="H410" s="1" t="n">
+        <v>44397.59770833333</v>
       </c>
       <c r="I410" t="n">
         <v>7</v>
@@ -30072,10 +29270,8 @@
           <t>4950898234</t>
         </is>
       </c>
-      <c r="H411" t="inlineStr">
-        <is>
-          <t>2021-07-20 14:20:34</t>
-        </is>
+      <c r="H411" s="1" t="n">
+        <v>44397.59761574074</v>
       </c>
       <c r="I411" t="n">
         <v>1</v>
@@ -30143,10 +29339,8 @@
           <t>4950893500</t>
         </is>
       </c>
-      <c r="H412" t="inlineStr">
-        <is>
-          <t>2021-07-20 14:20:30</t>
-        </is>
+      <c r="H412" s="1" t="n">
+        <v>44397.59756944444</v>
       </c>
       <c r="I412" t="n">
         <v>2</v>
@@ -30222,10 +29416,8 @@
           <t>4950696010</t>
         </is>
       </c>
-      <c r="H413" t="inlineStr">
-        <is>
-          <t>2021-07-20 14:20:20</t>
-        </is>
+      <c r="H413" s="1" t="n">
+        <v>44397.5974537037</v>
       </c>
       <c r="I413" t="n">
         <v>1</v>
@@ -30301,10 +29493,8 @@
           <t>4949972054</t>
         </is>
       </c>
-      <c r="H414" t="inlineStr">
-        <is>
-          <t>2021-07-20 14:19:58</t>
-        </is>
+      <c r="H414" s="1" t="n">
+        <v>44397.59719907407</v>
       </c>
       <c r="I414" t="n">
         <v>0</v>
@@ -30368,10 +29558,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H415" t="inlineStr">
-        <is>
-          <t>2021-07-20 14:19:34</t>
-        </is>
+      <c r="H415" s="1" t="n">
+        <v>44397.5969212963</v>
       </c>
       <c r="I415" t="n">
         <v>24</v>
@@ -30447,10 +29635,8 @@
           <t>4950573986</t>
         </is>
       </c>
-      <c r="H416" t="inlineStr">
-        <is>
-          <t>2021-07-20 14:19:07</t>
-        </is>
+      <c r="H416" s="1" t="n">
+        <v>44397.5966087963</v>
       </c>
       <c r="I416" t="n">
         <v>2</v>
@@ -30526,10 +29712,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H417" t="inlineStr">
-        <is>
-          <t>2021-07-20 14:18:19</t>
-        </is>
+      <c r="H417" s="1" t="n">
+        <v>44397.59605324074</v>
       </c>
       <c r="I417" t="n">
         <v>0</v>
@@ -30601,10 +29785,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H418" t="inlineStr">
-        <is>
-          <t>2021-07-20 14:17:47</t>
-        </is>
+      <c r="H418" s="1" t="n">
+        <v>44397.59568287037</v>
       </c>
       <c r="I418" t="n">
         <v>13</v>
@@ -30676,10 +29858,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H419" t="inlineStr">
-        <is>
-          <t>2021-07-20 14:16:37</t>
-        </is>
+      <c r="H419" s="1" t="n">
+        <v>44397.59487268519</v>
       </c>
       <c r="I419" t="n">
         <v>20</v>
@@ -30751,10 +29931,8 @@
           <t>4950871195</t>
         </is>
       </c>
-      <c r="H420" t="inlineStr">
-        <is>
-          <t>2021-07-20 14:16:30</t>
-        </is>
+      <c r="H420" s="1" t="n">
+        <v>44397.59479166667</v>
       </c>
       <c r="I420" t="n">
         <v>1</v>
@@ -30818,10 +29996,8 @@
           <t>4950880542</t>
         </is>
       </c>
-      <c r="H421" t="inlineStr">
-        <is>
-          <t>2021-07-20 14:16:17</t>
-        </is>
+      <c r="H421" s="1" t="n">
+        <v>44397.5946412037</v>
       </c>
       <c r="I421" t="n">
         <v>2</v>
@@ -30897,10 +30073,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H422" t="inlineStr">
-        <is>
-          <t>2021-07-20 14:16:03</t>
-        </is>
+      <c r="H422" s="1" t="n">
+        <v>44397.59447916667</v>
       </c>
       <c r="I422" t="n">
         <v>3</v>
@@ -30976,10 +30150,8 @@
           <t>4950869817</t>
         </is>
       </c>
-      <c r="H423" t="inlineStr">
-        <is>
-          <t>2021-07-20 14:15:53</t>
-        </is>
+      <c r="H423" s="1" t="n">
+        <v>44397.59436342592</v>
       </c>
       <c r="I423" t="n">
         <v>0</v>
@@ -31051,10 +30223,8 @@
           <t>4950319356</t>
         </is>
       </c>
-      <c r="H424" t="inlineStr">
-        <is>
-          <t>2021-07-20 14:15:19</t>
-        </is>
+      <c r="H424" s="1" t="n">
+        <v>44397.59396990741</v>
       </c>
       <c r="I424" t="n">
         <v>1</v>
@@ -31126,10 +30296,8 @@
           <t>4950857373</t>
         </is>
       </c>
-      <c r="H425" t="inlineStr">
-        <is>
-          <t>2021-07-20 14:14:27</t>
-        </is>
+      <c r="H425" s="1" t="n">
+        <v>44397.59336805555</v>
       </c>
       <c r="I425" t="n">
         <v>0</v>
@@ -31205,10 +30373,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H426" t="inlineStr">
-        <is>
-          <t>2021-07-20 14:14:06</t>
-        </is>
+      <c r="H426" s="1" t="n">
+        <v>44397.593125</v>
       </c>
       <c r="I426" t="n">
         <v>0</v>
@@ -31281,10 +30447,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H427" t="inlineStr">
-        <is>
-          <t>2021-07-20 14:12:38</t>
-        </is>
+      <c r="H427" s="1" t="n">
+        <v>44397.59210648148</v>
       </c>
       <c r="I427" t="n">
         <v>0</v>
@@ -31353,10 +30517,8 @@
           <t>4950848450</t>
         </is>
       </c>
-      <c r="H428" t="inlineStr">
-        <is>
-          <t>2021-07-20 14:12:32</t>
-        </is>
+      <c r="H428" s="1" t="n">
+        <v>44397.59203703704</v>
       </c>
       <c r="I428" t="n">
         <v>4</v>
@@ -31424,10 +30586,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H429" t="inlineStr">
-        <is>
-          <t>2021-07-20 14:11:30</t>
-        </is>
+      <c r="H429" s="1" t="n">
+        <v>44397.59131944444</v>
       </c>
       <c r="I429" t="n">
         <v>1</v>
@@ -31499,10 +30659,8 @@
           <t>4950850563</t>
         </is>
       </c>
-      <c r="H430" t="inlineStr">
-        <is>
-          <t>2021-07-20 14:11:05</t>
-        </is>
+      <c r="H430" s="1" t="n">
+        <v>44397.59103009259</v>
       </c>
       <c r="I430" t="n">
         <v>0</v>
@@ -31578,10 +30736,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H431" t="inlineStr">
-        <is>
-          <t>2021-07-20 14:09:11</t>
-        </is>
+      <c r="H431" s="1" t="n">
+        <v>44397.58971064815</v>
       </c>
       <c r="I431" t="n">
         <v>12</v>
@@ -31649,10 +30805,8 @@
           <t>4950740677</t>
         </is>
       </c>
-      <c r="H432" t="inlineStr">
-        <is>
-          <t>2021-07-20 14:07:22</t>
-        </is>
+      <c r="H432" s="1" t="n">
+        <v>44397.58844907407</v>
       </c>
       <c r="I432" t="n">
         <v>0</v>
@@ -31716,10 +30870,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H433" t="inlineStr">
-        <is>
-          <t>2021-07-20 14:06:17</t>
-        </is>
+      <c r="H433" s="1" t="n">
+        <v>44397.58769675926</v>
       </c>
       <c r="I433" t="n">
         <v>0</v>
@@ -31796,10 +30948,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H434" t="inlineStr">
-        <is>
-          <t>2021-07-20 14:05:28</t>
-        </is>
+      <c r="H434" s="1" t="n">
+        <v>44397.58712962963</v>
       </c>
       <c r="I434" t="n">
         <v>16</v>
@@ -31863,10 +31013,8 @@
           <t>4950573986</t>
         </is>
       </c>
-      <c r="H435" t="inlineStr">
-        <is>
-          <t>2021-07-20 14:05:22</t>
-        </is>
+      <c r="H435" s="1" t="n">
+        <v>44397.58706018519</v>
       </c>
       <c r="I435" t="n">
         <v>0</v>
@@ -31930,10 +31078,8 @@
           <t>4950654083</t>
         </is>
       </c>
-      <c r="H436" t="inlineStr">
-        <is>
-          <t>2021-07-20 14:05:19</t>
-        </is>
+      <c r="H436" s="1" t="n">
+        <v>44397.58702546296</v>
       </c>
       <c r="I436" t="n">
         <v>0</v>
@@ -32005,10 +31151,8 @@
           <t>4950123549</t>
         </is>
       </c>
-      <c r="H437" t="inlineStr">
-        <is>
-          <t>2021-07-20 14:01:52</t>
-        </is>
+      <c r="H437" s="1" t="n">
+        <v>44397.58462962963</v>
       </c>
       <c r="I437" t="n">
         <v>0</v>
@@ -32072,10 +31216,8 @@
           <t>4950778386</t>
         </is>
       </c>
-      <c r="H438" t="inlineStr">
-        <is>
-          <t>2021-07-20 14:00:01</t>
-        </is>
+      <c r="H438" s="1" t="n">
+        <v>44397.58334490741</v>
       </c>
       <c r="I438" t="n">
         <v>1</v>
@@ -32152,10 +31294,8 @@
           <t>4950732096</t>
         </is>
       </c>
-      <c r="H439" t="inlineStr">
-        <is>
-          <t>2021-07-20 13:59:51</t>
-        </is>
+      <c r="H439" s="1" t="n">
+        <v>44397.58322916667</v>
       </c>
       <c r="I439" t="n">
         <v>0</v>
@@ -32223,10 +31363,8 @@
           <t>4950668489</t>
         </is>
       </c>
-      <c r="H440" t="inlineStr">
-        <is>
-          <t>2021-07-20 13:59:30</t>
-        </is>
+      <c r="H440" s="1" t="n">
+        <v>44397.58298611111</v>
       </c>
       <c r="I440" t="n">
         <v>0</v>
@@ -32298,10 +31436,8 @@
           <t>4950654083</t>
         </is>
       </c>
-      <c r="H441" t="inlineStr">
-        <is>
-          <t>2021-07-20 13:59:30</t>
-        </is>
+      <c r="H441" s="1" t="n">
+        <v>44397.58298611111</v>
       </c>
       <c r="I441" t="n">
         <v>0</v>
@@ -32369,10 +31505,8 @@
           <t>4950668489</t>
         </is>
       </c>
-      <c r="H442" t="inlineStr">
-        <is>
-          <t>2021-07-20 13:58:26</t>
-        </is>
+      <c r="H442" s="1" t="n">
+        <v>44397.58224537037</v>
       </c>
       <c r="I442" t="n">
         <v>0</v>
@@ -32444,10 +31578,8 @@
           <t>4950749824</t>
         </is>
       </c>
-      <c r="H443" t="inlineStr">
-        <is>
-          <t>2021-07-20 13:55:46</t>
-        </is>
+      <c r="H443" s="1" t="n">
+        <v>44397.58039351852</v>
       </c>
       <c r="I443" t="n">
         <v>4</v>
@@ -32519,10 +31651,8 @@
           <t>4950674848</t>
         </is>
       </c>
-      <c r="H444" t="inlineStr">
-        <is>
-          <t>2021-07-20 13:55:09</t>
-        </is>
+      <c r="H444" s="1" t="n">
+        <v>44397.57996527778</v>
       </c>
       <c r="I444" t="n">
         <v>2</v>
@@ -32586,10 +31716,8 @@
           <t>4950740677</t>
         </is>
       </c>
-      <c r="H445" t="inlineStr">
-        <is>
-          <t>2021-07-20 13:53:18</t>
-        </is>
+      <c r="H445" s="1" t="n">
+        <v>44397.57868055555</v>
       </c>
       <c r="I445" t="n">
         <v>0</v>
@@ -32665,10 +31793,8 @@
           <t>4950668489</t>
         </is>
       </c>
-      <c r="H446" t="inlineStr">
-        <is>
-          <t>2021-07-20 13:52:54</t>
-        </is>
+      <c r="H446" s="1" t="n">
+        <v>44397.57840277778</v>
       </c>
       <c r="I446" t="n">
         <v>1</v>
@@ -32737,10 +31863,8 @@
           <t>4950732096</t>
         </is>
       </c>
-      <c r="H447" t="inlineStr">
-        <is>
-          <t>2021-07-20 13:51:58</t>
-        </is>
+      <c r="H447" s="1" t="n">
+        <v>44397.57775462963</v>
       </c>
       <c r="I447" t="n">
         <v>15</v>
@@ -32808,10 +31932,8 @@
           <t>4950731905</t>
         </is>
       </c>
-      <c r="H448" t="inlineStr">
-        <is>
-          <t>2021-07-20 13:51:52</t>
-        </is>
+      <c r="H448" s="1" t="n">
+        <v>44397.57768518518</v>
       </c>
       <c r="I448" t="n">
         <v>0</v>
@@ -32889,10 +32011,8 @@
           <t>4950654083</t>
         </is>
       </c>
-      <c r="H449" t="inlineStr">
-        <is>
-          <t>2021-07-20 13:51:41</t>
-        </is>
+      <c r="H449" s="1" t="n">
+        <v>44397.57755787037</v>
       </c>
       <c r="I449" t="n">
         <v>1</v>
@@ -32964,10 +32084,8 @@
           <t>4950668489</t>
         </is>
       </c>
-      <c r="H450" t="inlineStr">
-        <is>
-          <t>2021-07-20 13:49:36</t>
-        </is>
+      <c r="H450" s="1" t="n">
+        <v>44397.57611111111</v>
       </c>
       <c r="I450" t="n">
         <v>0</v>
@@ -33036,10 +32154,8 @@
           <t>4950711309</t>
         </is>
       </c>
-      <c r="H451" t="inlineStr">
-        <is>
-          <t>2021-07-20 13:48:40</t>
-        </is>
+      <c r="H451" s="1" t="n">
+        <v>44397.57546296297</v>
       </c>
       <c r="I451" t="n">
         <v>8</v>
@@ -33112,10 +32228,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H452" t="inlineStr">
-        <is>
-          <t>2021-07-20 13:48:14</t>
-        </is>
+      <c r="H452" s="1" t="n">
+        <v>44397.57516203704</v>
       </c>
       <c r="I452" t="n">
         <v>0</v>
@@ -33191,10 +32305,8 @@
           <t>4950710460</t>
         </is>
       </c>
-      <c r="H453" t="inlineStr">
-        <is>
-          <t>2021-07-20 13:48:14</t>
-        </is>
+      <c r="H453" s="1" t="n">
+        <v>44397.57516203704</v>
       </c>
       <c r="I453" t="n">
         <v>6</v>
@@ -33258,10 +32370,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H454" t="inlineStr">
-        <is>
-          <t>2021-07-20 13:47:16</t>
-        </is>
+      <c r="H454" s="1" t="n">
+        <v>44397.57449074074</v>
       </c>
       <c r="I454" t="n">
         <v>15</v>
@@ -33337,10 +32447,8 @@
           <t>4950668489</t>
         </is>
       </c>
-      <c r="H455" t="inlineStr">
-        <is>
-          <t>2021-07-20 13:46:15</t>
-        </is>
+      <c r="H455" s="1" t="n">
+        <v>44397.57378472222</v>
       </c>
       <c r="I455" t="n">
         <v>0</v>
@@ -33410,10 +32518,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H456" t="inlineStr">
-        <is>
-          <t>2021-07-20 13:46:08</t>
-        </is>
+      <c r="H456" s="1" t="n">
+        <v>44397.5737037037</v>
       </c>
       <c r="I456" t="n">
         <v>18</v>
@@ -33477,10 +32583,8 @@
           <t>4950696108</t>
         </is>
       </c>
-      <c r="H457" t="inlineStr">
-        <is>
-          <t>2021-07-20 13:46:04</t>
-        </is>
+      <c r="H457" s="1" t="n">
+        <v>44397.57365740741</v>
       </c>
       <c r="I457" t="n">
         <v>0</v>
@@ -33548,10 +32652,8 @@
           <t>4950696010</t>
         </is>
       </c>
-      <c r="H458" t="inlineStr">
-        <is>
-          <t>2021-07-20 13:46:01</t>
-        </is>
+      <c r="H458" s="1" t="n">
+        <v>44397.57362268519</v>
       </c>
       <c r="I458" t="n">
         <v>4</v>
@@ -33627,10 +32729,8 @@
           <t>4950292468</t>
         </is>
       </c>
-      <c r="H459" t="inlineStr">
-        <is>
-          <t>2021-07-20 13:45:32</t>
-        </is>
+      <c r="H459" s="1" t="n">
+        <v>44397.57328703703</v>
       </c>
       <c r="I459" t="n">
         <v>1</v>
@@ -33698,10 +32798,8 @@
           <t>4950668489</t>
         </is>
       </c>
-      <c r="H460" t="inlineStr">
-        <is>
-          <t>2021-07-20 13:45:24</t>
-        </is>
+      <c r="H460" s="1" t="n">
+        <v>44397.57319444444</v>
       </c>
       <c r="I460" t="n">
         <v>1</v>
@@ -33773,10 +32871,8 @@
           <t>4950692507</t>
         </is>
       </c>
-      <c r="H461" t="inlineStr">
-        <is>
-          <t>2021-07-20 13:45:08</t>
-        </is>
+      <c r="H461" s="1" t="n">
+        <v>44397.57300925926</v>
       </c>
       <c r="I461" t="n">
         <v>0</v>
@@ -33852,10 +32948,8 @@
           <t>4950687013</t>
         </is>
       </c>
-      <c r="H462" t="inlineStr">
-        <is>
-          <t>2021-07-20 13:44:43</t>
-        </is>
+      <c r="H462" s="1" t="n">
+        <v>44397.57271990741</v>
       </c>
       <c r="I462" t="n">
         <v>3</v>
@@ -33923,10 +33017,8 @@
           <t>4950682715</t>
         </is>
       </c>
-      <c r="H463" t="inlineStr">
-        <is>
-          <t>2021-07-20 13:44:25</t>
-        </is>
+      <c r="H463" s="1" t="n">
+        <v>44397.57251157407</v>
       </c>
       <c r="I463" t="n">
         <v>3</v>
@@ -33994,10 +33086,8 @@
           <t>4950674848</t>
         </is>
       </c>
-      <c r="H464" t="inlineStr">
-        <is>
-          <t>2021-07-20 13:43:47</t>
-        </is>
+      <c r="H464" s="1" t="n">
+        <v>44397.57207175926</v>
       </c>
       <c r="I464" t="n">
         <v>0</v>
@@ -34069,10 +33159,8 @@
           <t>4950679722</t>
         </is>
       </c>
-      <c r="H465" t="inlineStr">
-        <is>
-          <t>2021-07-20 13:43:38</t>
-        </is>
+      <c r="H465" s="1" t="n">
+        <v>44397.57196759259</v>
       </c>
       <c r="I465" t="n">
         <v>1</v>
@@ -34140,10 +33228,8 @@
           <t>4950674553</t>
         </is>
       </c>
-      <c r="H466" t="inlineStr">
-        <is>
-          <t>2021-07-20 13:43:37</t>
-        </is>
+      <c r="H466" s="1" t="n">
+        <v>44397.57195601852</v>
       </c>
       <c r="I466" t="n">
         <v>39</v>
@@ -34215,10 +33301,8 @@
           <t>4950668489</t>
         </is>
       </c>
-      <c r="H467" t="inlineStr">
-        <is>
-          <t>2021-07-20 13:42:19</t>
-        </is>
+      <c r="H467" s="1" t="n">
+        <v>44397.57105324074</v>
       </c>
       <c r="I467" t="n">
         <v>4</v>
@@ -34287,10 +33371,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H468" t="inlineStr">
-        <is>
-          <t>2021-07-20 13:41:39</t>
-        </is>
+      <c r="H468" s="1" t="n">
+        <v>44397.57059027778</v>
       </c>
       <c r="I468" t="n">
         <v>4</v>
@@ -34362,10 +33444,8 @@
           <t>4950654083</t>
         </is>
       </c>
-      <c r="H469" t="inlineStr">
-        <is>
-          <t>2021-07-20 13:41:25</t>
-        </is>
+      <c r="H469" s="1" t="n">
+        <v>44397.57042824074</v>
       </c>
       <c r="I469" t="n">
         <v>1</v>
@@ -34433,10 +33513,8 @@
           <t>4950670003</t>
         </is>
       </c>
-      <c r="H470" t="inlineStr">
-        <is>
-          <t>2021-07-20 13:41:15</t>
-        </is>
+      <c r="H470" s="1" t="n">
+        <v>44397.5703125</v>
       </c>
       <c r="I470" t="n">
         <v>0</v>
@@ -34512,10 +33590,8 @@
           <t>4950659876</t>
         </is>
       </c>
-      <c r="H471" t="inlineStr">
-        <is>
-          <t>2021-07-20 13:41:11</t>
-        </is>
+      <c r="H471" s="1" t="n">
+        <v>44397.5702662037</v>
       </c>
       <c r="I471" t="n">
         <v>0</v>
@@ -34583,10 +33659,8 @@
           <t>4950654083</t>
         </is>
       </c>
-      <c r="H472" t="inlineStr">
-        <is>
-          <t>2021-07-20 13:40:10</t>
-        </is>
+      <c r="H472" s="1" t="n">
+        <v>44397.56956018518</v>
       </c>
       <c r="I472" t="n">
         <v>1</v>
@@ -34658,10 +33732,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H473" t="inlineStr">
-        <is>
-          <t>2021-07-20 13:38:26</t>
-        </is>
+      <c r="H473" s="1" t="n">
+        <v>44397.56835648148</v>
       </c>
       <c r="I473" t="n">
         <v>0</v>
@@ -34737,10 +33809,8 @@
           <t>4950187085</t>
         </is>
       </c>
-      <c r="H474" t="inlineStr">
-        <is>
-          <t>2021-07-20 13:38:11</t>
-        </is>
+      <c r="H474" s="1" t="n">
+        <v>44397.56818287037</v>
       </c>
       <c r="I474" t="n">
         <v>0</v>
@@ -34808,10 +33878,8 @@
           <t>4950642788</t>
         </is>
       </c>
-      <c r="H475" t="inlineStr">
-        <is>
-          <t>2021-07-20 13:37:39</t>
-        </is>
+      <c r="H475" s="1" t="n">
+        <v>44397.5678125</v>
       </c>
       <c r="I475" t="n">
         <v>5</v>
@@ -34879,10 +33947,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H476" t="inlineStr">
-        <is>
-          <t>2021-07-20 13:37:04</t>
-        </is>
+      <c r="H476" s="1" t="n">
+        <v>44397.5674074074</v>
       </c>
       <c r="I476" t="n">
         <v>5</v>
@@ -34950,10 +34016,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H477" t="inlineStr">
-        <is>
-          <t>2021-07-20 13:36:26</t>
-        </is>
+      <c r="H477" s="1" t="n">
+        <v>44397.56696759259</v>
       </c>
       <c r="I477" t="n">
         <v>1</v>
@@ -35021,10 +34085,8 @@
           <t>4950633769</t>
         </is>
       </c>
-      <c r="H478" t="inlineStr">
-        <is>
-          <t>2021-07-20 13:36:04</t>
-        </is>
+      <c r="H478" s="1" t="n">
+        <v>44397.56671296297</v>
       </c>
       <c r="I478" t="n">
         <v>2</v>
@@ -35088,10 +34150,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H479" t="inlineStr">
-        <is>
-          <t>2021-07-20 13:36:02</t>
-        </is>
+      <c r="H479" s="1" t="n">
+        <v>44397.56668981481</v>
       </c>
       <c r="I479" t="n">
         <v>13</v>
@@ -35159,10 +34219,8 @@
           <t>4950358734</t>
         </is>
       </c>
-      <c r="H480" t="inlineStr">
-        <is>
-          <t>2021-07-20 13:35:55</t>
-        </is>
+      <c r="H480" s="1" t="n">
+        <v>44397.5666087963</v>
       </c>
       <c r="I480" t="n">
         <v>0</v>
@@ -35234,10 +34292,8 @@
           <t>4950633088</t>
         </is>
       </c>
-      <c r="H481" t="inlineStr">
-        <is>
-          <t>2021-07-20 13:35:45</t>
-        </is>
+      <c r="H481" s="1" t="n">
+        <v>44397.56649305556</v>
       </c>
       <c r="I481" t="n">
         <v>4</v>
@@ -35305,10 +34361,8 @@
           <t>4950627041</t>
         </is>
       </c>
-      <c r="H482" t="inlineStr">
-        <is>
-          <t>2021-07-20 13:34:50</t>
-        </is>
+      <c r="H482" s="1" t="n">
+        <v>44397.56585648148</v>
       </c>
       <c r="I482" t="n">
         <v>1</v>
@@ -35380,10 +34434,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H483" t="inlineStr">
-        <is>
-          <t>2021-07-20 13:34:49</t>
-        </is>
+      <c r="H483" s="1" t="n">
+        <v>44397.56584490741</v>
       </c>
       <c r="I483" t="n">
         <v>4</v>
@@ -35447,10 +34499,8 @@
           <t>4950616796</t>
         </is>
       </c>
-      <c r="H484" t="inlineStr">
-        <is>
-          <t>2021-07-20 13:32:52</t>
-        </is>
+      <c r="H484" s="1" t="n">
+        <v>44397.56449074074</v>
       </c>
       <c r="I484" t="n">
         <v>50</v>
@@ -35514,10 +34564,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H485" t="inlineStr">
-        <is>
-          <t>2021-07-20 13:32:47</t>
-        </is>
+      <c r="H485" s="1" t="n">
+        <v>44397.56443287037</v>
       </c>
       <c r="I485" t="n">
         <v>2</v>
@@ -35585,10 +34633,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H486" t="inlineStr">
-        <is>
-          <t>2021-07-20 13:30:30</t>
-        </is>
+      <c r="H486" s="1" t="n">
+        <v>44397.56284722222</v>
       </c>
       <c r="I486" t="n">
         <v>10</v>
@@ -35660,10 +34706,8 @@
           <t>4950358734</t>
         </is>
       </c>
-      <c r="H487" t="inlineStr">
-        <is>
-          <t>2021-07-20 13:30:21</t>
-        </is>
+      <c r="H487" s="1" t="n">
+        <v>44397.56274305555</v>
       </c>
       <c r="I487" t="n">
         <v>1</v>
@@ -35731,10 +34775,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H488" t="inlineStr">
-        <is>
-          <t>2021-07-20 13:30:18</t>
-        </is>
+      <c r="H488" s="1" t="n">
+        <v>44397.56270833333</v>
       </c>
       <c r="I488" t="n">
         <v>0</v>
@@ -35807,10 +34849,8 @@
           <t>4950596153</t>
         </is>
       </c>
-      <c r="H489" t="inlineStr">
-        <is>
-          <t>2021-07-20 13:29:29</t>
-        </is>
+      <c r="H489" s="1" t="n">
+        <v>44397.56214120371</v>
       </c>
       <c r="I489" t="n">
         <v>3</v>
@@ -35874,10 +34914,8 @@
           <t>4950358734</t>
         </is>
       </c>
-      <c r="H490" t="inlineStr">
-        <is>
-          <t>2021-07-20 13:29:26</t>
-        </is>
+      <c r="H490" s="1" t="n">
+        <v>44397.56210648148</v>
       </c>
       <c r="I490" t="n">
         <v>0</v>
@@ -35954,10 +34992,8 @@
           <t>4950584862</t>
         </is>
       </c>
-      <c r="H491" t="inlineStr">
-        <is>
-          <t>2021-07-20 13:28:52</t>
-        </is>
+      <c r="H491" s="1" t="n">
+        <v>44397.56171296296</v>
       </c>
       <c r="I491" t="n">
         <v>0</v>
@@ -36028,10 +35064,8 @@
           <t>4950573986</t>
         </is>
       </c>
-      <c r="H492" t="inlineStr">
-        <is>
-          <t>2021-07-20 13:27:04</t>
-        </is>
+      <c r="H492" s="1" t="n">
+        <v>44397.56046296296</v>
       </c>
       <c r="I492" t="n">
         <v>17</v>
@@ -36095,10 +35129,8 @@
           <t>4950187085</t>
         </is>
       </c>
-      <c r="H493" t="inlineStr">
-        <is>
-          <t>2021-07-20 13:26:55</t>
-        </is>
+      <c r="H493" s="1" t="n">
+        <v>44397.5603587963</v>
       </c>
       <c r="I493" t="n">
         <v>0</v>
@@ -36162,10 +35194,8 @@
           <t>4950580035</t>
         </is>
       </c>
-      <c r="H494" t="inlineStr">
-        <is>
-          <t>2021-07-20 13:26:32</t>
-        </is>
+      <c r="H494" s="1" t="n">
+        <v>44397.56009259259</v>
       </c>
       <c r="I494" t="n">
         <v>0</v>
@@ -36233,10 +35263,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H495" t="inlineStr">
-        <is>
-          <t>2021-07-20 13:26:28</t>
-        </is>
+      <c r="H495" s="1" t="n">
+        <v>44397.5600462963</v>
       </c>
       <c r="I495" t="n">
         <v>1</v>
@@ -36304,10 +35332,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H496" t="inlineStr">
-        <is>
-          <t>2021-07-20 13:26:27</t>
-        </is>
+      <c r="H496" s="1" t="n">
+        <v>44397.56003472222</v>
       </c>
       <c r="I496" t="n">
         <v>1</v>
@@ -36378,10 +35404,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H497" t="inlineStr">
-        <is>
-          <t>2021-07-20 13:24:50</t>
-        </is>
+      <c r="H497" s="1" t="n">
+        <v>44397.55891203704</v>
       </c>
       <c r="I497" t="n">
         <v>88</v>
@@ -36457,10 +35481,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H498" t="inlineStr">
-        <is>
-          <t>2021-07-20 13:23:38</t>
-        </is>
+      <c r="H498" s="1" t="n">
+        <v>44397.5580787037</v>
       </c>
       <c r="I498" t="n">
         <v>76</v>
@@ -36545,10 +35567,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H499" t="inlineStr">
-        <is>
-          <t>2021-07-20 13:21:46</t>
-        </is>
+      <c r="H499" s="1" t="n">
+        <v>44397.55678240741</v>
       </c>
       <c r="I499" t="n">
         <v>1</v>
@@ -36632,10 +35652,8 @@
           <t>4950541144</t>
         </is>
       </c>
-      <c r="H500" t="inlineStr">
-        <is>
-          <t>2021-07-20 13:21:23</t>
-        </is>
+      <c r="H500" s="1" t="n">
+        <v>44397.5565162037</v>
       </c>
       <c r="I500" t="n">
         <v>4</v>
@@ -36712,10 +35730,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H501" t="inlineStr">
-        <is>
-          <t>2021-07-20 13:20:31</t>
-        </is>
+      <c r="H501" s="1" t="n">
+        <v>44397.55591435185</v>
       </c>
       <c r="I501" t="n">
         <v>0</v>
@@ -36787,10 +35803,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H502" t="inlineStr">
-        <is>
-          <t>2021-07-20 13:19:58</t>
-        </is>
+      <c r="H502" s="1" t="n">
+        <v>44397.55553240741</v>
       </c>
       <c r="I502" t="n">
         <v>206</v>
@@ -36858,10 +35872,8 @@
           <t>4950531100</t>
         </is>
       </c>
-      <c r="H503" t="inlineStr">
-        <is>
-          <t>2021-07-20 13:19:57</t>
-        </is>
+      <c r="H503" s="1" t="n">
+        <v>44397.55552083333</v>
       </c>
       <c r="I503" t="n">
         <v>18</v>
@@ -36929,10 +35941,8 @@
           <t>4950358734</t>
         </is>
       </c>
-      <c r="H504" t="inlineStr">
-        <is>
-          <t>2021-07-20 13:18:22</t>
-        </is>
+      <c r="H504" s="1" t="n">
+        <v>44397.5544212963</v>
       </c>
       <c r="I504" t="n">
         <v>0</v>
@@ -36997,10 +36007,8 @@
           <t>4950516974</t>
         </is>
       </c>
-      <c r="H505" t="inlineStr">
-        <is>
-          <t>2021-07-20 13:18:01</t>
-        </is>
+      <c r="H505" s="1" t="n">
+        <v>44397.55417824074</v>
       </c>
       <c r="I505" t="n">
         <v>0</v>
@@ -37064,10 +36072,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H506" t="inlineStr">
-        <is>
-          <t>2021-07-20 13:17:39</t>
-        </is>
+      <c r="H506" s="1" t="n">
+        <v>44397.55392361111</v>
       </c>
       <c r="I506" t="n">
         <v>0</v>
@@ -37135,10 +36141,8 @@
           <t>4950504779</t>
         </is>
       </c>
-      <c r="H507" t="inlineStr">
-        <is>
-          <t>2021-07-20 13:17:00</t>
-        </is>
+      <c r="H507" s="1" t="n">
+        <v>44397.55347222222</v>
       </c>
       <c r="I507" t="n">
         <v>1</v>
@@ -37214,10 +36218,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H508" t="inlineStr">
-        <is>
-          <t>2021-07-20 13:14:20</t>
-        </is>
+      <c r="H508" s="1" t="n">
+        <v>44397.55162037037</v>
       </c>
       <c r="I508" t="n">
         <v>0</v>
@@ -37293,10 +36295,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H509" t="inlineStr">
-        <is>
-          <t>2021-07-20 13:13:51</t>
-        </is>
+      <c r="H509" s="1" t="n">
+        <v>44397.55128472222</v>
       </c>
       <c r="I509" t="n">
         <v>3</v>
@@ -37368,10 +36368,8 @@
           <t>4950358734</t>
         </is>
       </c>
-      <c r="H510" t="inlineStr">
-        <is>
-          <t>2021-07-20 13:11:06</t>
-        </is>
+      <c r="H510" s="1" t="n">
+        <v>44397.549375</v>
       </c>
       <c r="I510" t="n">
         <v>0</v>
@@ -37447,10 +36445,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H511" t="inlineStr">
-        <is>
-          <t>2021-07-20 13:10:50</t>
-        </is>
+      <c r="H511" s="1" t="n">
+        <v>44397.54918981482</v>
       </c>
       <c r="I511" t="n">
         <v>9</v>
@@ -37527,10 +36523,8 @@
           <t>4950475068</t>
         </is>
       </c>
-      <c r="H512" t="inlineStr">
-        <is>
-          <t>2021-07-20 13:10:49</t>
-        </is>
+      <c r="H512" s="1" t="n">
+        <v>44397.54917824074</v>
       </c>
       <c r="I512" t="n">
         <v>0</v>
@@ -37594,10 +36588,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H513" t="inlineStr">
-        <is>
-          <t>2021-07-20 13:09:18</t>
-        </is>
+      <c r="H513" s="1" t="n">
+        <v>44397.548125</v>
       </c>
       <c r="I513" t="n">
         <v>332</v>
@@ -37665,10 +36657,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H514" t="inlineStr">
-        <is>
-          <t>2021-07-20 13:07:38</t>
-        </is>
+      <c r="H514" s="1" t="n">
+        <v>44397.54696759259</v>
       </c>
       <c r="I514" t="n">
         <v>0</v>
@@ -37740,10 +36730,8 @@
           <t>4950198194</t>
         </is>
       </c>
-      <c r="H515" t="inlineStr">
-        <is>
-          <t>2021-07-20 13:07:34</t>
-        </is>
+      <c r="H515" s="1" t="n">
+        <v>44397.5469212963</v>
       </c>
       <c r="I515" t="n">
         <v>1</v>
@@ -37819,10 +36807,8 @@
           <t>4950358734</t>
         </is>
       </c>
-      <c r="H516" t="inlineStr">
-        <is>
-          <t>2021-07-20 13:07:15</t>
-        </is>
+      <c r="H516" s="1" t="n">
+        <v>44397.54670138889</v>
       </c>
       <c r="I516" t="n">
         <v>4</v>
@@ -37886,10 +36872,8 @@
           <t>4950319356</t>
         </is>
       </c>
-      <c r="H517" t="inlineStr">
-        <is>
-          <t>2021-07-20 13:07:02</t>
-        </is>
+      <c r="H517" s="1" t="n">
+        <v>44397.54655092592</v>
       </c>
       <c r="I517" t="n">
         <v>3</v>
@@ -37965,10 +36949,8 @@
           <t>4950358734</t>
         </is>
       </c>
-      <c r="H518" t="inlineStr">
-        <is>
-          <t>2021-07-20 13:06:12</t>
-        </is>
+      <c r="H518" s="1" t="n">
+        <v>44397.54597222222</v>
       </c>
       <c r="I518" t="n">
         <v>0</v>
@@ -38044,10 +37026,8 @@
           <t>4950161647</t>
         </is>
       </c>
-      <c r="H519" t="inlineStr">
-        <is>
-          <t>2021-07-20 13:06:01</t>
-        </is>
+      <c r="H519" s="1" t="n">
+        <v>44397.54584490741</v>
       </c>
       <c r="I519" t="n">
         <v>1</v>
@@ -38123,10 +37103,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H520" t="inlineStr">
-        <is>
-          <t>2021-07-20 13:05:47</t>
-        </is>
+      <c r="H520" s="1" t="n">
+        <v>44397.54568287037</v>
       </c>
       <c r="I520" t="n">
         <v>0</v>
@@ -38190,10 +37168,8 @@
           <t>4950424573</t>
         </is>
       </c>
-      <c r="H521" t="inlineStr">
-        <is>
-          <t>2021-07-20 13:05:36</t>
-        </is>
+      <c r="H521" s="1" t="n">
+        <v>44397.54555555555</v>
       </c>
       <c r="I521" t="n">
         <v>1</v>
@@ -38265,10 +37241,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H522" t="inlineStr">
-        <is>
-          <t>2021-07-20 13:04:52</t>
-        </is>
+      <c r="H522" s="1" t="n">
+        <v>44397.5450462963</v>
       </c>
       <c r="I522" t="n">
         <v>1</v>
@@ -38336,10 +37310,8 @@
           <t>4950419715</t>
         </is>
       </c>
-      <c r="H523" t="inlineStr">
-        <is>
-          <t>2021-07-20 13:04:20</t>
-        </is>
+      <c r="H523" s="1" t="n">
+        <v>44397.54467592593</v>
       </c>
       <c r="I523" t="n">
         <v>0</v>
@@ -38403,10 +37375,8 @@
           <t>4950421380</t>
         </is>
       </c>
-      <c r="H524" t="inlineStr">
-        <is>
-          <t>2021-07-20 13:04:11</t>
-        </is>
+      <c r="H524" s="1" t="n">
+        <v>44397.54457175926</v>
       </c>
       <c r="I524" t="n">
         <v>3</v>
@@ -38478,10 +37448,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H525" t="inlineStr">
-        <is>
-          <t>2021-07-20 13:03:32</t>
-        </is>
+      <c r="H525" s="1" t="n">
+        <v>44397.54412037037</v>
       </c>
       <c r="I525" t="n">
         <v>184</v>
@@ -38553,10 +37521,8 @@
           <t>4950358734</t>
         </is>
       </c>
-      <c r="H526" t="inlineStr">
-        <is>
-          <t>2021-07-20 13:03:14</t>
-        </is>
+      <c r="H526" s="1" t="n">
+        <v>44397.54391203704</v>
       </c>
       <c r="I526" t="n">
         <v>1</v>
@@ -38632,10 +37598,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H527" t="inlineStr">
-        <is>
-          <t>2021-07-20 13:02:57</t>
-        </is>
+      <c r="H527" s="1" t="n">
+        <v>44397.54371527778</v>
       </c>
       <c r="I527" t="n">
         <v>0</v>
@@ -38703,10 +37667,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H528" t="inlineStr">
-        <is>
-          <t>2021-07-20 13:02:56</t>
-        </is>
+      <c r="H528" s="1" t="n">
+        <v>44397.5437037037</v>
       </c>
       <c r="I528" t="n">
         <v>0</v>
@@ -38770,10 +37732,8 @@
           <t>4950272373</t>
         </is>
       </c>
-      <c r="H529" t="inlineStr">
-        <is>
-          <t>2021-07-20 13:02:38</t>
-        </is>
+      <c r="H529" s="1" t="n">
+        <v>44397.54349537037</v>
       </c>
       <c r="I529" t="n">
         <v>0</v>
@@ -38841,10 +37801,8 @@
           <t>4950358734</t>
         </is>
       </c>
-      <c r="H530" t="inlineStr">
-        <is>
-          <t>2021-07-20 13:00:51</t>
-        </is>
+      <c r="H530" s="1" t="n">
+        <v>44397.54225694444</v>
       </c>
       <c r="I530" t="n">
         <v>0</v>
@@ -38914,10 +37872,8 @@
           <t>4950358734</t>
         </is>
       </c>
-      <c r="H531" t="inlineStr">
-        <is>
-          <t>2021-07-20 13:00:05</t>
-        </is>
+      <c r="H531" s="1" t="n">
+        <v>44397.54172453703</v>
       </c>
       <c r="I531" t="n">
         <v>5</v>
@@ -38994,10 +37950,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H532" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:59:53</t>
-        </is>
+      <c r="H532" s="1" t="n">
+        <v>44397.54158564815</v>
       </c>
       <c r="I532" t="n">
         <v>7</v>
@@ -39073,10 +38027,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H533" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:59:08</t>
-        </is>
+      <c r="H533" s="1" t="n">
+        <v>44397.54106481482</v>
       </c>
       <c r="I533" t="n">
         <v>12</v>
@@ -39140,10 +38092,8 @@
           <t>4950377132</t>
         </is>
       </c>
-      <c r="H534" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:58:02</t>
-        </is>
+      <c r="H534" s="1" t="n">
+        <v>44397.54030092592</v>
       </c>
       <c r="I534" t="n">
         <v>0</v>
@@ -39215,10 +38165,8 @@
           <t>4950373486</t>
         </is>
       </c>
-      <c r="H535" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:57:44</t>
-        </is>
+      <c r="H535" s="1" t="n">
+        <v>44397.54009259259</v>
       </c>
       <c r="I535" t="n">
         <v>0</v>
@@ -39278,10 +38226,8 @@
           <t>4950372328</t>
         </is>
       </c>
-      <c r="H536" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:57:16</t>
-        </is>
+      <c r="H536" s="1" t="n">
+        <v>44397.53976851852</v>
       </c>
       <c r="I536" t="n">
         <v>1</v>
@@ -39348,10 +38294,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H537" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:56:31</t>
-        </is>
+      <c r="H537" s="1" t="n">
+        <v>44397.53924768518</v>
       </c>
       <c r="I537" t="n">
         <v>0</v>
@@ -39454,10 +38398,8 @@
           <t>4950358734</t>
         </is>
       </c>
-      <c r="H538" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:55:48</t>
-        </is>
+      <c r="H538" s="1" t="n">
+        <v>44397.53875</v>
       </c>
       <c r="I538" t="n">
         <v>53</v>
@@ -39525,10 +38467,8 @@
           <t>4950354321</t>
         </is>
       </c>
-      <c r="H539" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:55:48</t>
-        </is>
+      <c r="H539" s="1" t="n">
+        <v>44397.53875</v>
       </c>
       <c r="I539" t="n">
         <v>0</v>
@@ -39588,10 +38528,8 @@
           <t>4950272373</t>
         </is>
       </c>
-      <c r="H540" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:55:12</t>
-        </is>
+      <c r="H540" s="1" t="n">
+        <v>44397.53833333333</v>
       </c>
       <c r="I540" t="n">
         <v>1</v>
@@ -39659,10 +38597,8 @@
           <t>4950321392</t>
         </is>
       </c>
-      <c r="H541" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:54:50</t>
-        </is>
+      <c r="H541" s="1" t="n">
+        <v>44397.53807870371</v>
       </c>
       <c r="I541" t="n">
         <v>0</v>
@@ -39730,10 +38666,8 @@
           <t>4950351682</t>
         </is>
       </c>
-      <c r="H542" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:54:46</t>
-        </is>
+      <c r="H542" s="1" t="n">
+        <v>44397.53803240741</v>
       </c>
       <c r="I542" t="n">
         <v>0</v>
@@ -39793,10 +38727,8 @@
           <t>4950350616</t>
         </is>
       </c>
-      <c r="H543" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:54:20</t>
-        </is>
+      <c r="H543" s="1" t="n">
+        <v>44397.53773148148</v>
       </c>
       <c r="I543" t="n">
         <v>0</v>
@@ -39856,10 +38788,8 @@
           <t>4950348305</t>
         </is>
       </c>
-      <c r="H544" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:54:15</t>
-        </is>
+      <c r="H544" s="1" t="n">
+        <v>44397.53767361111</v>
       </c>
       <c r="I544" t="n">
         <v>0</v>
@@ -39923,10 +38853,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H545" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:53:49</t>
-        </is>
+      <c r="H545" s="1" t="n">
+        <v>44397.53737268518</v>
       </c>
       <c r="I545" t="n">
         <v>0</v>
@@ -39998,10 +38926,8 @@
           <t>4950270596</t>
         </is>
       </c>
-      <c r="H546" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:53:29</t>
-        </is>
+      <c r="H546" s="1" t="n">
+        <v>44397.53714120371</v>
       </c>
       <c r="I546" t="n">
         <v>0</v>
@@ -40077,10 +39003,8 @@
           <t>4950342407</t>
         </is>
       </c>
-      <c r="H547" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:53:12</t>
-        </is>
+      <c r="H547" s="1" t="n">
+        <v>44397.53694444444</v>
       </c>
       <c r="I547" t="n">
         <v>4</v>
@@ -40140,10 +39064,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H548" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:52:52</t>
-        </is>
+      <c r="H548" s="1" t="n">
+        <v>44397.53671296296</v>
       </c>
       <c r="I548" t="n">
         <v>0</v>
@@ -40211,10 +39133,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H549" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:52:07</t>
-        </is>
+      <c r="H549" s="1" t="n">
+        <v>44397.53619212963</v>
       </c>
       <c r="I549" t="n">
         <v>0</v>
@@ -40286,10 +39206,8 @@
           <t>4950180761</t>
         </is>
       </c>
-      <c r="H550" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:51:56</t>
-        </is>
+      <c r="H550" s="1" t="n">
+        <v>44397.53606481481</v>
       </c>
       <c r="I550" t="n">
         <v>0</v>
@@ -40353,10 +39271,8 @@
           <t>4950321392</t>
         </is>
       </c>
-      <c r="H551" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:51:55</t>
-        </is>
+      <c r="H551" s="1" t="n">
+        <v>44397.53605324074</v>
       </c>
       <c r="I551" t="n">
         <v>2</v>
@@ -40432,10 +39348,8 @@
           <t>4950321392</t>
         </is>
       </c>
-      <c r="H552" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:50:43</t>
-        </is>
+      <c r="H552" s="1" t="n">
+        <v>44397.5352199074</v>
       </c>
       <c r="I552" t="n">
         <v>3</v>
@@ -40503,10 +39417,8 @@
           <t>4950319356</t>
         </is>
       </c>
-      <c r="H553" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:50:28</t>
-        </is>
+      <c r="H553" s="1" t="n">
+        <v>44397.5350462963</v>
       </c>
       <c r="I553" t="n">
         <v>3</v>
@@ -40578,10 +39490,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H554" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:50:16</t>
-        </is>
+      <c r="H554" s="1" t="n">
+        <v>44397.5349074074</v>
       </c>
       <c r="I554" t="n">
         <v>3</v>
@@ -40641,10 +39551,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H555" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:49:36</t>
-        </is>
+      <c r="H555" s="1" t="n">
+        <v>44397.53444444444</v>
       </c>
       <c r="I555" t="n">
         <v>0</v>
@@ -40719,10 +39627,8 @@
           <t>4950305556</t>
         </is>
       </c>
-      <c r="H556" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:49:27</t>
-        </is>
+      <c r="H556" s="1" t="n">
+        <v>44397.53434027778</v>
       </c>
       <c r="I556" t="n">
         <v>1</v>
@@ -40788,10 +39694,8 @@
           <t>4950305556</t>
         </is>
       </c>
-      <c r="H557" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:48:27</t>
-        </is>
+      <c r="H557" s="1" t="n">
+        <v>44397.53364583333</v>
       </c>
       <c r="I557" t="n">
         <v>3</v>
@@ -40863,10 +39767,8 @@
           <t>4950187085</t>
         </is>
       </c>
-      <c r="H558" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:48:21</t>
-        </is>
+      <c r="H558" s="1" t="n">
+        <v>44397.53357638889</v>
       </c>
       <c r="I558" t="n">
         <v>0</v>
@@ -40930,10 +39832,8 @@
           <t>4950272373</t>
         </is>
       </c>
-      <c r="H559" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:48:01</t>
-        </is>
+      <c r="H559" s="1" t="n">
+        <v>44397.53334490741</v>
       </c>
       <c r="I559" t="n">
         <v>0</v>
@@ -41001,10 +39901,8 @@
           <t>4950187085</t>
         </is>
       </c>
-      <c r="H560" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:47:28</t>
-        </is>
+      <c r="H560" s="1" t="n">
+        <v>44397.53296296296</v>
       </c>
       <c r="I560" t="n">
         <v>0</v>
@@ -41068,10 +39966,8 @@
           <t>4950292468</t>
         </is>
       </c>
-      <c r="H561" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:47:13</t>
-        </is>
+      <c r="H561" s="1" t="n">
+        <v>44397.53278935186</v>
       </c>
       <c r="I561" t="n">
         <v>0</v>
@@ -41135,10 +40031,8 @@
           <t>4950296018</t>
         </is>
       </c>
-      <c r="H562" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:46:41</t>
-        </is>
+      <c r="H562" s="1" t="n">
+        <v>44397.53241898148</v>
       </c>
       <c r="I562" t="n">
         <v>0</v>
@@ -41202,10 +40096,8 @@
           <t>4950272373</t>
         </is>
       </c>
-      <c r="H563" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:46:27</t>
-        </is>
+      <c r="H563" s="1" t="n">
+        <v>44397.53225694445</v>
       </c>
       <c r="I563" t="n">
         <v>1</v>
@@ -41273,10 +40165,8 @@
           <t>4950295092</t>
         </is>
       </c>
-      <c r="H564" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:46:20</t>
-        </is>
+      <c r="H564" s="1" t="n">
+        <v>44397.53217592592</v>
       </c>
       <c r="I564" t="n">
         <v>2</v>
@@ -41340,10 +40230,8 @@
           <t>4950283698</t>
         </is>
       </c>
-      <c r="H565" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:45:48</t>
-        </is>
+      <c r="H565" s="1" t="n">
+        <v>44397.53180555555</v>
       </c>
       <c r="I565" t="n">
         <v>2</v>
@@ -41419,10 +40307,8 @@
           <t>4950272373</t>
         </is>
       </c>
-      <c r="H566" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:45:42</t>
-        </is>
+      <c r="H566" s="1" t="n">
+        <v>44397.53173611111</v>
       </c>
       <c r="I566" t="n">
         <v>1</v>
@@ -41490,10 +40376,8 @@
           <t>4950198194</t>
         </is>
       </c>
-      <c r="H567" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:45:37</t>
-        </is>
+      <c r="H567" s="1" t="n">
+        <v>44397.53167824074</v>
       </c>
       <c r="I567" t="n">
         <v>15</v>
@@ -41557,10 +40441,8 @@
           <t>4950282496</t>
         </is>
       </c>
-      <c r="H568" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:45:21</t>
-        </is>
+      <c r="H568" s="1" t="n">
+        <v>44397.53149305555</v>
       </c>
       <c r="I568" t="n">
         <v>0</v>
@@ -41624,10 +40506,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H569" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:45:19</t>
-        </is>
+      <c r="H569" s="1" t="n">
+        <v>44397.53146990741</v>
       </c>
       <c r="I569" t="n">
         <v>9</v>
@@ -41699,10 +40579,8 @@
           <t>4950277060</t>
         </is>
       </c>
-      <c r="H570" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:45:06</t>
-        </is>
+      <c r="H570" s="1" t="n">
+        <v>44397.53131944445</v>
       </c>
       <c r="I570" t="n">
         <v>0</v>
@@ -41766,10 +40644,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H571" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:43:55</t>
-        </is>
+      <c r="H571" s="1" t="n">
+        <v>44397.53049768518</v>
       </c>
       <c r="I571" t="n">
         <v>2</v>
@@ -41846,10 +40722,8 @@
           <t>4950272373</t>
         </is>
       </c>
-      <c r="H572" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:43:23</t>
-        </is>
+      <c r="H572" s="1" t="n">
+        <v>44397.53012731481</v>
       </c>
       <c r="I572" t="n">
         <v>1</v>
@@ -41917,10 +40791,8 @@
           <t>4950270596</t>
         </is>
       </c>
-      <c r="H573" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:42:44</t>
-        </is>
+      <c r="H573" s="1" t="n">
+        <v>44397.52967592593</v>
       </c>
       <c r="I573" t="n">
         <v>1</v>
@@ -41996,10 +40868,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H574" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:42:28</t>
-        </is>
+      <c r="H574" s="1" t="n">
+        <v>44397.52949074074</v>
       </c>
       <c r="I574" t="n">
         <v>21</v>
@@ -42080,10 +40950,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H575" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:42:08</t>
-        </is>
+      <c r="H575" s="1" t="n">
+        <v>44397.52925925926</v>
       </c>
       <c r="I575" t="n">
         <v>5</v>
@@ -42160,10 +41028,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H576" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:42:08</t>
-        </is>
+      <c r="H576" s="1" t="n">
+        <v>44397.52925925926</v>
       </c>
       <c r="I576" t="n">
         <v>208</v>
@@ -42227,10 +41093,8 @@
           <t>4950187085</t>
         </is>
       </c>
-      <c r="H577" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:40:34</t>
-        </is>
+      <c r="H577" s="1" t="n">
+        <v>44397.5281712963</v>
       </c>
       <c r="I577" t="n">
         <v>1</v>
@@ -42302,10 +41166,8 @@
           <t>4950227394</t>
         </is>
       </c>
-      <c r="H578" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:37:51</t>
-        </is>
+      <c r="H578" s="1" t="n">
+        <v>44397.52628472223</v>
       </c>
       <c r="I578" t="n">
         <v>3</v>
@@ -42374,10 +41236,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H579" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:37:44</t>
-        </is>
+      <c r="H579" s="1" t="n">
+        <v>44397.5262037037</v>
       </c>
       <c r="I579" t="n">
         <v>6</v>
@@ -42441,10 +41301,8 @@
           <t>4950187085</t>
         </is>
       </c>
-      <c r="H580" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:36:42</t>
-        </is>
+      <c r="H580" s="1" t="n">
+        <v>44397.52548611111</v>
       </c>
       <c r="I580" t="n">
         <v>16</v>
@@ -42528,10 +41386,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H581" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:35:23</t>
-        </is>
+      <c r="H581" s="1" t="n">
+        <v>44397.52457175926</v>
       </c>
       <c r="I581" t="n">
         <v>4</v>
@@ -42591,10 +41447,8 @@
           <t>4950198194</t>
         </is>
       </c>
-      <c r="H582" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:34:27</t>
-        </is>
+      <c r="H582" s="1" t="n">
+        <v>44397.52392361111</v>
       </c>
       <c r="I582" t="n">
         <v>20</v>
@@ -42658,10 +41512,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H583" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:34:23</t>
-        </is>
+      <c r="H583" s="1" t="n">
+        <v>44397.52387731482</v>
       </c>
       <c r="I583" t="n">
         <v>1</v>
@@ -42733,10 +41585,8 @@
           <t>4950157694</t>
         </is>
       </c>
-      <c r="H584" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:34:18</t>
-        </is>
+      <c r="H584" s="1" t="n">
+        <v>44397.52381944445</v>
       </c>
       <c r="I584" t="n">
         <v>0</v>
@@ -42800,10 +41650,8 @@
           <t>4950189244</t>
         </is>
       </c>
-      <c r="H585" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:34:10</t>
-        </is>
+      <c r="H585" s="1" t="n">
+        <v>44397.52372685185</v>
       </c>
       <c r="I585" t="n">
         <v>0</v>
@@ -42879,10 +41727,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H586" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:34:09</t>
-        </is>
+      <c r="H586" s="1" t="n">
+        <v>44397.52371527778</v>
       </c>
       <c r="I586" t="n">
         <v>0</v>
@@ -42942,10 +41788,8 @@
           <t>4950161647</t>
         </is>
       </c>
-      <c r="H587" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:34:02</t>
-        </is>
+      <c r="H587" s="1" t="n">
+        <v>44397.52363425926</v>
       </c>
       <c r="I587" t="n">
         <v>3</v>
@@ -43009,10 +41853,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H588" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:33:47</t>
-        </is>
+      <c r="H588" s="1" t="n">
+        <v>44397.52346064815</v>
       </c>
       <c r="I588" t="n">
         <v>0</v>
@@ -43072,10 +41914,8 @@
           <t>4950188199</t>
         </is>
       </c>
-      <c r="H589" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:33:45</t>
-        </is>
+      <c r="H589" s="1" t="n">
+        <v>44397.5234375</v>
       </c>
       <c r="I589" t="n">
         <v>1</v>
@@ -43151,10 +41991,8 @@
           <t>4950187085</t>
         </is>
       </c>
-      <c r="H590" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:33:18</t>
-        </is>
+      <c r="H590" s="1" t="n">
+        <v>44397.523125</v>
       </c>
       <c r="I590" t="n">
         <v>10</v>
@@ -43230,10 +42068,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H591" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:31:56</t>
-        </is>
+      <c r="H591" s="1" t="n">
+        <v>44397.52217592593</v>
       </c>
       <c r="I591" t="n">
         <v>13</v>
@@ -43301,10 +42137,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H592" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:31:51</t>
-        </is>
+      <c r="H592" s="1" t="n">
+        <v>44397.52211805555</v>
       </c>
       <c r="I592" t="n">
         <v>0</v>
@@ -43372,10 +42206,8 @@
           <t>4950180761</t>
         </is>
       </c>
-      <c r="H593" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:31:36</t>
-        </is>
+      <c r="H593" s="1" t="n">
+        <v>44397.52194444444</v>
       </c>
       <c r="I593" t="n">
         <v>4</v>
@@ -43443,10 +42275,8 @@
           <t>4950180526</t>
         </is>
       </c>
-      <c r="H594" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:31:31</t>
-        </is>
+      <c r="H594" s="1" t="n">
+        <v>44397.52188657408</v>
       </c>
       <c r="I594" t="n">
         <v>0</v>
@@ -43510,10 +42340,8 @@
           <t>4950170395</t>
         </is>
       </c>
-      <c r="H595" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:30:33</t>
-        </is>
+      <c r="H595" s="1" t="n">
+        <v>44397.52121527777</v>
       </c>
       <c r="I595" t="n">
         <v>13</v>
@@ -43585,10 +42413,8 @@
           <t>4950157694</t>
         </is>
       </c>
-      <c r="H596" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:29:27</t>
-        </is>
+      <c r="H596" s="1" t="n">
+        <v>44397.52045138889</v>
       </c>
       <c r="I596" t="n">
         <v>0</v>
@@ -43652,10 +42478,8 @@
           <t>4950161647</t>
         </is>
       </c>
-      <c r="H597" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:29:20</t>
-        </is>
+      <c r="H597" s="1" t="n">
+        <v>44397.52037037037</v>
       </c>
       <c r="I597" t="n">
         <v>2</v>
@@ -43724,10 +42548,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H598" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:28:07</t>
-        </is>
+      <c r="H598" s="1" t="n">
+        <v>44397.51952546297</v>
       </c>
       <c r="I598" t="n">
         <v>17</v>
@@ -43795,10 +42617,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H599" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:27:46</t>
-        </is>
+      <c r="H599" s="1" t="n">
+        <v>44397.5192824074</v>
       </c>
       <c r="I599" t="n">
         <v>123</v>
@@ -43866,10 +42686,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H600" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:27:44</t>
-        </is>
+      <c r="H600" s="1" t="n">
+        <v>44397.51925925926</v>
       </c>
       <c r="I600" t="n">
         <v>1</v>
@@ -43933,10 +42751,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H601" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:27:09</t>
-        </is>
+      <c r="H601" s="1" t="n">
+        <v>44397.51885416666</v>
       </c>
       <c r="I601" t="n">
         <v>238</v>
@@ -44004,10 +42820,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H602" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:26:57</t>
-        </is>
+      <c r="H602" s="1" t="n">
+        <v>44397.51871527778</v>
       </c>
       <c r="I602" t="n">
         <v>2</v>
@@ -44075,10 +42889,8 @@
           <t>4950137272</t>
         </is>
       </c>
-      <c r="H603" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:26:35</t>
-        </is>
+      <c r="H603" s="1" t="n">
+        <v>44397.51846064815</v>
       </c>
       <c r="I603" t="n">
         <v>0</v>
@@ -44154,10 +42966,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H604" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:26:25</t>
-        </is>
+      <c r="H604" s="1" t="n">
+        <v>44397.51834490741</v>
       </c>
       <c r="I604" t="n">
         <v>8</v>
@@ -44229,10 +43039,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H605" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:25:38</t>
-        </is>
+      <c r="H605" s="1" t="n">
+        <v>44397.51780092593</v>
       </c>
       <c r="I605" t="n">
         <v>2</v>
@@ -44300,10 +43108,8 @@
           <t>4950123549</t>
         </is>
       </c>
-      <c r="H606" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:25:10</t>
-        </is>
+      <c r="H606" s="1" t="n">
+        <v>44397.51747685186</v>
       </c>
       <c r="I606" t="n">
         <v>1</v>
@@ -44379,10 +43185,8 @@
           <t>4950003641</t>
         </is>
       </c>
-      <c r="H607" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:24:17</t>
-        </is>
+      <c r="H607" s="1" t="n">
+        <v>44397.51686342592</v>
       </c>
       <c r="I607" t="n">
         <v>4</v>
@@ -44450,10 +43254,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H608" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:23:11</t>
-        </is>
+      <c r="H608" s="1" t="n">
+        <v>44397.51609953704</v>
       </c>
       <c r="I608" t="n">
         <v>0</v>
@@ -44529,10 +43331,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H609" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:22:29</t>
-        </is>
+      <c r="H609" s="1" t="n">
+        <v>44397.51561342592</v>
       </c>
       <c r="I609" t="n">
         <v>0</v>
@@ -44596,10 +43396,8 @@
           <t>4950105455</t>
         </is>
       </c>
-      <c r="H610" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:22:12</t>
-        </is>
+      <c r="H610" s="1" t="n">
+        <v>44397.51541666667</v>
       </c>
       <c r="I610" t="n">
         <v>0</v>
@@ -44667,10 +43465,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H611" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:22:11</t>
-        </is>
+      <c r="H611" s="1" t="n">
+        <v>44397.51540509259</v>
       </c>
       <c r="I611" t="n">
         <v>4</v>
@@ -44746,10 +43542,8 @@
           <t>4950099618</t>
         </is>
       </c>
-      <c r="H612" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:22:09</t>
-        </is>
+      <c r="H612" s="1" t="n">
+        <v>44397.51538194445</v>
       </c>
       <c r="I612" t="n">
         <v>0</v>
@@ -44817,10 +43611,8 @@
           <t>4950102076</t>
         </is>
       </c>
-      <c r="H613" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:21:46</t>
-        </is>
+      <c r="H613" s="1" t="n">
+        <v>44397.51511574074</v>
       </c>
       <c r="I613" t="n">
         <v>0</v>
@@ -44892,10 +43684,8 @@
           <t>4950087224</t>
         </is>
       </c>
-      <c r="H614" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:21:33</t>
-        </is>
+      <c r="H614" s="1" t="n">
+        <v>44397.51496527778</v>
       </c>
       <c r="I614" t="n">
         <v>0</v>
@@ -44971,10 +43761,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H615" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:21:31</t>
-        </is>
+      <c r="H615" s="1" t="n">
+        <v>44397.51494212963</v>
       </c>
       <c r="I615" t="n">
         <v>6</v>
@@ -45042,10 +43830,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H616" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:21:30</t>
-        </is>
+      <c r="H616" s="1" t="n">
+        <v>44397.51493055555</v>
       </c>
       <c r="I616" t="n">
         <v>0</v>
@@ -45117,10 +43903,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H617" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:21:26</t>
-        </is>
+      <c r="H617" s="1" t="n">
+        <v>44397.51488425926</v>
       </c>
       <c r="I617" t="n">
         <v>0</v>
@@ -45192,10 +43976,8 @@
           <t>4950088975</t>
         </is>
       </c>
-      <c r="H618" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:20:31</t>
-        </is>
+      <c r="H618" s="1" t="n">
+        <v>44397.51424768518</v>
       </c>
       <c r="I618" t="n">
         <v>0</v>
@@ -45267,10 +44049,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H619" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:20:28</t>
-        </is>
+      <c r="H619" s="1" t="n">
+        <v>44397.51421296296</v>
       </c>
       <c r="I619" t="n">
         <v>10</v>
@@ -45338,10 +44118,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H620" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:19:47</t>
-        </is>
+      <c r="H620" s="1" t="n">
+        <v>44397.51373842593</v>
       </c>
       <c r="I620" t="n">
         <v>0</v>
@@ -45405,10 +44183,8 @@
           <t>4950087224</t>
         </is>
       </c>
-      <c r="H621" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:19:47</t>
-        </is>
+      <c r="H621" s="1" t="n">
+        <v>44397.51373842593</v>
       </c>
       <c r="I621" t="n">
         <v>0</v>
@@ -45476,10 +44252,8 @@
           <t>4950082744</t>
         </is>
       </c>
-      <c r="H622" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:19:17</t>
-        </is>
+      <c r="H622" s="1" t="n">
+        <v>44397.51339120371</v>
       </c>
       <c r="I622" t="n">
         <v>1</v>
@@ -45547,10 +44321,8 @@
           <t>4950078058</t>
         </is>
       </c>
-      <c r="H623" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:19:17</t>
-        </is>
+      <c r="H623" s="1" t="n">
+        <v>44397.51339120371</v>
       </c>
       <c r="I623" t="n">
         <v>1</v>
@@ -45626,10 +44398,8 @@
           <t>4950082189</t>
         </is>
       </c>
-      <c r="H624" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:19:03</t>
-        </is>
+      <c r="H624" s="1" t="n">
+        <v>44397.51322916667</v>
       </c>
       <c r="I624" t="n">
         <v>0</v>
@@ -45701,10 +44471,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H625" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:19:00</t>
-        </is>
+      <c r="H625" s="1" t="n">
+        <v>44397.51319444444</v>
       </c>
       <c r="I625" t="n">
         <v>0</v>
@@ -45774,10 +44542,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H626" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:18:49</t>
-        </is>
+      <c r="H626" s="1" t="n">
+        <v>44397.51306712963</v>
       </c>
       <c r="I626" t="n">
         <v>12</v>
@@ -45845,10 +44611,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H627" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:18:21</t>
-        </is>
+      <c r="H627" s="1" t="n">
+        <v>44397.51274305556</v>
       </c>
       <c r="I627" t="n">
         <v>10</v>
@@ -45916,10 +44680,8 @@
           <t>4950033195</t>
         </is>
       </c>
-      <c r="H628" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:18:04</t>
-        </is>
+      <c r="H628" s="1" t="n">
+        <v>44397.5125462963</v>
       </c>
       <c r="I628" t="n">
         <v>2</v>
@@ -45995,10 +44757,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H629" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:17:55</t>
-        </is>
+      <c r="H629" s="1" t="n">
+        <v>44397.51244212963</v>
       </c>
       <c r="I629" t="n">
         <v>0</v>
@@ -46070,10 +44830,8 @@
           <t>4950068715</t>
         </is>
       </c>
-      <c r="H630" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:17:36</t>
-        </is>
+      <c r="H630" s="1" t="n">
+        <v>44397.51222222222</v>
       </c>
       <c r="I630" t="n">
         <v>0</v>
@@ -46145,10 +44903,8 @@
           <t>4950003641</t>
         </is>
       </c>
-      <c r="H631" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:17:14</t>
-        </is>
+      <c r="H631" s="1" t="n">
+        <v>44397.5119675926</v>
       </c>
       <c r="I631" t="n">
         <v>40</v>
@@ -46216,10 +44972,8 @@
           <t>4950058894</t>
         </is>
       </c>
-      <c r="H632" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:16:26</t>
-        </is>
+      <c r="H632" s="1" t="n">
+        <v>44397.51141203703</v>
       </c>
       <c r="I632" t="n">
         <v>0</v>
@@ -46287,10 +45041,8 @@
           <t>4950030426</t>
         </is>
       </c>
-      <c r="H633" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:16:24</t>
-        </is>
+      <c r="H633" s="1" t="n">
+        <v>44397.51138888889</v>
       </c>
       <c r="I633" t="n">
         <v>3</v>
@@ -46366,10 +45118,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H634" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:15:04</t>
-        </is>
+      <c r="H634" s="1" t="n">
+        <v>44397.51046296296</v>
       </c>
       <c r="I634" t="n">
         <v>0</v>
@@ -46445,10 +45195,8 @@
           <t>4950030426</t>
         </is>
       </c>
-      <c r="H635" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:13:47</t>
-        </is>
+      <c r="H635" s="1" t="n">
+        <v>44397.50957175926</v>
       </c>
       <c r="I635" t="n">
         <v>0</v>
@@ -46512,10 +45260,8 @@
           <t>4950033195</t>
         </is>
       </c>
-      <c r="H636" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:13:10</t>
-        </is>
+      <c r="H636" s="1" t="n">
+        <v>44397.50914351852</v>
       </c>
       <c r="I636" t="n">
         <v>4</v>
@@ -46579,10 +45325,8 @@
           <t>4950030426</t>
         </is>
       </c>
-      <c r="H637" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:12:57</t>
-        </is>
+      <c r="H637" s="1" t="n">
+        <v>44397.50899305556</v>
       </c>
       <c r="I637" t="n">
         <v>7</v>
@@ -46654,10 +45398,8 @@
           <t>4950018517</t>
         </is>
       </c>
-      <c r="H638" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:12:54</t>
-        </is>
+      <c r="H638" s="1" t="n">
+        <v>44397.50895833333</v>
       </c>
       <c r="I638" t="n">
         <v>1</v>
@@ -46733,10 +45475,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H639" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:12:30</t>
-        </is>
+      <c r="H639" s="1" t="n">
+        <v>44397.50868055555</v>
       </c>
       <c r="I639" t="n">
         <v>0</v>
@@ -46812,10 +45552,8 @@
           <t>4949968285</t>
         </is>
       </c>
-      <c r="H640" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:12:19</t>
-        </is>
+      <c r="H640" s="1" t="n">
+        <v>44397.50855324074</v>
       </c>
       <c r="I640" t="n">
         <v>0</v>
@@ -46894,10 +45632,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H641" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:12:08</t>
-        </is>
+      <c r="H641" s="1" t="n">
+        <v>44397.50842592592</v>
       </c>
       <c r="I641" t="n">
         <v>0</v>
@@ -46961,10 +45697,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H642" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:12:05</t>
-        </is>
+      <c r="H642" s="1" t="n">
+        <v>44397.5083912037</v>
       </c>
       <c r="I642" t="n">
         <v>0</v>
@@ -47045,10 +45779,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H643" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:12:02</t>
-        </is>
+      <c r="H643" s="1" t="n">
+        <v>44397.50835648148</v>
       </c>
       <c r="I643" t="n">
         <v>2</v>
@@ -47116,10 +45848,8 @@
           <t>4950030426</t>
         </is>
       </c>
-      <c r="H644" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:11:59</t>
-        </is>
+      <c r="H644" s="1" t="n">
+        <v>44397.50832175926</v>
       </c>
       <c r="I644" t="n">
         <v>0</v>
@@ -47183,10 +45913,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H645" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:11:50</t>
-        </is>
+      <c r="H645" s="1" t="n">
+        <v>44397.50821759259</v>
       </c>
       <c r="I645" t="n">
         <v>8</v>
@@ -47257,10 +45985,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H646" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:11:20</t>
-        </is>
+      <c r="H646" s="1" t="n">
+        <v>44397.50787037037</v>
       </c>
       <c r="I646" t="n">
         <v>3</v>
@@ -47332,10 +46058,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H647" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:11:11</t>
-        </is>
+      <c r="H647" s="1" t="n">
+        <v>44397.5077662037</v>
       </c>
       <c r="I647" t="n">
         <v>0</v>
@@ -47411,10 +46135,8 @@
           <t>4950018517</t>
         </is>
       </c>
-      <c r="H648" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:11:11</t>
-        </is>
+      <c r="H648" s="1" t="n">
+        <v>44397.5077662037</v>
       </c>
       <c r="I648" t="n">
         <v>17</v>
@@ -47482,10 +46204,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H649" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:11:09</t>
-        </is>
+      <c r="H649" s="1" t="n">
+        <v>44397.50774305555</v>
       </c>
       <c r="I649" t="n">
         <v>0</v>
@@ -47549,10 +46269,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H650" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:10:37</t>
-        </is>
+      <c r="H650" s="1" t="n">
+        <v>44397.50737268518</v>
       </c>
       <c r="I650" t="n">
         <v>0</v>
@@ -47628,10 +46346,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H651" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:10:33</t>
-        </is>
+      <c r="H651" s="1" t="n">
+        <v>44397.50732638889</v>
       </c>
       <c r="I651" t="n">
         <v>0</v>
@@ -47695,10 +46411,8 @@
           <t>4950009878</t>
         </is>
       </c>
-      <c r="H652" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:10:18</t>
-        </is>
+      <c r="H652" s="1" t="n">
+        <v>44397.50715277778</v>
       </c>
       <c r="I652" t="n">
         <v>0</v>
@@ -47774,10 +46488,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H653" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:10:02</t>
-        </is>
+      <c r="H653" s="1" t="n">
+        <v>44397.50696759259</v>
       </c>
       <c r="I653" t="n">
         <v>74</v>
@@ -47853,10 +46565,8 @@
           <t>4950003641</t>
         </is>
       </c>
-      <c r="H654" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:09:12</t>
-        </is>
+      <c r="H654" s="1" t="n">
+        <v>44397.50638888889</v>
       </c>
       <c r="I654" t="n">
         <v>53</v>
@@ -47920,10 +46630,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H655" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:08:27</t>
-        </is>
+      <c r="H655" s="1" t="n">
+        <v>44397.50586805555</v>
       </c>
       <c r="I655" t="n">
         <v>102</v>
@@ -47991,10 +46699,8 @@
           <t>4949998608</t>
         </is>
       </c>
-      <c r="H656" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:08:22</t>
-        </is>
+      <c r="H656" s="1" t="n">
+        <v>44397.50581018518</v>
       </c>
       <c r="I656" t="n">
         <v>0</v>
@@ -48058,10 +46764,8 @@
           <t>4949994000</t>
         </is>
       </c>
-      <c r="H657" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:08:06</t>
-        </is>
+      <c r="H657" s="1" t="n">
+        <v>44397.505625</v>
       </c>
       <c r="I657" t="n">
         <v>1</v>
@@ -48133,10 +46837,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H658" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:07:10</t>
-        </is>
+      <c r="H658" s="1" t="n">
+        <v>44397.50497685185</v>
       </c>
       <c r="I658" t="n">
         <v>8</v>
@@ -48200,10 +46902,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H659" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:06:59</t>
-        </is>
+      <c r="H659" s="1" t="n">
+        <v>44397.50484953704</v>
       </c>
       <c r="I659" t="n">
         <v>44</v>
@@ -48275,10 +46975,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H660" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:05:52</t>
-        </is>
+      <c r="H660" s="1" t="n">
+        <v>44397.50407407407</v>
       </c>
       <c r="I660" t="n">
         <v>0</v>
@@ -48354,10 +47052,8 @@
           <t>4949974539</t>
         </is>
       </c>
-      <c r="H661" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:05:30</t>
-        </is>
+      <c r="H661" s="1" t="n">
+        <v>44397.50381944444</v>
       </c>
       <c r="I661" t="n">
         <v>0</v>
@@ -48421,10 +47117,8 @@
           <t>4949980913</t>
         </is>
       </c>
-      <c r="H662" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:05:22</t>
-        </is>
+      <c r="H662" s="1" t="n">
+        <v>44397.50372685185</v>
       </c>
       <c r="I662" t="n">
         <v>2</v>
@@ -48496,10 +47190,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H663" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:04:37</t>
-        </is>
+      <c r="H663" s="1" t="n">
+        <v>44397.50320601852</v>
       </c>
       <c r="I663" t="n">
         <v>1</v>
@@ -48567,10 +47259,8 @@
           <t>4949972054</t>
         </is>
       </c>
-      <c r="H664" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:04:30</t>
-        </is>
+      <c r="H664" s="1" t="n">
+        <v>44397.503125</v>
       </c>
       <c r="I664" t="n">
         <v>1</v>
@@ -48634,10 +47324,8 @@
           <t>4949968285</t>
         </is>
       </c>
-      <c r="H665" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:04:22</t>
-        </is>
+      <c r="H665" s="1" t="n">
+        <v>44397.50303240741</v>
       </c>
       <c r="I665" t="n">
         <v>0</v>
@@ -48710,10 +47398,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H666" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:04:16</t>
-        </is>
+      <c r="H666" s="1" t="n">
+        <v>44397.50296296296</v>
       </c>
       <c r="I666" t="n">
         <v>31</v>
@@ -48773,10 +47459,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H667" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:04:12</t>
-        </is>
+      <c r="H667" s="1" t="n">
+        <v>44397.50291666666</v>
       </c>
       <c r="I667" t="n">
         <v>0</v>
@@ -48836,10 +47520,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H668" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:03:50</t>
-        </is>
+      <c r="H668" s="1" t="n">
+        <v>44397.50266203703</v>
       </c>
       <c r="I668" t="n">
         <v>5</v>
@@ -48903,10 +47585,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H669" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:03:46</t>
-        </is>
+      <c r="H669" s="1" t="n">
+        <v>44397.50261574074</v>
       </c>
       <c r="I669" t="n">
         <v>4</v>
@@ -48982,10 +47662,8 @@
           <t>4949958934</t>
         </is>
       </c>
-      <c r="H670" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:03:16</t>
-        </is>
+      <c r="H670" s="1" t="n">
+        <v>44397.50226851852</v>
       </c>
       <c r="I670" t="n">
         <v>0</v>
@@ -49049,10 +47727,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H671" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:02:54</t>
-        </is>
+      <c r="H671" s="1" t="n">
+        <v>44397.50201388889</v>
       </c>
       <c r="I671" t="n">
         <v>73</v>
@@ -49116,10 +47792,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H672" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:01:58</t>
-        </is>
+      <c r="H672" s="1" t="n">
+        <v>44397.50136574074</v>
       </c>
       <c r="I672" t="n">
         <v>0</v>
@@ -49195,10 +47869,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H673" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:01:51</t>
-        </is>
+      <c r="H673" s="1" t="n">
+        <v>44397.50128472222</v>
       </c>
       <c r="I673" t="n">
         <v>0</v>
@@ -49274,10 +47946,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H674" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:01:39</t>
-        </is>
+      <c r="H674" s="1" t="n">
+        <v>44397.50114583333</v>
       </c>
       <c r="I674" t="n">
         <v>5</v>
@@ -49345,10 +48015,8 @@
           <t>4949946788</t>
         </is>
       </c>
-      <c r="H675" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:01:37</t>
-        </is>
+      <c r="H675" s="1" t="n">
+        <v>44397.50112268519</v>
       </c>
       <c r="I675" t="n">
         <v>0</v>
@@ -49412,10 +48080,8 @@
           <t>4949950959</t>
         </is>
       </c>
-      <c r="H676" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:01:33</t>
-        </is>
+      <c r="H676" s="1" t="n">
+        <v>44397.50107638889</v>
       </c>
       <c r="I676" t="n">
         <v>0</v>
@@ -49487,10 +48153,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H677" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:01:27</t>
-        </is>
+      <c r="H677" s="1" t="n">
+        <v>44397.50100694445</v>
       </c>
       <c r="I677" t="n">
         <v>0</v>
@@ -49558,10 +48222,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H678" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:01:17</t>
-        </is>
+      <c r="H678" s="1" t="n">
+        <v>44397.5008912037</v>
       </c>
       <c r="I678" t="n">
         <v>0</v>
@@ -49629,10 +48291,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H679" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:01:13</t>
-        </is>
+      <c r="H679" s="1" t="n">
+        <v>44397.50084490741</v>
       </c>
       <c r="I679" t="n">
         <v>0</v>
@@ -49708,10 +48368,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H680" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:01:05</t>
-        </is>
+      <c r="H680" s="1" t="n">
+        <v>44397.50075231482</v>
       </c>
       <c r="I680" t="n">
         <v>0</v>
@@ -49779,10 +48437,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H681" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:01:02</t>
-        </is>
+      <c r="H681" s="1" t="n">
+        <v>44397.50071759259</v>
       </c>
       <c r="I681" t="n">
         <v>0</v>
@@ -49859,10 +48515,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H682" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:01:02</t>
-        </is>
+      <c r="H682" s="1" t="n">
+        <v>44397.50071759259</v>
       </c>
       <c r="I682" t="n">
         <v>0</v>
@@ -49939,10 +48593,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H683" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:00:59</t>
-        </is>
+      <c r="H683" s="1" t="n">
+        <v>44397.50068287037</v>
       </c>
       <c r="I683" t="n">
         <v>2</v>
@@ -50010,10 +48662,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H684" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:00:52</t>
-        </is>
+      <c r="H684" s="1" t="n">
+        <v>44397.50060185185</v>
       </c>
       <c r="I684" t="n">
         <v>0</v>
@@ -50077,10 +48727,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H685" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:00:51</t>
-        </is>
+      <c r="H685" s="1" t="n">
+        <v>44397.50059027778</v>
       </c>
       <c r="I685" t="n">
         <v>5</v>
@@ -50152,10 +48800,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H686" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:00:48</t>
-        </is>
+      <c r="H686" s="1" t="n">
+        <v>44397.50055555555</v>
       </c>
       <c r="I686" t="n">
         <v>0</v>
@@ -50227,10 +48873,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H687" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:00:48</t>
-        </is>
+      <c r="H687" s="1" t="n">
+        <v>44397.50055555555</v>
       </c>
       <c r="I687" t="n">
         <v>1</v>
@@ -50298,10 +48942,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H688" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:00:43</t>
-        </is>
+      <c r="H688" s="1" t="n">
+        <v>44397.50049768519</v>
       </c>
       <c r="I688" t="n">
         <v>1</v>
@@ -50365,10 +49007,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H689" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:00:43</t>
-        </is>
+      <c r="H689" s="1" t="n">
+        <v>44397.50049768519</v>
       </c>
       <c r="I689" t="n">
         <v>0</v>
@@ -50436,10 +49076,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H690" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:00:42</t>
-        </is>
+      <c r="H690" s="1" t="n">
+        <v>44397.50048611111</v>
       </c>
       <c r="I690" t="n">
         <v>1</v>
@@ -50507,10 +49145,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H691" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:00:41</t>
-        </is>
+      <c r="H691" s="1" t="n">
+        <v>44397.50047453704</v>
       </c>
       <c r="I691" t="n">
         <v>66</v>
@@ -50586,10 +49222,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H692" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:00:40</t>
-        </is>
+      <c r="H692" s="1" t="n">
+        <v>44397.50046296296</v>
       </c>
       <c r="I692" t="n">
         <v>5</v>
@@ -50665,10 +49299,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H693" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:00:39</t>
-        </is>
+      <c r="H693" s="1" t="n">
+        <v>44397.50045138889</v>
       </c>
       <c r="I693" t="n">
         <v>0</v>
@@ -50736,10 +49368,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H694" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:00:38</t>
-        </is>
+      <c r="H694" s="1" t="n">
+        <v>44397.50043981482</v>
       </c>
       <c r="I694" t="n">
         <v>0</v>
@@ -50807,10 +49437,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H695" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:00:36</t>
-        </is>
+      <c r="H695" s="1" t="n">
+        <v>44397.50041666667</v>
       </c>
       <c r="I695" t="n">
         <v>0</v>
@@ -50878,10 +49506,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H696" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:00:36</t>
-        </is>
+      <c r="H696" s="1" t="n">
+        <v>44397.50041666667</v>
       </c>
       <c r="I696" t="n">
         <v>0</v>
@@ -50957,10 +49583,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H697" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:00:34</t>
-        </is>
+      <c r="H697" s="1" t="n">
+        <v>44397.50039351852</v>
       </c>
       <c r="I697" t="n">
         <v>0</v>
@@ -51028,10 +49652,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H698" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:00:34</t>
-        </is>
+      <c r="H698" s="1" t="n">
+        <v>44397.50039351852</v>
       </c>
       <c r="I698" t="n">
         <v>0</v>
@@ -51095,10 +49717,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H699" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:00:29</t>
-        </is>
+      <c r="H699" s="1" t="n">
+        <v>44397.50033564815</v>
       </c>
       <c r="I699" t="n">
         <v>2</v>
@@ -51174,10 +49794,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H700" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:00:27</t>
-        </is>
+      <c r="H700" s="1" t="n">
+        <v>44397.5003125</v>
       </c>
       <c r="I700" t="n">
         <v>0</v>
@@ -51253,10 +49871,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H701" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:00:26</t>
-        </is>
+      <c r="H701" s="1" t="n">
+        <v>44397.50030092592</v>
       </c>
       <c r="I701" t="n">
         <v>0</v>
@@ -51328,10 +49944,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H702" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:00:23</t>
-        </is>
+      <c r="H702" s="1" t="n">
+        <v>44397.5002662037</v>
       </c>
       <c r="I702" t="n">
         <v>0</v>
@@ -51399,10 +50013,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H703" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:00:23</t>
-        </is>
+      <c r="H703" s="1" t="n">
+        <v>44397.5002662037</v>
       </c>
       <c r="I703" t="n">
         <v>0</v>
@@ -51478,10 +50090,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H704" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:00:23</t>
-        </is>
+      <c r="H704" s="1" t="n">
+        <v>44397.5002662037</v>
       </c>
       <c r="I704" t="n">
         <v>0</v>
@@ -51545,10 +50155,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H705" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:00:22</t>
-        </is>
+      <c r="H705" s="1" t="n">
+        <v>44397.50025462963</v>
       </c>
       <c r="I705" t="n">
         <v>0</v>
@@ -51624,10 +50232,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H706" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:00:22</t>
-        </is>
+      <c r="H706" s="1" t="n">
+        <v>44397.50025462963</v>
       </c>
       <c r="I706" t="n">
         <v>0</v>
@@ -51703,10 +50309,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H707" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:00:22</t>
-        </is>
+      <c r="H707" s="1" t="n">
+        <v>44397.50025462963</v>
       </c>
       <c r="I707" t="n">
         <v>0</v>
@@ -51778,10 +50382,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H708" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:00:21</t>
-        </is>
+      <c r="H708" s="1" t="n">
+        <v>44397.50024305555</v>
       </c>
       <c r="I708" t="n">
         <v>0</v>
@@ -51853,10 +50455,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H709" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:00:20</t>
-        </is>
+      <c r="H709" s="1" t="n">
+        <v>44397.50023148148</v>
       </c>
       <c r="I709" t="n">
         <v>2</v>
@@ -51920,10 +50520,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H710" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:00:20</t>
-        </is>
+      <c r="H710" s="1" t="n">
+        <v>44397.50023148148</v>
       </c>
       <c r="I710" t="n">
         <v>29</v>
@@ -51999,10 +50597,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H711" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:00:20</t>
-        </is>
+      <c r="H711" s="1" t="n">
+        <v>44397.50023148148</v>
       </c>
       <c r="I711" t="n">
         <v>0</v>
@@ -52066,10 +50662,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H712" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:00:19</t>
-        </is>
+      <c r="H712" s="1" t="n">
+        <v>44397.50021990741</v>
       </c>
       <c r="I712" t="n">
         <v>0</v>
@@ -52133,10 +50727,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H713" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:00:19</t>
-        </is>
+      <c r="H713" s="1" t="n">
+        <v>44397.50021990741</v>
       </c>
       <c r="I713" t="n">
         <v>0</v>
@@ -52212,10 +50804,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H714" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:00:18</t>
-        </is>
+      <c r="H714" s="1" t="n">
+        <v>44397.50020833333</v>
       </c>
       <c r="I714" t="n">
         <v>0</v>
@@ -52279,10 +50869,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H715" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:00:16</t>
-        </is>
+      <c r="H715" s="1" t="n">
+        <v>44397.50018518518</v>
       </c>
       <c r="I715" t="n">
         <v>0</v>
@@ -52358,10 +50946,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H716" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:00:15</t>
-        </is>
+      <c r="H716" s="1" t="n">
+        <v>44397.50017361111</v>
       </c>
       <c r="I716" t="n">
         <v>0</v>
@@ -52425,10 +51011,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H717" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:00:14</t>
-        </is>
+      <c r="H717" s="1" t="n">
+        <v>44397.50016203704</v>
       </c>
       <c r="I717" t="n">
         <v>0</v>
@@ -52492,10 +51076,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H718" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:00:14</t>
-        </is>
+      <c r="H718" s="1" t="n">
+        <v>44397.50016203704</v>
       </c>
       <c r="I718" t="n">
         <v>0</v>
@@ -52563,10 +51145,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H719" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:00:14</t>
-        </is>
+      <c r="H719" s="1" t="n">
+        <v>44397.50016203704</v>
       </c>
       <c r="I719" t="n">
         <v>1</v>
@@ -52642,10 +51222,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H720" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:00:13</t>
-        </is>
+      <c r="H720" s="1" t="n">
+        <v>44397.50015046296</v>
       </c>
       <c r="I720" t="n">
         <v>0</v>
@@ -52721,10 +51299,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H721" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:00:09</t>
-        </is>
+      <c r="H721" s="1" t="n">
+        <v>44397.50010416667</v>
       </c>
       <c r="I721" t="n">
         <v>925</v>
